--- a/maer_auto.xlsx
+++ b/maer_auto.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK26"/>
+  <dimension ref="A1:DI39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,275 +396,525 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>prt_1_vas.response_raw_i1650</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i1650</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i1650</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i1650</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>prt_order_i1650</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.response_raw_i1721</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i1721</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i1721</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i1721</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>prt_order_i1721</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>prt_1_vas.response_raw_i2057</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i2057</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i2057</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i2057</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>prt_order_i2057</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i2205</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i2205</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i2205</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i2205</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>prt_order_i2205</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.response_raw_i2276</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i2276</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2276</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2276</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>prt_order_i2276</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.response_raw_i2389</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i2389</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2389</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2389</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>prt_order_i2389</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.response_raw_i2393</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i2393</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2393</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2393</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>prt_order_i2393</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i2512</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i2512</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i2512</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i2512</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>prt_order_i2512</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.response_raw_i2745</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i2745</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2745</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2745</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>prt_order_i2745</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i2750</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i2750</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i2750</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i2750</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>prt_order_i2750</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i2840</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i2840</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i2840</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i2840</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>prt_order_i2840</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i3064</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i3064</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i3064</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i3064</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>prt_order_i3064</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.response_raw_i3350</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i3350</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i3350</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i3350</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>prt_order_i3350</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.response_raw_i3500</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i3500</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i3500</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i3500</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>prt_order_i3500</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i5594</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="CB1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i5594</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="CC1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i5594</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="CD1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i5594</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="CE1" t="inlineStr">
         <is>
           <t>prt_order_i5594</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="CF1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i6311</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="CG1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i6311</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="CH1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i6311</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="CI1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i6311</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="CJ1" t="inlineStr">
         <is>
           <t>prt_order_i6311</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="CK1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i7010</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="CL1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i7010</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="CM1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i7010</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="CN1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i7010</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="CO1" t="inlineStr">
         <is>
           <t>prt_order_i7010</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="CP1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i7175</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="CQ1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i7175</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="CR1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i7175</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="CS1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i7175</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="CT1" t="inlineStr">
         <is>
           <t>prt_order_i7175</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.response_raw_i7180</t>
+        </is>
+      </c>
+      <c r="CV1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i7180</t>
+        </is>
+      </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i7180</t>
+        </is>
+      </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i7180</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>prt_order_i7180</t>
+        </is>
+      </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.response_raw_i7513</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>prt_1_vas.rt_raw_i7513</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i7513</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i7513</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>prt_order_i7513</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
         <is>
           <t>prt_1_vas.response_raw_i8380</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="DF1" t="inlineStr">
         <is>
           <t>prt_1_vas.rt_raw_i8380</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="DG1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.keys_raw_i8380</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="DH1" t="inlineStr">
         <is>
           <t>prt_image_intens_resp.rt_raw_i8380</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="DI1" t="inlineStr">
         <is>
           <t>prt_order_i8380</t>
         </is>
@@ -5543,6 +5793,2541 @@
       </c>
       <c r="BK26" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>779</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2019_May_06_1025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.824491178076642</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>17.952</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10.05988289516426</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.98733462555083</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.297</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.754359281145298</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5.139140640281767</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>2.954233745146666</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>3.753896258227542</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.618790317322237</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.381</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>3.020682191105152</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>2.253075226351029</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>2.13550736765319</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>4.405286273458842</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>689</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2019_May_13_0917</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.505</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.386319972645197</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.58573543878515</v>
+      </c>
+      <c r="M28" t="n">
+        <v>10</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>11.305</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.471066865938155</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-10</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.423</v>
+      </c>
+      <c r="U28" t="n">
+        <v>6</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.419881843273743</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.803519522421311</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.863</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>3.370637554753102</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.622</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.668935513782117</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.757</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>2.519657332273255</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>-14</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>4.808</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>2.20304033325715</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>2.488</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1.352042082591879</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>2.736768063189857</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>19</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1.96931723055809</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>802</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2019_May_06_0922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.413</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.502421330423203</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.80360166327705</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-20</v>
+      </c>
+      <c r="O29" t="n">
+        <v>16.545</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4.505401082710478</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.086328084037632</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2.552505326566461</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.235132111766006</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.234860187210415</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>7.508</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>3.721051377515778</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>3.291</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>2.803214959516481</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>2.669410350379849</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>1.869488532445757</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>3.339</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>1.719097126343286</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>717</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2019_May_06_1117</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.718641014214882</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.814</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.452935868772329</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.976</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5.088928944760482</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>17.363</v>
+      </c>
+      <c r="U30" t="n">
+        <v>6</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5.78941982116703</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>5.666</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.338711329999569</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>5.977</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.652482520959893</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2.653370407217153</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>3.003448784587817</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>7.421</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>3.120695141324177</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1.485118816006434</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>4.994</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>3.42041549471287</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>15.877</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>4.004811712526134</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>748</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2019_May_07_2013</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.652487027996813</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10.887</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.924163696779942</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-30</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="P31" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.66951341128879</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-20</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="U31" t="n">
+        <v>7</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.070096742043461</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>5.799</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>4.238394905966288</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>5.015</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.284920145823889</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.970247547496001</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-35</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2.35308006390369</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>4.755446378430861</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>9.244999999999999</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1.935842631100058</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>4.592</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0.8180241811537599</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>2.437</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>3.387380116576423</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>761</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2019_May_13_1115</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.183</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.538528635668627</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.323</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.619282886866131</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>12.128</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5.355030554768746</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="U32" t="n">
+        <v>6</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.054850453199833</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2.670818858203347</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.671</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>2.57006834485037</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3.291</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2.235718522339084</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>4.070612796043861</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>5.557</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>3.587754896005208</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>5.792</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>2.335936903755282</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>2.586611007649481</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>6.525</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>3.170204998494228</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>813</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2019_May_13_1021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.681</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.788802814319752</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.563</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.622933894851485</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>11.305</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4.555263298640966</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4.965</v>
+      </c>
+      <c r="U33" t="n">
+        <v>6</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5.539187866309476</v>
+      </c>
+      <c r="W33" t="n">
+        <v>9</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>6.231</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6.974234117619744</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>3.887360799873932</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>11.038</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>4.888973120577248</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>9.265000000000001</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>3.737832927999989</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>8.798</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>2.870133666974652</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>4.763</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>4.471486021245255</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>4.461</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>4.004837863515604</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>12.975</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>7.99217937323192</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>792</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2019_May_13_1217</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.745</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.152904250506253</v>
+      </c>
+      <c r="H34" t="n">
+        <v>11</v>
+      </c>
+      <c r="I34" t="n">
+        <v>15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>24.605</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.321550411914359</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" t="n">
+        <v>16.174</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4.454913611940356</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>16</v>
+      </c>
+      <c r="T34" t="n">
+        <v>19.043</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6</v>
+      </c>
+      <c r="V34" t="n">
+        <v>10.81138041213671</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2.703367845289904</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>9.369</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>3.570689716301786</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>10.634</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>4.438725503452588</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>6.797</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>4.68854777559136</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>11.352</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>12.71272567531923</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>8.782999999999999</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>2.102612524420692</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>8.997999999999999</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>4.171527365882866</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>8.329000000000001</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>4.68890082755388</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>703</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2019_May_02_0937</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>30</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.357</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.139047620192287</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>17.579</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6.824188146722463</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-15</v>
+      </c>
+      <c r="O35" t="n">
+        <v>11.015</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.885733292549503</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-32</v>
+      </c>
+      <c r="T35" t="n">
+        <v>7.845</v>
+      </c>
+      <c r="U35" t="n">
+        <v>8</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.704741346932224</v>
+      </c>
+      <c r="W35" t="n">
+        <v>10</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.929</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3.587573006550883</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>2.052439120393956</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>7.861</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>3.771133665011803</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>4.855497057503271</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>4.858</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>4.054995513992253</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>6.159</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>6.474517190755705</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>5.143</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>3.637686794309957</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>5.376</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>3.754430571439116</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>845</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2019_May_02_1542</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.546</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.653289280553508</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>20</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6.077</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.58762355665931</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5.293</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.654254988313369</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>10.955</v>
+      </c>
+      <c r="U36" t="n">
+        <v>6</v>
+      </c>
+      <c r="V36" t="n">
+        <v>7.608284414456193</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>4.059</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.256837400233053</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.20196963519129</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2.392</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.418771027204457</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>3.404254162023335</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3.582</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.40215598614077</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.869678128461601</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>1.535697684795196</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>4.877</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>3.337620627085244</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>840</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2019_May_01_2029</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>31</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.45299506119045</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>15</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8.743</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.58679065625256</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-21</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4.706</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.019829459735774</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.304115014772833</v>
+      </c>
+      <c r="W37" t="n">
+        <v>11</v>
+      </c>
+      <c r="X37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>3.304219277559241</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>4.372141825031576</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>5.524</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.25289794956916</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>6.574</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>2.953597652014651</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>3.554</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>2.05312834929282</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>2.336764290086649</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>1.585988103224736</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>24</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.186905916207252</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>787</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2019_May_01_1924</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>18</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.753</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.536370134691424</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>39</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.275</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.903526876511933</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>20</v>
+      </c>
+      <c r="O38" t="n">
+        <v>17.781</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8.12502850700821</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>16</v>
+      </c>
+      <c r="T38" t="n">
+        <v>7.669</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.786565364503986</v>
+      </c>
+      <c r="W38" t="n">
+        <v>4</v>
+      </c>
+      <c r="X38" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8.093999999999999</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8.992744572099582</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>2.136282277519967</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>8.519</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2.219204544055174</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>3.037329983303607</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>12.978</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>4.754385421959341</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>6.708</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>4.021494659612472</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>30</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>11.514</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>3.737932333752724</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>32</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>8.544</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>3.621182051537289</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>812</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2019_May_06_1216</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MAER M R1 P1 v1</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.607</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.669081937629016</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>15</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.859</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9181383894665487</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-40</v>
+      </c>
+      <c r="O39" t="n">
+        <v>8.872</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4.137398820777889</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-20</v>
+      </c>
+      <c r="T39" t="n">
+        <v>27.395</v>
+      </c>
+      <c r="U39" t="n">
+        <v>7</v>
+      </c>
+      <c r="V39" t="n">
+        <v>7.490679598055067</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>4.956</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1.335135446974164</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.024</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>4.421801258306004</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>6.876</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>4.071200665599463</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>-50</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.975</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>3.470772917757131</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>4.607</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.752441386735882</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>6.128</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>2.003285930322818</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>5.789130469402153</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>40</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>4.087630617683317</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/maer_auto.xlsx
+++ b/maer_auto.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI39"/>
+  <dimension ref="A1:FW39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,6 +919,336 @@
           <t>prt_order_i8380</t>
         </is>
       </c>
+      <c r="DJ1" t="inlineStr">
+        <is>
+          <t>expName</t>
+        </is>
+      </c>
+      <c r="DK1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i2311</t>
+        </is>
+      </c>
+      <c r="DL1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i2311</t>
+        </is>
+      </c>
+      <c r="DM1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2311</t>
+        </is>
+      </c>
+      <c r="DN1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2311</t>
+        </is>
+      </c>
+      <c r="DO1" t="inlineStr">
+        <is>
+          <t>prt_order_i2311</t>
+        </is>
+      </c>
+      <c r="DP1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i2347</t>
+        </is>
+      </c>
+      <c r="DQ1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i2347</t>
+        </is>
+      </c>
+      <c r="DR1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2347</t>
+        </is>
+      </c>
+      <c r="DS1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2347</t>
+        </is>
+      </c>
+      <c r="DT1" t="inlineStr">
+        <is>
+          <t>prt_order_i2347</t>
+        </is>
+      </c>
+      <c r="DU1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i2360</t>
+        </is>
+      </c>
+      <c r="DV1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i2360</t>
+        </is>
+      </c>
+      <c r="DW1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2360</t>
+        </is>
+      </c>
+      <c r="DX1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2360</t>
+        </is>
+      </c>
+      <c r="DY1" t="inlineStr">
+        <is>
+          <t>prt_order_i2360</t>
+        </is>
+      </c>
+      <c r="DZ1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i2393</t>
+        </is>
+      </c>
+      <c r="EA1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i2393</t>
+        </is>
+      </c>
+      <c r="EB1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2393</t>
+        </is>
+      </c>
+      <c r="EC1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2393</t>
+        </is>
+      </c>
+      <c r="ED1" t="inlineStr">
+        <is>
+          <t>prt_order_i2393</t>
+        </is>
+      </c>
+      <c r="EE1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i2500</t>
+        </is>
+      </c>
+      <c r="EF1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i2500</t>
+        </is>
+      </c>
+      <c r="EG1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2500</t>
+        </is>
+      </c>
+      <c r="EH1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2500</t>
+        </is>
+      </c>
+      <c r="EI1" t="inlineStr">
+        <is>
+          <t>prt_order_i2500</t>
+        </is>
+      </c>
+      <c r="EJ1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i2540</t>
+        </is>
+      </c>
+      <c r="EK1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i2540</t>
+        </is>
+      </c>
+      <c r="EL1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2540</t>
+        </is>
+      </c>
+      <c r="EM1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2540</t>
+        </is>
+      </c>
+      <c r="EN1" t="inlineStr">
+        <is>
+          <t>prt_order_i2540</t>
+        </is>
+      </c>
+      <c r="EO1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i2799</t>
+        </is>
+      </c>
+      <c r="EP1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i2799</t>
+        </is>
+      </c>
+      <c r="EQ1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2799</t>
+        </is>
+      </c>
+      <c r="ER1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2799</t>
+        </is>
+      </c>
+      <c r="ES1" t="inlineStr">
+        <is>
+          <t>prt_order_i2799</t>
+        </is>
+      </c>
+      <c r="ET1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i2900</t>
+        </is>
+      </c>
+      <c r="EU1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i2900</t>
+        </is>
+      </c>
+      <c r="EV1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i2900</t>
+        </is>
+      </c>
+      <c r="EW1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i2900</t>
+        </is>
+      </c>
+      <c r="EX1" t="inlineStr">
+        <is>
+          <t>prt_order_i2900</t>
+        </is>
+      </c>
+      <c r="EY1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i3350</t>
+        </is>
+      </c>
+      <c r="EZ1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i3350</t>
+        </is>
+      </c>
+      <c r="FA1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i3350</t>
+        </is>
+      </c>
+      <c r="FB1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i3350</t>
+        </is>
+      </c>
+      <c r="FC1" t="inlineStr">
+        <is>
+          <t>prt_order_i3350</t>
+        </is>
+      </c>
+      <c r="FD1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i3500</t>
+        </is>
+      </c>
+      <c r="FE1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i3500</t>
+        </is>
+      </c>
+      <c r="FF1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i3500</t>
+        </is>
+      </c>
+      <c r="FG1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i3500</t>
+        </is>
+      </c>
+      <c r="FH1" t="inlineStr">
+        <is>
+          <t>prt_order_i3500</t>
+        </is>
+      </c>
+      <c r="FI1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i7006</t>
+        </is>
+      </c>
+      <c r="FJ1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i7006</t>
+        </is>
+      </c>
+      <c r="FK1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i7006</t>
+        </is>
+      </c>
+      <c r="FL1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i7006</t>
+        </is>
+      </c>
+      <c r="FM1" t="inlineStr">
+        <is>
+          <t>prt_order_i7006</t>
+        </is>
+      </c>
+      <c r="FN1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i7009</t>
+        </is>
+      </c>
+      <c r="FO1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i7009</t>
+        </is>
+      </c>
+      <c r="FP1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i7009</t>
+        </is>
+      </c>
+      <c r="FQ1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i7009</t>
+        </is>
+      </c>
+      <c r="FR1" t="inlineStr">
+        <is>
+          <t>prt_order_i7009</t>
+        </is>
+      </c>
+      <c r="FS1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.response_raw_i7036</t>
+        </is>
+      </c>
+      <c r="FT1" t="inlineStr">
+        <is>
+          <t>prt_2_vas.rt_raw_i7036</t>
+        </is>
+      </c>
+      <c r="FU1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.keys_raw_i7036</t>
+        </is>
+      </c>
+      <c r="FV1" t="inlineStr">
+        <is>
+          <t>prt_image_intens_resp.rt_raw_i7036</t>
+        </is>
+      </c>
+      <c r="FW1" t="inlineStr">
+        <is>
+          <t>prt_order_i7036</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -931,7 +1261,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_22_0921</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1164,6 +1494,196 @@
       <c r="DI2" t="n">
         <v>10</v>
       </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1.752379192505032</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>8.512</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1.251808150322177</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>1.852578553953208</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>5.724</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>3.804507943685167</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>8</v>
+      </c>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="inlineStr"/>
+      <c r="EH2" t="inlineStr"/>
+      <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>4.604</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1.167561615002342</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>2.620034103281796</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>10</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>6.409</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1.185167924850248</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>9</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1.368664938956499</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1.368846422526985</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>5.959</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1.251916018780321</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>2</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1.185356018831953</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>7</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>4.235</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>2.086171943694353</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1176,7 +1696,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_22_1715</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1409,6 +1929,196 @@
       <c r="DI3" t="n">
         <v>7</v>
       </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>2.704</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>2.302936638589017</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>20</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>2.136160751222633</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>7</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>6.469</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>2.870674929581583</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>2.206</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>2.202956920256838</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr"/>
+      <c r="EH3" t="inlineStr"/>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>6</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>2.302983812172897</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>-33</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>3.441</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>4.521982798120007</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>-18</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>1.619055173709057</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>9</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>-22</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>2.553768262849189</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>-23</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>1.485468544531614</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>-23</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>4.208</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>3.253979342756793</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>4</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>1.989</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>3.170401352108456</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>8</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>1.2686659906758</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1421,7 +2131,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_26_1418</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1654,6 +2364,196 @@
       <c r="DI4" t="n">
         <v>11</v>
       </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>8.377000000000001</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>2.569950647888618</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>3</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>-8</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>3.272</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>2.203210516430772</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>6</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>-11</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>7.952</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>7</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>3.987992338026743</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>3.655</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>1.252077671360894</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr"/>
+      <c r="EG4" t="inlineStr"/>
+      <c r="EH4" t="inlineStr"/>
+      <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>6.475</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>7</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>10.82829851643146</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>-7</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>4.007</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>3.888018929577811</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>11</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>3.506</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>5</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>2.303076056337886</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>6.774</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>3.587676845070746</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>-6</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>2.336294159624231</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>13.936</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>3.20372582159689</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>4</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>3.707</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>4.355228845070087</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>5</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>2</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>5.573015136151298</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1666,7 +2566,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_Jun_05_1710</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1899,6 +2799,196 @@
       <c r="DI5" t="n">
         <v>7</v>
       </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK5" t="n">
+        <v>25</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>3.637795755868865</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>25</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>5</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>2.202947004694579</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>20</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>6.194</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>2.219077408448356</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>11</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>5</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>3.004196957746899</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>4</v>
+      </c>
+      <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="inlineStr"/>
+      <c r="EH5" t="inlineStr"/>
+      <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="n">
+        <v>35</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>5.277</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>7</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>2.269881690142938</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>-30</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>2.503207962443412</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>10</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>-18</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>6</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>2.536137915492873</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>9</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>-30</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>3.721343098590296</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>-15</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>5</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>2.853598948357103</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>1.986022460092499</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>8</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>4.775</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>2.503264150236646</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>5</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>10</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>5.775</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>2.219744150232145</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1911,7 +3001,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_26_1822</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2144,6 +3234,196 @@
       <c r="DI6" t="n">
         <v>8</v>
       </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK6" t="n">
+        <v>9</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>4.775</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>2.019428957744822</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>6</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>10.61180484507349</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>7</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>18</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0.2838541220662592</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>4.906</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0.4511729577461665</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>8</v>
+      </c>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
+      <c r="EG6" t="inlineStr"/>
+      <c r="EH6" t="inlineStr"/>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>3.623</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>1.419072901408072</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>-20</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>4.691</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>1.685959211266891</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>-17</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>13.203</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0.9008396619719861</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>-30</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>9.647</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>4.154906441315688</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>-27</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>7.987</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>7</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>1.936441990612366</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>-7</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>4.942</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0.3010584037547233</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>10</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>5</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>1.552385802817298</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>3</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>-10</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>6.692</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>1.485718835683656</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2156,7 +3436,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_27_1117</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2389,6 +3669,196 @@
       <c r="DI7" t="n">
         <v>1</v>
       </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK7" t="n">
+        <v>-21</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>3.707</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>2.136372882629075</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>4.841</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>5</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>1.619048863849457</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>8</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.6015375023480374</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>7</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>1.018523943662331</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>4</v>
+      </c>
+      <c r="EE7" t="inlineStr"/>
+      <c r="EF7" t="inlineStr"/>
+      <c r="EG7" t="inlineStr"/>
+      <c r="EH7" t="inlineStr"/>
+      <c r="EI7" t="inlineStr"/>
+      <c r="EJ7" t="n">
+        <v>16</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>2.406</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>7</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>1.435377276995496</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>9</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>-37</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>2.504</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>8</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>1.71905442253501</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>10</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>-41</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>3.774</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>8</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>1.485613671361534</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>-46</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>9</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>1.95235094835698</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>-36</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>1.185187455398591</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>2.870187868545145</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>6</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>-11</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>3.699</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>2.903073051643332</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>-10</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>3.606</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>1.185421521126955</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2401,7 +3871,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_Jun_06_0947</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2634,6 +4104,196 @@
       <c r="DI8" t="n">
         <v>10</v>
       </c>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK8" t="n">
+        <v>13</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>3.609</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>2.770239049941665</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>2.252989889526361</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>8</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>14</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>4.244</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>1.986064258851002</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>6</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>4.717</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>2.870720310756951</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="inlineStr"/>
+      <c r="EF8" t="inlineStr"/>
+      <c r="EG8" t="inlineStr"/>
+      <c r="EH8" t="inlineStr"/>
+      <c r="EI8" t="inlineStr"/>
+      <c r="EJ8" t="n">
+        <v>7</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>4.241</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>1.736202549597692</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>-7</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>4</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>3.604341533226034</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>3.358</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>1.768851184733649</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>11</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>-26</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>2.519891783170351</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>-29</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>2.672</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>7</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>2.286335311719995</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>2.069584959494932</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>1.769122207556393</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>4</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>1.835941352102964</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2646,7 +4306,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_26_1717</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -2879,6 +4539,196 @@
       <c r="DI9" t="n">
         <v>6</v>
       </c>
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>1.402419079811807</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>5</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>5</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>2.252819230048772</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>11</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>1.802657051644928</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>10</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>1.952788732392946</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>6</v>
+      </c>
+      <c r="EE9" t="inlineStr"/>
+      <c r="EF9" t="inlineStr"/>
+      <c r="EG9" t="inlineStr"/>
+      <c r="EH9" t="inlineStr"/>
+      <c r="EI9" t="inlineStr"/>
+      <c r="EJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>5</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>2.10293844131229</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>2.724</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>1.468921089202922</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>8</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>6</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>2.036314140845207</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>-8</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>4.267</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.8849132769973949</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>5</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>1.685717333333741</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>1.215</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>1.635848713616724</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>9</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>5</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>1.585568751175742</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>5</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>1.685745877934096</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2891,7 +4741,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_Jun_05_1314</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3124,6 +4974,196 @@
       <c r="DI10" t="n">
         <v>6</v>
       </c>
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK10" t="n">
+        <v>-7</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>5.844</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>2.753523380281877</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>50</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>8</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>2.536795643192363</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>9</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>50</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>7</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>2.085585126760179</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>5.008</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>6</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>1.769311849765018</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>8</v>
+      </c>
+      <c r="EE10" t="inlineStr"/>
+      <c r="EF10" t="inlineStr"/>
+      <c r="EG10" t="inlineStr"/>
+      <c r="EH10" t="inlineStr"/>
+      <c r="EI10" t="inlineStr"/>
+      <c r="EJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>4.624</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>7</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>2.153066666666746</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>11</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>-50</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>2.804</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>2.853777427229943</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>10</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>-50</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>5.443</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>2.069520525821645</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>-50</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>4.242</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>9</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>2.286294535211255</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>6.551</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>7.808471436620039</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>30</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>4.041</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>6</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>2.486737727699619</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>30</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>5.058</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>6</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>2.520236469483734</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>3.373</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>5</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>1.752481652582446</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3136,7 +5176,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_19_1416</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3369,6 +5409,196 @@
       <c r="DI11" t="n">
         <v>0</v>
       </c>
+      <c r="DJ11" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>5.692</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>8</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>2.269601652573328</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>8</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>2.353393877914641</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>31</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>3.913</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>7</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>1.669108281668741</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>11</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>7</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>5.535</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>2.553663399070501</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>20</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>5.408</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>6</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>2.736730140866712</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>4</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>22</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>6.508</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>6</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>7.007680300448555</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>6</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>-30</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>11.789</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>8</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>2.519811906095129</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>8</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>-21</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>10.048</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>1.91912984038936</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>-27</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>3.832</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>4.938826816913206</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="FD11" t="inlineStr"/>
+      <c r="FE11" t="inlineStr"/>
+      <c r="FF11" t="inlineStr"/>
+      <c r="FG11" t="inlineStr"/>
+      <c r="FH11" t="inlineStr"/>
+      <c r="FI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>3.597</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>3.353961464774329</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>9</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>2</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>10.338</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>2.719965145573951</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>7</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>5</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>5.135</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>5</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>2.970301295805257</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3381,7 +5611,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_31_1220</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3614,6 +5844,196 @@
       <c r="DI12" t="n">
         <v>11</v>
       </c>
+      <c r="DJ12" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>7.561</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>4.672125295774094</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>24</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>5.958</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>5.356160901408657</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>6</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>24</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>8.193</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>4.138316018779733</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>9</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>15.136</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>1.969521877934312</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE12" t="inlineStr"/>
+      <c r="EF12" t="inlineStr"/>
+      <c r="EG12" t="inlineStr"/>
+      <c r="EH12" t="inlineStr"/>
+      <c r="EI12" t="inlineStr"/>
+      <c r="EJ12" t="n">
+        <v>25</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>6</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>3.654285821596204</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>22</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>2.60269220657392</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>18</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>9.413</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>8</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>4.772168112676809</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>15</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>2.386023661973013</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>19</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>6.844</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>2.703536976525356</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>7</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>20</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>10.447</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>2.503086272301516</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>5</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>26</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>5</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>2.653396431924193</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>20</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>10.214</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>5</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>5.873158009389954</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3626,7 +6046,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_22_1029</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3859,6 +6279,196 @@
       <c r="DI13" t="n">
         <v>8</v>
       </c>
+      <c r="DJ13" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK13" t="n">
+        <v>5</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>1.969460582127795</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>4</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>25</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>5.452</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>3.771513990708627</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>20</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>6.092</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>1.368419455480762</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>2.302888863836415</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>10</v>
+      </c>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr"/>
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>5.092</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>2.603383286390454</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>5</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>-35</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>6.827</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>3.153864112682641</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>7</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>-30</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>10.712</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>1.351946816896088</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>6</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>-20</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>1.635788018698804</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>-26</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>7.593</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>3.187110460130498</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>9</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>4.508</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>1.302648187731393</v>
+      </c>
+      <c r="FM13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>3.715</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>0.417965070460923</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>8</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>0.4345954554155469</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3871,7 +6481,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_Jun_06_1544</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -4104,6 +6714,196 @@
       <c r="DI14" t="n">
         <v>10</v>
       </c>
+      <c r="DJ14" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK14" t="n">
+        <v>14</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>4.407</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>8.876254948356745</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>4</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>5</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>3.153784187793462</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>2.487284582159646</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>5.426</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>2.553429934272117</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>8</v>
+      </c>
+      <c r="EE14" t="inlineStr"/>
+      <c r="EF14" t="inlineStr"/>
+      <c r="EG14" t="inlineStr"/>
+      <c r="EH14" t="inlineStr"/>
+      <c r="EI14" t="inlineStr"/>
+      <c r="EJ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>7.576</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>5</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>9.827404920187746</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>-7</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>8.163</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>12.66328608450704</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>10</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>-19</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>11.57897795305189</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>7</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>-15</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>5.223</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>3.687914366197219</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>-10</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>5.017</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>2.085632600938879</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>6</v>
+      </c>
+      <c r="FI14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="FJ14" t="n">
+        <v>4.207</v>
+      </c>
+      <c r="FK14" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL14" t="n">
+        <v>3.254037934272219</v>
+      </c>
+      <c r="FM14" t="n">
+        <v>9</v>
+      </c>
+      <c r="FN14" t="n">
+        <v>7</v>
+      </c>
+      <c r="FO14" t="n">
+        <v>2.806</v>
+      </c>
+      <c r="FP14" t="n">
+        <v>6</v>
+      </c>
+      <c r="FQ14" t="n">
+        <v>2.186541671361283</v>
+      </c>
+      <c r="FR14" t="n">
+        <v>11</v>
+      </c>
+      <c r="FS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>7.536</v>
+      </c>
+      <c r="FU14" t="n">
+        <v>5</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>2.704133708919926</v>
+      </c>
+      <c r="FW14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4116,7 +6916,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_27_1029</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -4349,6 +7149,71 @@
       <c r="DI15" t="n">
         <v>3</v>
       </c>
+      <c r="DK15" t="inlineStr"/>
+      <c r="DL15" t="inlineStr"/>
+      <c r="DM15" t="inlineStr"/>
+      <c r="DN15" t="inlineStr"/>
+      <c r="DO15" t="inlineStr"/>
+      <c r="DP15" t="inlineStr"/>
+      <c r="DQ15" t="inlineStr"/>
+      <c r="DR15" t="inlineStr"/>
+      <c r="DS15" t="inlineStr"/>
+      <c r="DT15" t="inlineStr"/>
+      <c r="DU15" t="inlineStr"/>
+      <c r="DV15" t="inlineStr"/>
+      <c r="DW15" t="inlineStr"/>
+      <c r="DX15" t="inlineStr"/>
+      <c r="DY15" t="inlineStr"/>
+      <c r="DZ15" t="inlineStr"/>
+      <c r="EA15" t="inlineStr"/>
+      <c r="EB15" t="inlineStr"/>
+      <c r="EC15" t="inlineStr"/>
+      <c r="ED15" t="inlineStr"/>
+      <c r="EE15" t="inlineStr"/>
+      <c r="EF15" t="inlineStr"/>
+      <c r="EG15" t="inlineStr"/>
+      <c r="EH15" t="inlineStr"/>
+      <c r="EI15" t="inlineStr"/>
+      <c r="EJ15" t="inlineStr"/>
+      <c r="EK15" t="inlineStr"/>
+      <c r="EL15" t="inlineStr"/>
+      <c r="EM15" t="inlineStr"/>
+      <c r="EN15" t="inlineStr"/>
+      <c r="EO15" t="inlineStr"/>
+      <c r="EP15" t="inlineStr"/>
+      <c r="EQ15" t="inlineStr"/>
+      <c r="ER15" t="inlineStr"/>
+      <c r="ES15" t="inlineStr"/>
+      <c r="ET15" t="inlineStr"/>
+      <c r="EU15" t="inlineStr"/>
+      <c r="EV15" t="inlineStr"/>
+      <c r="EW15" t="inlineStr"/>
+      <c r="EX15" t="inlineStr"/>
+      <c r="EY15" t="inlineStr"/>
+      <c r="EZ15" t="inlineStr"/>
+      <c r="FA15" t="inlineStr"/>
+      <c r="FB15" t="inlineStr"/>
+      <c r="FC15" t="inlineStr"/>
+      <c r="FD15" t="inlineStr"/>
+      <c r="FE15" t="inlineStr"/>
+      <c r="FF15" t="inlineStr"/>
+      <c r="FG15" t="inlineStr"/>
+      <c r="FH15" t="inlineStr"/>
+      <c r="FI15" t="inlineStr"/>
+      <c r="FJ15" t="inlineStr"/>
+      <c r="FK15" t="inlineStr"/>
+      <c r="FL15" t="inlineStr"/>
+      <c r="FM15" t="inlineStr"/>
+      <c r="FN15" t="inlineStr"/>
+      <c r="FO15" t="inlineStr"/>
+      <c r="FP15" t="inlineStr"/>
+      <c r="FQ15" t="inlineStr"/>
+      <c r="FR15" t="inlineStr"/>
+      <c r="FS15" t="inlineStr"/>
+      <c r="FT15" t="inlineStr"/>
+      <c r="FU15" t="inlineStr"/>
+      <c r="FV15" t="inlineStr"/>
+      <c r="FW15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4361,7 +7226,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_22_2016</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -4594,6 +7459,196 @@
       <c r="DI16" t="n">
         <v>6</v>
       </c>
+      <c r="DJ16" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK16" t="n">
+        <v>24</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>5.305961164296605</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>6</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>12</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>2.353086798102595</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>40</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>5.241</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>8</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>3.987804845091887</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>4</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>4.575</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>4</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>4.154374910751358</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr"/>
+      <c r="EH16" t="inlineStr"/>
+      <c r="EI16" t="inlineStr"/>
+      <c r="EJ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>4.458</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>7</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>3.003549145534635</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>11</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>-41</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>4.157</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>3.420767549308948</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>8</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>-50</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>4.472</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>9</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>2.219603530480526</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>7</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>-42</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>2.069268131395802</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>-40</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>2.686978403711691</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>6.599</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>3.653636206523515</v>
+      </c>
+      <c r="FM16" t="n">
+        <v>5</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>3.203882666653953</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>10</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>3</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>4.62199496710673</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4606,7 +7661,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2019_May_19_1613</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -4839,6 +7894,196 @@
       <c r="DI17" t="n">
         <v>0</v>
       </c>
+      <c r="DJ17" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK17" t="n">
+        <v>3</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>6.418</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>2.06965032860171</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>12</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>6.359</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>1.018469859147444</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>11</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>3.253781032864936</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>4.492</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>2.186133633775171</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>3</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>15.128</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>1.852485408482607</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>4</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>4.081</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>1.652199962467421</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>6</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>-21</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>5.441</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>4.52216638502432</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>8</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>-12</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>9.305</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>3.237258215958718</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>11</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>-26</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>7.054</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>2.753782685496844</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD17" t="inlineStr"/>
+      <c r="FE17" t="inlineStr"/>
+      <c r="FF17" t="inlineStr"/>
+      <c r="FG17" t="inlineStr"/>
+      <c r="FH17" t="inlineStr"/>
+      <c r="FI17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>7.527</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>2.536730441323016</v>
+      </c>
+      <c r="FM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO17" t="n">
+        <v>5.786</v>
+      </c>
+      <c r="FP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ17" t="n">
+        <v>0.8347808450926095</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>7</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>6.135</v>
+      </c>
+      <c r="FU17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>1.635661220643669</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4851,7 +8096,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_Jun_05_1416</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -5084,6 +8329,196 @@
       <c r="DI18" t="n">
         <v>8</v>
       </c>
+      <c r="DJ18" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>6.793</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>8</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>1.769263173709078</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>5</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>20</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0.5343534272296893</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>-26</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>2.404</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>7</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>2.670210403755846</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>3</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>1.335593164319107</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>9</v>
+      </c>
+      <c r="EE18" t="inlineStr"/>
+      <c r="EF18" t="inlineStr"/>
+      <c r="EG18" t="inlineStr"/>
+      <c r="EH18" t="inlineStr"/>
+      <c r="EI18" t="inlineStr"/>
+      <c r="EJ18" t="n">
+        <v>20</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>6.894</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>8</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>1.835537126759846</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>7</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>13.882</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>1.819230046948178</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>11</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>-20</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>4.657</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>3.48766978403728</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>-20</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>3.204090591549175</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>-23</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>5.142</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>2.80365761502344</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>-26</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="FK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>1.468830046948824</v>
+      </c>
+      <c r="FM18" t="n">
+        <v>4</v>
+      </c>
+      <c r="FN18" t="n">
+        <v>15</v>
+      </c>
+      <c r="FO18" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ18" t="n">
+        <v>1.168571492958108</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>8</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>5</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>5.258</v>
+      </c>
+      <c r="FU18" t="n">
+        <v>2</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>2.052808413145613</v>
+      </c>
+      <c r="FW18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -5096,7 +8531,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_26_1623</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -5329,6 +8764,196 @@
       <c r="DI19" t="n">
         <v>7</v>
       </c>
+      <c r="DJ19" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK19" t="n">
+        <v>25</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>2.436142272301367</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>20</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>2.67013017840145</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>6</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>27</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>4.585</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>3.870460995305621</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>11</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>4.592</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>2</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>1.919472075118392</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EE19" t="inlineStr"/>
+      <c r="EF19" t="inlineStr"/>
+      <c r="EG19" t="inlineStr"/>
+      <c r="EH19" t="inlineStr"/>
+      <c r="EI19" t="inlineStr"/>
+      <c r="EJ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>3.107</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>2.068986291080364</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>7</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>-25</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>3.648</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>3.104021633804223</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>8</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>-18</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>6</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>1.935881314555445</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>9</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>-40</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>3.354184713618451</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>-16</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>7.111</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>1.986061521125521</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>5</v>
+      </c>
+      <c r="FI19" t="n">
+        <v>-15</v>
+      </c>
+      <c r="FJ19" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="FK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL19" t="n">
+        <v>2.403135098589701</v>
+      </c>
+      <c r="FM19" t="n">
+        <v>3</v>
+      </c>
+      <c r="FN19" t="n">
+        <v>40</v>
+      </c>
+      <c r="FO19" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="FP19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FQ19" t="n">
+        <v>2.837009126760677</v>
+      </c>
+      <c r="FR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS19" t="n">
+        <v>12</v>
+      </c>
+      <c r="FT19" t="n">
+        <v>8.696</v>
+      </c>
+      <c r="FU19" t="n">
+        <v>2</v>
+      </c>
+      <c r="FV19" t="n">
+        <v>4.65545584976644</v>
+      </c>
+      <c r="FW19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -5341,7 +8966,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_31_1103</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -5574,6 +9199,196 @@
       <c r="DI20" t="n">
         <v>6</v>
       </c>
+      <c r="DJ20" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>4</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>1.785723192488149</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>9</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>4.048</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>3.671083568075119</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>22</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>8</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>1.018164281690133</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>3</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>2.453167474178827</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>8</v>
+      </c>
+      <c r="EE20" t="inlineStr"/>
+      <c r="EF20" t="inlineStr"/>
+      <c r="EG20" t="inlineStr"/>
+      <c r="EH20" t="inlineStr"/>
+      <c r="EI20" t="inlineStr"/>
+      <c r="EJ20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>4</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>1.434510122066058</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>10</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>-23</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>8.462</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>2.486621746479159</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>-10</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>1.702488037558851</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>11</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>-39</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>3.922</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>2.603477032863793</v>
+      </c>
+      <c r="FC20" t="n">
+        <v>5</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>-28</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>7</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>2.186266441314274</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="FI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ20" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="FK20" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL20" t="n">
+        <v>2.086222723004539</v>
+      </c>
+      <c r="FM20" t="n">
+        <v>4</v>
+      </c>
+      <c r="FN20" t="n">
+        <v>3</v>
+      </c>
+      <c r="FO20" t="n">
+        <v>3.339</v>
+      </c>
+      <c r="FP20" t="n">
+        <v>6</v>
+      </c>
+      <c r="FQ20" t="n">
+        <v>0.4845382910798435</v>
+      </c>
+      <c r="FR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS20" t="n">
+        <v>-10</v>
+      </c>
+      <c r="FT20" t="n">
+        <v>2.689</v>
+      </c>
+      <c r="FU20" t="n">
+        <v>4</v>
+      </c>
+      <c r="FV20" t="n">
+        <v>2.453201427229942</v>
+      </c>
+      <c r="FW20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5586,7 +9401,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_22_1823</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -5819,6 +9634,196 @@
       <c r="DI21" t="n">
         <v>2</v>
       </c>
+      <c r="DJ21" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK21" t="n">
+        <v>10</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>5.786</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>3.654424638487399</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>6</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>6.195</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>2.303045708918944</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>9</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>20</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>3.971345427213237</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>6.09008165250998</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE21" t="inlineStr"/>
+      <c r="EF21" t="inlineStr"/>
+      <c r="EG21" t="inlineStr"/>
+      <c r="EH21" t="inlineStr"/>
+      <c r="EI21" t="inlineStr"/>
+      <c r="EJ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>5</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>1.435155530576594</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>7</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>-26</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>4.258</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>3.30395282630343</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>10</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>-14</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>8.058873990550637</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>-21</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>6.527</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>5.088905014097691</v>
+      </c>
+      <c r="FC21" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD21" t="n">
+        <v>-13</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>7</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>2.519865990499966</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>8</v>
+      </c>
+      <c r="FI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ21" t="n">
+        <v>5.572</v>
+      </c>
+      <c r="FK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL21" t="n">
+        <v>5.605470347451046</v>
+      </c>
+      <c r="FM21" t="n">
+        <v>6</v>
+      </c>
+      <c r="FN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO21" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="FP21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ21" t="n">
+        <v>2.786315417848527</v>
+      </c>
+      <c r="FR21" t="n">
+        <v>4</v>
+      </c>
+      <c r="FS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT21" t="n">
+        <v>3.924</v>
+      </c>
+      <c r="FU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV21" t="n">
+        <v>2.303065539919771</v>
+      </c>
+      <c r="FW21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5831,7 +9836,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_19_1513</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -6064,6 +10069,196 @@
       <c r="DI22" t="n">
         <v>1</v>
       </c>
+      <c r="DJ22" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>1.985993314534426</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>9</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>4.701</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>3.604608300491236</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>3.624</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>1.301744075084571</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>3.291</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>2.219516694836784</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>4</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>2.508</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>5</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>1.018456037563737</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>-7</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>5.243</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>7</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>2.936806760553736</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>8</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>2.719994591549039</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>7</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>-9</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>4.893</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW22" t="n">
+        <v>1.869112187821884</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>-9</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>7.178</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB22" t="n">
+        <v>1.802693107980303</v>
+      </c>
+      <c r="FC22" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD22" t="inlineStr"/>
+      <c r="FE22" t="inlineStr"/>
+      <c r="FF22" t="inlineStr"/>
+      <c r="FG22" t="inlineStr"/>
+      <c r="FH22" t="inlineStr"/>
+      <c r="FI22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="FJ22" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="FK22" t="n">
+        <v>6</v>
+      </c>
+      <c r="FL22" t="n">
+        <v>3.353783286351245</v>
+      </c>
+      <c r="FM22" t="n">
+        <v>10</v>
+      </c>
+      <c r="FN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO22" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="FP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ22" t="n">
+        <v>0.451125183084514</v>
+      </c>
+      <c r="FR22" t="n">
+        <v>11</v>
+      </c>
+      <c r="FS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT22" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="FU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV22" t="n">
+        <v>1.63562726759119</v>
+      </c>
+      <c r="FW22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -6076,7 +10271,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_22_1918</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -6309,6 +10504,196 @@
       <c r="DI23" t="n">
         <v>11</v>
       </c>
+      <c r="DJ23" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK23" t="n">
+        <v>5</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>5.216</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>2.920689877937548</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>10</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>2.019394103204831</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>11</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>13</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>6.801</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>2.086183962412179</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>1.852217089151964</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>9</v>
+      </c>
+      <c r="EE23" t="inlineStr"/>
+      <c r="EF23" t="inlineStr"/>
+      <c r="EG23" t="inlineStr"/>
+      <c r="EH23" t="inlineStr"/>
+      <c r="EI23" t="inlineStr"/>
+      <c r="EJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>6</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>4.622025314485654</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>-10</v>
+      </c>
+      <c r="EP23" t="n">
+        <v>5.901</v>
+      </c>
+      <c r="EQ23" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>14.5985295024002</v>
+      </c>
+      <c r="ES23" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET23" t="n">
+        <v>-5</v>
+      </c>
+      <c r="EU23" t="n">
+        <v>4.182</v>
+      </c>
+      <c r="EV23" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW23" t="n">
+        <v>2.469863962498493</v>
+      </c>
+      <c r="EX23" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY23" t="n">
+        <v>-5</v>
+      </c>
+      <c r="EZ23" t="n">
+        <v>3.715</v>
+      </c>
+      <c r="FA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB23" t="n">
+        <v>2.519852770026773</v>
+      </c>
+      <c r="FC23" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD23" t="n">
+        <v>-15</v>
+      </c>
+      <c r="FE23" t="n">
+        <v>7.304</v>
+      </c>
+      <c r="FF23" t="n">
+        <v>7</v>
+      </c>
+      <c r="FG23" t="n">
+        <v>3.320728638442233</v>
+      </c>
+      <c r="FH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ23" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="FK23" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL23" t="n">
+        <v>1.952628281782381</v>
+      </c>
+      <c r="FM23" t="n">
+        <v>8</v>
+      </c>
+      <c r="FN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO23" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="FP23" t="n">
+        <v>5</v>
+      </c>
+      <c r="FQ23" t="n">
+        <v>1.485622685402632</v>
+      </c>
+      <c r="FR23" t="n">
+        <v>7</v>
+      </c>
+      <c r="FS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT23" t="n">
+        <v>2.812</v>
+      </c>
+      <c r="FU23" t="n">
+        <v>5</v>
+      </c>
+      <c r="FV23" t="n">
+        <v>1.485619981191121</v>
+      </c>
+      <c r="FW23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -6321,7 +10706,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_Jun_04_1015</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -6554,6 +10939,196 @@
       <c r="DI24" t="n">
         <v>6</v>
       </c>
+      <c r="DJ24" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK24" t="n">
+        <v>5</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>2.253040676056116</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>4</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>45</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>2.982</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>8</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>2.052264863849814</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>29</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>2.820263361501929</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>-10</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>4.041</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>2.419821070422586</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>6</v>
+      </c>
+      <c r="EE24" t="inlineStr"/>
+      <c r="EF24" t="inlineStr"/>
+      <c r="EG24" t="inlineStr"/>
+      <c r="EH24" t="inlineStr"/>
+      <c r="EI24" t="inlineStr"/>
+      <c r="EJ24" t="n">
+        <v>20</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>6</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>2.019522704225892</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>7</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>-37</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>2.036051830986253</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>9</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>-37</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>5.176</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>2.203013408450715</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>11</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>-9</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>10.633</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>4</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>2.353146291079611</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>5</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>-28</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>4.624</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>2.319618403756067</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="FI24" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>5.659</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>2.169542910797645</v>
+      </c>
+      <c r="FM24" t="n">
+        <v>8</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FO24" t="n">
+        <v>2.973</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ24" t="n">
+        <v>2.152813070421871</v>
+      </c>
+      <c r="FR24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FS24" t="n">
+        <v>-6</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>2.707</v>
+      </c>
+      <c r="FU24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FV24" t="n">
+        <v>1.752501784038031</v>
+      </c>
+      <c r="FW24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -6566,7 +11141,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_Jun_04_0915</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -6799,6 +11374,196 @@
       <c r="DI25" t="n">
         <v>5</v>
       </c>
+      <c r="DJ25" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK25" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>4.867</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>7</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>1.83547553051676</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>7</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>35</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>8</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>2.236438234741854</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>8</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>15</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>4.075</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>1.452315643192833</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>4</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>1.78542662910786</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>9</v>
+      </c>
+      <c r="EE25" t="inlineStr"/>
+      <c r="EF25" t="inlineStr"/>
+      <c r="EG25" t="inlineStr"/>
+      <c r="EH25" t="inlineStr"/>
+      <c r="EI25" t="inlineStr"/>
+      <c r="EJ25" t="n">
+        <v>20</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>3.441</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>6</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>3.40407376525809</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>-30</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>7.143</v>
+      </c>
+      <c r="EQ25" t="n">
+        <v>8</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>2.419867042253372</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>5</v>
+      </c>
+      <c r="ET25" t="n">
+        <v>-12</v>
+      </c>
+      <c r="EU25" t="n">
+        <v>4.973</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>6</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>2.486604018779417</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>6</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>-40</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>8.042</v>
+      </c>
+      <c r="FA25" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB25" t="n">
+        <v>1.853016638497593</v>
+      </c>
+      <c r="FC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD25" t="n">
+        <v>-23</v>
+      </c>
+      <c r="FE25" t="n">
+        <v>3.566</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>7</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>1.936550460093713</v>
+      </c>
+      <c r="FH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="FK25" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL25" t="n">
+        <v>1.969252056338064</v>
+      </c>
+      <c r="FM25" t="n">
+        <v>10</v>
+      </c>
+      <c r="FN25" t="n">
+        <v>10</v>
+      </c>
+      <c r="FO25" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="FP25" t="n">
+        <v>6</v>
+      </c>
+      <c r="FQ25" t="n">
+        <v>2.403075605634058</v>
+      </c>
+      <c r="FR25" t="n">
+        <v>11</v>
+      </c>
+      <c r="FS25" t="n">
+        <v>11</v>
+      </c>
+      <c r="FT25" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="FU25" t="n">
+        <v>6</v>
+      </c>
+      <c r="FV25" t="n">
+        <v>4.305228619718491</v>
+      </c>
+      <c r="FW25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6811,7 +11576,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MAER M R1 P1 v1</t>
+          <t>2019_May_26_1211</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -7044,10 +11809,210 @@
       <c r="DI26" t="n">
         <v>5</v>
       </c>
+      <c r="DJ26" t="inlineStr">
+        <is>
+          <t>MAER M R2 P2</t>
+        </is>
+      </c>
+      <c r="DK26" t="n">
+        <v>11</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>3.458</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>4</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>1.635733333333064</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>9</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>32</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>2.454</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>1.869396732394307</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>11</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>15</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>1.635829483568159</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>8</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>3.842</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>2.419890779342495</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>7</v>
+      </c>
+      <c r="EE26" t="inlineStr"/>
+      <c r="EF26" t="inlineStr"/>
+      <c r="EG26" t="inlineStr"/>
+      <c r="EH26" t="inlineStr"/>
+      <c r="EI26" t="inlineStr"/>
+      <c r="EJ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>3.122</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>5</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>1.218648338028288</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>10</v>
+      </c>
+      <c r="EO26" t="n">
+        <v>-18</v>
+      </c>
+      <c r="EP26" t="n">
+        <v>5.693</v>
+      </c>
+      <c r="EQ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>2.3533734460093</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>5</v>
+      </c>
+      <c r="ET26" t="n">
+        <v>-20</v>
+      </c>
+      <c r="EU26" t="n">
+        <v>7.534</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW26" t="n">
+        <v>2.503848863849726</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>-23</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>2.439</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>4</v>
+      </c>
+      <c r="FB26" t="n">
+        <v>1.719371117370883</v>
+      </c>
+      <c r="FC26" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD26" t="n">
+        <v>-32</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>6.561</v>
+      </c>
+      <c r="FF26" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG26" t="n">
+        <v>1.735956732394243</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>4</v>
+      </c>
+      <c r="FI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ26" t="n">
+        <v>3.259</v>
+      </c>
+      <c r="FK26" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL26" t="n">
+        <v>1.285646723004447</v>
+      </c>
+      <c r="FM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN26" t="n">
+        <v>8</v>
+      </c>
+      <c r="FO26" t="n">
+        <v>3.322</v>
+      </c>
+      <c r="FP26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ26" t="n">
+        <v>1.385484018779152</v>
+      </c>
+      <c r="FR26" t="n">
+        <v>6</v>
+      </c>
+      <c r="FS26" t="n">
+        <v>23</v>
+      </c>
+      <c r="FT26" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="FU26" t="n">
+        <v>3</v>
+      </c>
+      <c r="FV26" t="n">
+        <v>1.335399061033058</v>
+      </c>
+      <c r="FW26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>779</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2019_May_06_1025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2019_May_06_1025</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -7279,10 +12244,85 @@
       <c r="DI27" t="n">
         <v>2</v>
       </c>
+      <c r="DK27" t="inlineStr"/>
+      <c r="DL27" t="inlineStr"/>
+      <c r="DM27" t="inlineStr"/>
+      <c r="DN27" t="inlineStr"/>
+      <c r="DO27" t="inlineStr"/>
+      <c r="DP27" t="inlineStr"/>
+      <c r="DQ27" t="inlineStr"/>
+      <c r="DR27" t="inlineStr"/>
+      <c r="DS27" t="inlineStr"/>
+      <c r="DT27" t="inlineStr"/>
+      <c r="DU27" t="inlineStr"/>
+      <c r="DV27" t="inlineStr"/>
+      <c r="DW27" t="inlineStr"/>
+      <c r="DX27" t="inlineStr"/>
+      <c r="DY27" t="inlineStr"/>
+      <c r="DZ27" t="inlineStr"/>
+      <c r="EA27" t="inlineStr"/>
+      <c r="EB27" t="inlineStr"/>
+      <c r="EC27" t="inlineStr"/>
+      <c r="ED27" t="inlineStr"/>
+      <c r="EE27" t="inlineStr"/>
+      <c r="EF27" t="inlineStr"/>
+      <c r="EG27" t="inlineStr"/>
+      <c r="EH27" t="inlineStr"/>
+      <c r="EI27" t="inlineStr"/>
+      <c r="EJ27" t="inlineStr"/>
+      <c r="EK27" t="inlineStr"/>
+      <c r="EL27" t="inlineStr"/>
+      <c r="EM27" t="inlineStr"/>
+      <c r="EN27" t="inlineStr"/>
+      <c r="EO27" t="inlineStr"/>
+      <c r="EP27" t="inlineStr"/>
+      <c r="EQ27" t="inlineStr"/>
+      <c r="ER27" t="inlineStr"/>
+      <c r="ES27" t="inlineStr"/>
+      <c r="ET27" t="inlineStr"/>
+      <c r="EU27" t="inlineStr"/>
+      <c r="EV27" t="inlineStr"/>
+      <c r="EW27" t="inlineStr"/>
+      <c r="EX27" t="inlineStr"/>
+      <c r="EY27" t="inlineStr"/>
+      <c r="EZ27" t="inlineStr"/>
+      <c r="FA27" t="inlineStr"/>
+      <c r="FB27" t="inlineStr"/>
+      <c r="FC27" t="inlineStr"/>
+      <c r="FD27" t="inlineStr"/>
+      <c r="FE27" t="inlineStr"/>
+      <c r="FF27" t="inlineStr"/>
+      <c r="FG27" t="inlineStr"/>
+      <c r="FH27" t="inlineStr"/>
+      <c r="FI27" t="inlineStr"/>
+      <c r="FJ27" t="inlineStr"/>
+      <c r="FK27" t="inlineStr"/>
+      <c r="FL27" t="inlineStr"/>
+      <c r="FM27" t="inlineStr"/>
+      <c r="FN27" t="inlineStr"/>
+      <c r="FO27" t="inlineStr"/>
+      <c r="FP27" t="inlineStr"/>
+      <c r="FQ27" t="inlineStr"/>
+      <c r="FR27" t="inlineStr"/>
+      <c r="FS27" t="inlineStr"/>
+      <c r="FT27" t="inlineStr"/>
+      <c r="FU27" t="inlineStr"/>
+      <c r="FV27" t="inlineStr"/>
+      <c r="FW27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>689</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2019_May_13_0917</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2019_May_13_0917</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -7514,10 +12554,85 @@
       <c r="DI28" t="n">
         <v>7</v>
       </c>
+      <c r="DK28" t="inlineStr"/>
+      <c r="DL28" t="inlineStr"/>
+      <c r="DM28" t="inlineStr"/>
+      <c r="DN28" t="inlineStr"/>
+      <c r="DO28" t="inlineStr"/>
+      <c r="DP28" t="inlineStr"/>
+      <c r="DQ28" t="inlineStr"/>
+      <c r="DR28" t="inlineStr"/>
+      <c r="DS28" t="inlineStr"/>
+      <c r="DT28" t="inlineStr"/>
+      <c r="DU28" t="inlineStr"/>
+      <c r="DV28" t="inlineStr"/>
+      <c r="DW28" t="inlineStr"/>
+      <c r="DX28" t="inlineStr"/>
+      <c r="DY28" t="inlineStr"/>
+      <c r="DZ28" t="inlineStr"/>
+      <c r="EA28" t="inlineStr"/>
+      <c r="EB28" t="inlineStr"/>
+      <c r="EC28" t="inlineStr"/>
+      <c r="ED28" t="inlineStr"/>
+      <c r="EE28" t="inlineStr"/>
+      <c r="EF28" t="inlineStr"/>
+      <c r="EG28" t="inlineStr"/>
+      <c r="EH28" t="inlineStr"/>
+      <c r="EI28" t="inlineStr"/>
+      <c r="EJ28" t="inlineStr"/>
+      <c r="EK28" t="inlineStr"/>
+      <c r="EL28" t="inlineStr"/>
+      <c r="EM28" t="inlineStr"/>
+      <c r="EN28" t="inlineStr"/>
+      <c r="EO28" t="inlineStr"/>
+      <c r="EP28" t="inlineStr"/>
+      <c r="EQ28" t="inlineStr"/>
+      <c r="ER28" t="inlineStr"/>
+      <c r="ES28" t="inlineStr"/>
+      <c r="ET28" t="inlineStr"/>
+      <c r="EU28" t="inlineStr"/>
+      <c r="EV28" t="inlineStr"/>
+      <c r="EW28" t="inlineStr"/>
+      <c r="EX28" t="inlineStr"/>
+      <c r="EY28" t="inlineStr"/>
+      <c r="EZ28" t="inlineStr"/>
+      <c r="FA28" t="inlineStr"/>
+      <c r="FB28" t="inlineStr"/>
+      <c r="FC28" t="inlineStr"/>
+      <c r="FD28" t="inlineStr"/>
+      <c r="FE28" t="inlineStr"/>
+      <c r="FF28" t="inlineStr"/>
+      <c r="FG28" t="inlineStr"/>
+      <c r="FH28" t="inlineStr"/>
+      <c r="FI28" t="inlineStr"/>
+      <c r="FJ28" t="inlineStr"/>
+      <c r="FK28" t="inlineStr"/>
+      <c r="FL28" t="inlineStr"/>
+      <c r="FM28" t="inlineStr"/>
+      <c r="FN28" t="inlineStr"/>
+      <c r="FO28" t="inlineStr"/>
+      <c r="FP28" t="inlineStr"/>
+      <c r="FQ28" t="inlineStr"/>
+      <c r="FR28" t="inlineStr"/>
+      <c r="FS28" t="inlineStr"/>
+      <c r="FT28" t="inlineStr"/>
+      <c r="FU28" t="inlineStr"/>
+      <c r="FV28" t="inlineStr"/>
+      <c r="FW28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>802</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2019_May_06_0922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2019_May_06_0922</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -7749,10 +12864,85 @@
       <c r="DI29" t="n">
         <v>4</v>
       </c>
+      <c r="DK29" t="inlineStr"/>
+      <c r="DL29" t="inlineStr"/>
+      <c r="DM29" t="inlineStr"/>
+      <c r="DN29" t="inlineStr"/>
+      <c r="DO29" t="inlineStr"/>
+      <c r="DP29" t="inlineStr"/>
+      <c r="DQ29" t="inlineStr"/>
+      <c r="DR29" t="inlineStr"/>
+      <c r="DS29" t="inlineStr"/>
+      <c r="DT29" t="inlineStr"/>
+      <c r="DU29" t="inlineStr"/>
+      <c r="DV29" t="inlineStr"/>
+      <c r="DW29" t="inlineStr"/>
+      <c r="DX29" t="inlineStr"/>
+      <c r="DY29" t="inlineStr"/>
+      <c r="DZ29" t="inlineStr"/>
+      <c r="EA29" t="inlineStr"/>
+      <c r="EB29" t="inlineStr"/>
+      <c r="EC29" t="inlineStr"/>
+      <c r="ED29" t="inlineStr"/>
+      <c r="EE29" t="inlineStr"/>
+      <c r="EF29" t="inlineStr"/>
+      <c r="EG29" t="inlineStr"/>
+      <c r="EH29" t="inlineStr"/>
+      <c r="EI29" t="inlineStr"/>
+      <c r="EJ29" t="inlineStr"/>
+      <c r="EK29" t="inlineStr"/>
+      <c r="EL29" t="inlineStr"/>
+      <c r="EM29" t="inlineStr"/>
+      <c r="EN29" t="inlineStr"/>
+      <c r="EO29" t="inlineStr"/>
+      <c r="EP29" t="inlineStr"/>
+      <c r="EQ29" t="inlineStr"/>
+      <c r="ER29" t="inlineStr"/>
+      <c r="ES29" t="inlineStr"/>
+      <c r="ET29" t="inlineStr"/>
+      <c r="EU29" t="inlineStr"/>
+      <c r="EV29" t="inlineStr"/>
+      <c r="EW29" t="inlineStr"/>
+      <c r="EX29" t="inlineStr"/>
+      <c r="EY29" t="inlineStr"/>
+      <c r="EZ29" t="inlineStr"/>
+      <c r="FA29" t="inlineStr"/>
+      <c r="FB29" t="inlineStr"/>
+      <c r="FC29" t="inlineStr"/>
+      <c r="FD29" t="inlineStr"/>
+      <c r="FE29" t="inlineStr"/>
+      <c r="FF29" t="inlineStr"/>
+      <c r="FG29" t="inlineStr"/>
+      <c r="FH29" t="inlineStr"/>
+      <c r="FI29" t="inlineStr"/>
+      <c r="FJ29" t="inlineStr"/>
+      <c r="FK29" t="inlineStr"/>
+      <c r="FL29" t="inlineStr"/>
+      <c r="FM29" t="inlineStr"/>
+      <c r="FN29" t="inlineStr"/>
+      <c r="FO29" t="inlineStr"/>
+      <c r="FP29" t="inlineStr"/>
+      <c r="FQ29" t="inlineStr"/>
+      <c r="FR29" t="inlineStr"/>
+      <c r="FS29" t="inlineStr"/>
+      <c r="FT29" t="inlineStr"/>
+      <c r="FU29" t="inlineStr"/>
+      <c r="FV29" t="inlineStr"/>
+      <c r="FW29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>717</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2019_May_06_1117</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2019_May_06_1117</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -7984,10 +13174,85 @@
       <c r="DI30" t="n">
         <v>3</v>
       </c>
+      <c r="DK30" t="inlineStr"/>
+      <c r="DL30" t="inlineStr"/>
+      <c r="DM30" t="inlineStr"/>
+      <c r="DN30" t="inlineStr"/>
+      <c r="DO30" t="inlineStr"/>
+      <c r="DP30" t="inlineStr"/>
+      <c r="DQ30" t="inlineStr"/>
+      <c r="DR30" t="inlineStr"/>
+      <c r="DS30" t="inlineStr"/>
+      <c r="DT30" t="inlineStr"/>
+      <c r="DU30" t="inlineStr"/>
+      <c r="DV30" t="inlineStr"/>
+      <c r="DW30" t="inlineStr"/>
+      <c r="DX30" t="inlineStr"/>
+      <c r="DY30" t="inlineStr"/>
+      <c r="DZ30" t="inlineStr"/>
+      <c r="EA30" t="inlineStr"/>
+      <c r="EB30" t="inlineStr"/>
+      <c r="EC30" t="inlineStr"/>
+      <c r="ED30" t="inlineStr"/>
+      <c r="EE30" t="inlineStr"/>
+      <c r="EF30" t="inlineStr"/>
+      <c r="EG30" t="inlineStr"/>
+      <c r="EH30" t="inlineStr"/>
+      <c r="EI30" t="inlineStr"/>
+      <c r="EJ30" t="inlineStr"/>
+      <c r="EK30" t="inlineStr"/>
+      <c r="EL30" t="inlineStr"/>
+      <c r="EM30" t="inlineStr"/>
+      <c r="EN30" t="inlineStr"/>
+      <c r="EO30" t="inlineStr"/>
+      <c r="EP30" t="inlineStr"/>
+      <c r="EQ30" t="inlineStr"/>
+      <c r="ER30" t="inlineStr"/>
+      <c r="ES30" t="inlineStr"/>
+      <c r="ET30" t="inlineStr"/>
+      <c r="EU30" t="inlineStr"/>
+      <c r="EV30" t="inlineStr"/>
+      <c r="EW30" t="inlineStr"/>
+      <c r="EX30" t="inlineStr"/>
+      <c r="EY30" t="inlineStr"/>
+      <c r="EZ30" t="inlineStr"/>
+      <c r="FA30" t="inlineStr"/>
+      <c r="FB30" t="inlineStr"/>
+      <c r="FC30" t="inlineStr"/>
+      <c r="FD30" t="inlineStr"/>
+      <c r="FE30" t="inlineStr"/>
+      <c r="FF30" t="inlineStr"/>
+      <c r="FG30" t="inlineStr"/>
+      <c r="FH30" t="inlineStr"/>
+      <c r="FI30" t="inlineStr"/>
+      <c r="FJ30" t="inlineStr"/>
+      <c r="FK30" t="inlineStr"/>
+      <c r="FL30" t="inlineStr"/>
+      <c r="FM30" t="inlineStr"/>
+      <c r="FN30" t="inlineStr"/>
+      <c r="FO30" t="inlineStr"/>
+      <c r="FP30" t="inlineStr"/>
+      <c r="FQ30" t="inlineStr"/>
+      <c r="FR30" t="inlineStr"/>
+      <c r="FS30" t="inlineStr"/>
+      <c r="FT30" t="inlineStr"/>
+      <c r="FU30" t="inlineStr"/>
+      <c r="FV30" t="inlineStr"/>
+      <c r="FW30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>748</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2019_May_07_2013</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2019_May_07_2013</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -8219,10 +13484,85 @@
       <c r="DI31" t="n">
         <v>10</v>
       </c>
+      <c r="DK31" t="inlineStr"/>
+      <c r="DL31" t="inlineStr"/>
+      <c r="DM31" t="inlineStr"/>
+      <c r="DN31" t="inlineStr"/>
+      <c r="DO31" t="inlineStr"/>
+      <c r="DP31" t="inlineStr"/>
+      <c r="DQ31" t="inlineStr"/>
+      <c r="DR31" t="inlineStr"/>
+      <c r="DS31" t="inlineStr"/>
+      <c r="DT31" t="inlineStr"/>
+      <c r="DU31" t="inlineStr"/>
+      <c r="DV31" t="inlineStr"/>
+      <c r="DW31" t="inlineStr"/>
+      <c r="DX31" t="inlineStr"/>
+      <c r="DY31" t="inlineStr"/>
+      <c r="DZ31" t="inlineStr"/>
+      <c r="EA31" t="inlineStr"/>
+      <c r="EB31" t="inlineStr"/>
+      <c r="EC31" t="inlineStr"/>
+      <c r="ED31" t="inlineStr"/>
+      <c r="EE31" t="inlineStr"/>
+      <c r="EF31" t="inlineStr"/>
+      <c r="EG31" t="inlineStr"/>
+      <c r="EH31" t="inlineStr"/>
+      <c r="EI31" t="inlineStr"/>
+      <c r="EJ31" t="inlineStr"/>
+      <c r="EK31" t="inlineStr"/>
+      <c r="EL31" t="inlineStr"/>
+      <c r="EM31" t="inlineStr"/>
+      <c r="EN31" t="inlineStr"/>
+      <c r="EO31" t="inlineStr"/>
+      <c r="EP31" t="inlineStr"/>
+      <c r="EQ31" t="inlineStr"/>
+      <c r="ER31" t="inlineStr"/>
+      <c r="ES31" t="inlineStr"/>
+      <c r="ET31" t="inlineStr"/>
+      <c r="EU31" t="inlineStr"/>
+      <c r="EV31" t="inlineStr"/>
+      <c r="EW31" t="inlineStr"/>
+      <c r="EX31" t="inlineStr"/>
+      <c r="EY31" t="inlineStr"/>
+      <c r="EZ31" t="inlineStr"/>
+      <c r="FA31" t="inlineStr"/>
+      <c r="FB31" t="inlineStr"/>
+      <c r="FC31" t="inlineStr"/>
+      <c r="FD31" t="inlineStr"/>
+      <c r="FE31" t="inlineStr"/>
+      <c r="FF31" t="inlineStr"/>
+      <c r="FG31" t="inlineStr"/>
+      <c r="FH31" t="inlineStr"/>
+      <c r="FI31" t="inlineStr"/>
+      <c r="FJ31" t="inlineStr"/>
+      <c r="FK31" t="inlineStr"/>
+      <c r="FL31" t="inlineStr"/>
+      <c r="FM31" t="inlineStr"/>
+      <c r="FN31" t="inlineStr"/>
+      <c r="FO31" t="inlineStr"/>
+      <c r="FP31" t="inlineStr"/>
+      <c r="FQ31" t="inlineStr"/>
+      <c r="FR31" t="inlineStr"/>
+      <c r="FS31" t="inlineStr"/>
+      <c r="FT31" t="inlineStr"/>
+      <c r="FU31" t="inlineStr"/>
+      <c r="FV31" t="inlineStr"/>
+      <c r="FW31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>761</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2019_May_13_1115</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2019_May_13_1115</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -8454,10 +13794,85 @@
       <c r="DI32" t="n">
         <v>6</v>
       </c>
+      <c r="DK32" t="inlineStr"/>
+      <c r="DL32" t="inlineStr"/>
+      <c r="DM32" t="inlineStr"/>
+      <c r="DN32" t="inlineStr"/>
+      <c r="DO32" t="inlineStr"/>
+      <c r="DP32" t="inlineStr"/>
+      <c r="DQ32" t="inlineStr"/>
+      <c r="DR32" t="inlineStr"/>
+      <c r="DS32" t="inlineStr"/>
+      <c r="DT32" t="inlineStr"/>
+      <c r="DU32" t="inlineStr"/>
+      <c r="DV32" t="inlineStr"/>
+      <c r="DW32" t="inlineStr"/>
+      <c r="DX32" t="inlineStr"/>
+      <c r="DY32" t="inlineStr"/>
+      <c r="DZ32" t="inlineStr"/>
+      <c r="EA32" t="inlineStr"/>
+      <c r="EB32" t="inlineStr"/>
+      <c r="EC32" t="inlineStr"/>
+      <c r="ED32" t="inlineStr"/>
+      <c r="EE32" t="inlineStr"/>
+      <c r="EF32" t="inlineStr"/>
+      <c r="EG32" t="inlineStr"/>
+      <c r="EH32" t="inlineStr"/>
+      <c r="EI32" t="inlineStr"/>
+      <c r="EJ32" t="inlineStr"/>
+      <c r="EK32" t="inlineStr"/>
+      <c r="EL32" t="inlineStr"/>
+      <c r="EM32" t="inlineStr"/>
+      <c r="EN32" t="inlineStr"/>
+      <c r="EO32" t="inlineStr"/>
+      <c r="EP32" t="inlineStr"/>
+      <c r="EQ32" t="inlineStr"/>
+      <c r="ER32" t="inlineStr"/>
+      <c r="ES32" t="inlineStr"/>
+      <c r="ET32" t="inlineStr"/>
+      <c r="EU32" t="inlineStr"/>
+      <c r="EV32" t="inlineStr"/>
+      <c r="EW32" t="inlineStr"/>
+      <c r="EX32" t="inlineStr"/>
+      <c r="EY32" t="inlineStr"/>
+      <c r="EZ32" t="inlineStr"/>
+      <c r="FA32" t="inlineStr"/>
+      <c r="FB32" t="inlineStr"/>
+      <c r="FC32" t="inlineStr"/>
+      <c r="FD32" t="inlineStr"/>
+      <c r="FE32" t="inlineStr"/>
+      <c r="FF32" t="inlineStr"/>
+      <c r="FG32" t="inlineStr"/>
+      <c r="FH32" t="inlineStr"/>
+      <c r="FI32" t="inlineStr"/>
+      <c r="FJ32" t="inlineStr"/>
+      <c r="FK32" t="inlineStr"/>
+      <c r="FL32" t="inlineStr"/>
+      <c r="FM32" t="inlineStr"/>
+      <c r="FN32" t="inlineStr"/>
+      <c r="FO32" t="inlineStr"/>
+      <c r="FP32" t="inlineStr"/>
+      <c r="FQ32" t="inlineStr"/>
+      <c r="FR32" t="inlineStr"/>
+      <c r="FS32" t="inlineStr"/>
+      <c r="FT32" t="inlineStr"/>
+      <c r="FU32" t="inlineStr"/>
+      <c r="FV32" t="inlineStr"/>
+      <c r="FW32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>813</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2019_May_13_1021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2019_May_13_1021</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -8689,10 +14104,85 @@
       <c r="DI33" t="n">
         <v>0</v>
       </c>
+      <c r="DK33" t="inlineStr"/>
+      <c r="DL33" t="inlineStr"/>
+      <c r="DM33" t="inlineStr"/>
+      <c r="DN33" t="inlineStr"/>
+      <c r="DO33" t="inlineStr"/>
+      <c r="DP33" t="inlineStr"/>
+      <c r="DQ33" t="inlineStr"/>
+      <c r="DR33" t="inlineStr"/>
+      <c r="DS33" t="inlineStr"/>
+      <c r="DT33" t="inlineStr"/>
+      <c r="DU33" t="inlineStr"/>
+      <c r="DV33" t="inlineStr"/>
+      <c r="DW33" t="inlineStr"/>
+      <c r="DX33" t="inlineStr"/>
+      <c r="DY33" t="inlineStr"/>
+      <c r="DZ33" t="inlineStr"/>
+      <c r="EA33" t="inlineStr"/>
+      <c r="EB33" t="inlineStr"/>
+      <c r="EC33" t="inlineStr"/>
+      <c r="ED33" t="inlineStr"/>
+      <c r="EE33" t="inlineStr"/>
+      <c r="EF33" t="inlineStr"/>
+      <c r="EG33" t="inlineStr"/>
+      <c r="EH33" t="inlineStr"/>
+      <c r="EI33" t="inlineStr"/>
+      <c r="EJ33" t="inlineStr"/>
+      <c r="EK33" t="inlineStr"/>
+      <c r="EL33" t="inlineStr"/>
+      <c r="EM33" t="inlineStr"/>
+      <c r="EN33" t="inlineStr"/>
+      <c r="EO33" t="inlineStr"/>
+      <c r="EP33" t="inlineStr"/>
+      <c r="EQ33" t="inlineStr"/>
+      <c r="ER33" t="inlineStr"/>
+      <c r="ES33" t="inlineStr"/>
+      <c r="ET33" t="inlineStr"/>
+      <c r="EU33" t="inlineStr"/>
+      <c r="EV33" t="inlineStr"/>
+      <c r="EW33" t="inlineStr"/>
+      <c r="EX33" t="inlineStr"/>
+      <c r="EY33" t="inlineStr"/>
+      <c r="EZ33" t="inlineStr"/>
+      <c r="FA33" t="inlineStr"/>
+      <c r="FB33" t="inlineStr"/>
+      <c r="FC33" t="inlineStr"/>
+      <c r="FD33" t="inlineStr"/>
+      <c r="FE33" t="inlineStr"/>
+      <c r="FF33" t="inlineStr"/>
+      <c r="FG33" t="inlineStr"/>
+      <c r="FH33" t="inlineStr"/>
+      <c r="FI33" t="inlineStr"/>
+      <c r="FJ33" t="inlineStr"/>
+      <c r="FK33" t="inlineStr"/>
+      <c r="FL33" t="inlineStr"/>
+      <c r="FM33" t="inlineStr"/>
+      <c r="FN33" t="inlineStr"/>
+      <c r="FO33" t="inlineStr"/>
+      <c r="FP33" t="inlineStr"/>
+      <c r="FQ33" t="inlineStr"/>
+      <c r="FR33" t="inlineStr"/>
+      <c r="FS33" t="inlineStr"/>
+      <c r="FT33" t="inlineStr"/>
+      <c r="FU33" t="inlineStr"/>
+      <c r="FV33" t="inlineStr"/>
+      <c r="FW33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>792</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2019_May_13_1217</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2019_May_13_1217</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -8924,10 +14414,85 @@
       <c r="DI34" t="n">
         <v>9</v>
       </c>
+      <c r="DK34" t="inlineStr"/>
+      <c r="DL34" t="inlineStr"/>
+      <c r="DM34" t="inlineStr"/>
+      <c r="DN34" t="inlineStr"/>
+      <c r="DO34" t="inlineStr"/>
+      <c r="DP34" t="inlineStr"/>
+      <c r="DQ34" t="inlineStr"/>
+      <c r="DR34" t="inlineStr"/>
+      <c r="DS34" t="inlineStr"/>
+      <c r="DT34" t="inlineStr"/>
+      <c r="DU34" t="inlineStr"/>
+      <c r="DV34" t="inlineStr"/>
+      <c r="DW34" t="inlineStr"/>
+      <c r="DX34" t="inlineStr"/>
+      <c r="DY34" t="inlineStr"/>
+      <c r="DZ34" t="inlineStr"/>
+      <c r="EA34" t="inlineStr"/>
+      <c r="EB34" t="inlineStr"/>
+      <c r="EC34" t="inlineStr"/>
+      <c r="ED34" t="inlineStr"/>
+      <c r="EE34" t="inlineStr"/>
+      <c r="EF34" t="inlineStr"/>
+      <c r="EG34" t="inlineStr"/>
+      <c r="EH34" t="inlineStr"/>
+      <c r="EI34" t="inlineStr"/>
+      <c r="EJ34" t="inlineStr"/>
+      <c r="EK34" t="inlineStr"/>
+      <c r="EL34" t="inlineStr"/>
+      <c r="EM34" t="inlineStr"/>
+      <c r="EN34" t="inlineStr"/>
+      <c r="EO34" t="inlineStr"/>
+      <c r="EP34" t="inlineStr"/>
+      <c r="EQ34" t="inlineStr"/>
+      <c r="ER34" t="inlineStr"/>
+      <c r="ES34" t="inlineStr"/>
+      <c r="ET34" t="inlineStr"/>
+      <c r="EU34" t="inlineStr"/>
+      <c r="EV34" t="inlineStr"/>
+      <c r="EW34" t="inlineStr"/>
+      <c r="EX34" t="inlineStr"/>
+      <c r="EY34" t="inlineStr"/>
+      <c r="EZ34" t="inlineStr"/>
+      <c r="FA34" t="inlineStr"/>
+      <c r="FB34" t="inlineStr"/>
+      <c r="FC34" t="inlineStr"/>
+      <c r="FD34" t="inlineStr"/>
+      <c r="FE34" t="inlineStr"/>
+      <c r="FF34" t="inlineStr"/>
+      <c r="FG34" t="inlineStr"/>
+      <c r="FH34" t="inlineStr"/>
+      <c r="FI34" t="inlineStr"/>
+      <c r="FJ34" t="inlineStr"/>
+      <c r="FK34" t="inlineStr"/>
+      <c r="FL34" t="inlineStr"/>
+      <c r="FM34" t="inlineStr"/>
+      <c r="FN34" t="inlineStr"/>
+      <c r="FO34" t="inlineStr"/>
+      <c r="FP34" t="inlineStr"/>
+      <c r="FQ34" t="inlineStr"/>
+      <c r="FR34" t="inlineStr"/>
+      <c r="FS34" t="inlineStr"/>
+      <c r="FT34" t="inlineStr"/>
+      <c r="FU34" t="inlineStr"/>
+      <c r="FV34" t="inlineStr"/>
+      <c r="FW34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>703</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2019_May_02_0937</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2019_May_02_0937</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -9159,10 +14724,85 @@
       <c r="DI35" t="n">
         <v>4</v>
       </c>
+      <c r="DK35" t="inlineStr"/>
+      <c r="DL35" t="inlineStr"/>
+      <c r="DM35" t="inlineStr"/>
+      <c r="DN35" t="inlineStr"/>
+      <c r="DO35" t="inlineStr"/>
+      <c r="DP35" t="inlineStr"/>
+      <c r="DQ35" t="inlineStr"/>
+      <c r="DR35" t="inlineStr"/>
+      <c r="DS35" t="inlineStr"/>
+      <c r="DT35" t="inlineStr"/>
+      <c r="DU35" t="inlineStr"/>
+      <c r="DV35" t="inlineStr"/>
+      <c r="DW35" t="inlineStr"/>
+      <c r="DX35" t="inlineStr"/>
+      <c r="DY35" t="inlineStr"/>
+      <c r="DZ35" t="inlineStr"/>
+      <c r="EA35" t="inlineStr"/>
+      <c r="EB35" t="inlineStr"/>
+      <c r="EC35" t="inlineStr"/>
+      <c r="ED35" t="inlineStr"/>
+      <c r="EE35" t="inlineStr"/>
+      <c r="EF35" t="inlineStr"/>
+      <c r="EG35" t="inlineStr"/>
+      <c r="EH35" t="inlineStr"/>
+      <c r="EI35" t="inlineStr"/>
+      <c r="EJ35" t="inlineStr"/>
+      <c r="EK35" t="inlineStr"/>
+      <c r="EL35" t="inlineStr"/>
+      <c r="EM35" t="inlineStr"/>
+      <c r="EN35" t="inlineStr"/>
+      <c r="EO35" t="inlineStr"/>
+      <c r="EP35" t="inlineStr"/>
+      <c r="EQ35" t="inlineStr"/>
+      <c r="ER35" t="inlineStr"/>
+      <c r="ES35" t="inlineStr"/>
+      <c r="ET35" t="inlineStr"/>
+      <c r="EU35" t="inlineStr"/>
+      <c r="EV35" t="inlineStr"/>
+      <c r="EW35" t="inlineStr"/>
+      <c r="EX35" t="inlineStr"/>
+      <c r="EY35" t="inlineStr"/>
+      <c r="EZ35" t="inlineStr"/>
+      <c r="FA35" t="inlineStr"/>
+      <c r="FB35" t="inlineStr"/>
+      <c r="FC35" t="inlineStr"/>
+      <c r="FD35" t="inlineStr"/>
+      <c r="FE35" t="inlineStr"/>
+      <c r="FF35" t="inlineStr"/>
+      <c r="FG35" t="inlineStr"/>
+      <c r="FH35" t="inlineStr"/>
+      <c r="FI35" t="inlineStr"/>
+      <c r="FJ35" t="inlineStr"/>
+      <c r="FK35" t="inlineStr"/>
+      <c r="FL35" t="inlineStr"/>
+      <c r="FM35" t="inlineStr"/>
+      <c r="FN35" t="inlineStr"/>
+      <c r="FO35" t="inlineStr"/>
+      <c r="FP35" t="inlineStr"/>
+      <c r="FQ35" t="inlineStr"/>
+      <c r="FR35" t="inlineStr"/>
+      <c r="FS35" t="inlineStr"/>
+      <c r="FT35" t="inlineStr"/>
+      <c r="FU35" t="inlineStr"/>
+      <c r="FV35" t="inlineStr"/>
+      <c r="FW35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>845</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2019_May_02_1542</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2019_May_02_1542</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -9394,10 +15034,85 @@
       <c r="DI36" t="n">
         <v>2</v>
       </c>
+      <c r="DK36" t="inlineStr"/>
+      <c r="DL36" t="inlineStr"/>
+      <c r="DM36" t="inlineStr"/>
+      <c r="DN36" t="inlineStr"/>
+      <c r="DO36" t="inlineStr"/>
+      <c r="DP36" t="inlineStr"/>
+      <c r="DQ36" t="inlineStr"/>
+      <c r="DR36" t="inlineStr"/>
+      <c r="DS36" t="inlineStr"/>
+      <c r="DT36" t="inlineStr"/>
+      <c r="DU36" t="inlineStr"/>
+      <c r="DV36" t="inlineStr"/>
+      <c r="DW36" t="inlineStr"/>
+      <c r="DX36" t="inlineStr"/>
+      <c r="DY36" t="inlineStr"/>
+      <c r="DZ36" t="inlineStr"/>
+      <c r="EA36" t="inlineStr"/>
+      <c r="EB36" t="inlineStr"/>
+      <c r="EC36" t="inlineStr"/>
+      <c r="ED36" t="inlineStr"/>
+      <c r="EE36" t="inlineStr"/>
+      <c r="EF36" t="inlineStr"/>
+      <c r="EG36" t="inlineStr"/>
+      <c r="EH36" t="inlineStr"/>
+      <c r="EI36" t="inlineStr"/>
+      <c r="EJ36" t="inlineStr"/>
+      <c r="EK36" t="inlineStr"/>
+      <c r="EL36" t="inlineStr"/>
+      <c r="EM36" t="inlineStr"/>
+      <c r="EN36" t="inlineStr"/>
+      <c r="EO36" t="inlineStr"/>
+      <c r="EP36" t="inlineStr"/>
+      <c r="EQ36" t="inlineStr"/>
+      <c r="ER36" t="inlineStr"/>
+      <c r="ES36" t="inlineStr"/>
+      <c r="ET36" t="inlineStr"/>
+      <c r="EU36" t="inlineStr"/>
+      <c r="EV36" t="inlineStr"/>
+      <c r="EW36" t="inlineStr"/>
+      <c r="EX36" t="inlineStr"/>
+      <c r="EY36" t="inlineStr"/>
+      <c r="EZ36" t="inlineStr"/>
+      <c r="FA36" t="inlineStr"/>
+      <c r="FB36" t="inlineStr"/>
+      <c r="FC36" t="inlineStr"/>
+      <c r="FD36" t="inlineStr"/>
+      <c r="FE36" t="inlineStr"/>
+      <c r="FF36" t="inlineStr"/>
+      <c r="FG36" t="inlineStr"/>
+      <c r="FH36" t="inlineStr"/>
+      <c r="FI36" t="inlineStr"/>
+      <c r="FJ36" t="inlineStr"/>
+      <c r="FK36" t="inlineStr"/>
+      <c r="FL36" t="inlineStr"/>
+      <c r="FM36" t="inlineStr"/>
+      <c r="FN36" t="inlineStr"/>
+      <c r="FO36" t="inlineStr"/>
+      <c r="FP36" t="inlineStr"/>
+      <c r="FQ36" t="inlineStr"/>
+      <c r="FR36" t="inlineStr"/>
+      <c r="FS36" t="inlineStr"/>
+      <c r="FT36" t="inlineStr"/>
+      <c r="FU36" t="inlineStr"/>
+      <c r="FV36" t="inlineStr"/>
+      <c r="FW36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>840</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2019_May_01_2029</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2019_May_01_2029</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -9629,10 +15344,85 @@
       <c r="DI37" t="n">
         <v>6</v>
       </c>
+      <c r="DK37" t="inlineStr"/>
+      <c r="DL37" t="inlineStr"/>
+      <c r="DM37" t="inlineStr"/>
+      <c r="DN37" t="inlineStr"/>
+      <c r="DO37" t="inlineStr"/>
+      <c r="DP37" t="inlineStr"/>
+      <c r="DQ37" t="inlineStr"/>
+      <c r="DR37" t="inlineStr"/>
+      <c r="DS37" t="inlineStr"/>
+      <c r="DT37" t="inlineStr"/>
+      <c r="DU37" t="inlineStr"/>
+      <c r="DV37" t="inlineStr"/>
+      <c r="DW37" t="inlineStr"/>
+      <c r="DX37" t="inlineStr"/>
+      <c r="DY37" t="inlineStr"/>
+      <c r="DZ37" t="inlineStr"/>
+      <c r="EA37" t="inlineStr"/>
+      <c r="EB37" t="inlineStr"/>
+      <c r="EC37" t="inlineStr"/>
+      <c r="ED37" t="inlineStr"/>
+      <c r="EE37" t="inlineStr"/>
+      <c r="EF37" t="inlineStr"/>
+      <c r="EG37" t="inlineStr"/>
+      <c r="EH37" t="inlineStr"/>
+      <c r="EI37" t="inlineStr"/>
+      <c r="EJ37" t="inlineStr"/>
+      <c r="EK37" t="inlineStr"/>
+      <c r="EL37" t="inlineStr"/>
+      <c r="EM37" t="inlineStr"/>
+      <c r="EN37" t="inlineStr"/>
+      <c r="EO37" t="inlineStr"/>
+      <c r="EP37" t="inlineStr"/>
+      <c r="EQ37" t="inlineStr"/>
+      <c r="ER37" t="inlineStr"/>
+      <c r="ES37" t="inlineStr"/>
+      <c r="ET37" t="inlineStr"/>
+      <c r="EU37" t="inlineStr"/>
+      <c r="EV37" t="inlineStr"/>
+      <c r="EW37" t="inlineStr"/>
+      <c r="EX37" t="inlineStr"/>
+      <c r="EY37" t="inlineStr"/>
+      <c r="EZ37" t="inlineStr"/>
+      <c r="FA37" t="inlineStr"/>
+      <c r="FB37" t="inlineStr"/>
+      <c r="FC37" t="inlineStr"/>
+      <c r="FD37" t="inlineStr"/>
+      <c r="FE37" t="inlineStr"/>
+      <c r="FF37" t="inlineStr"/>
+      <c r="FG37" t="inlineStr"/>
+      <c r="FH37" t="inlineStr"/>
+      <c r="FI37" t="inlineStr"/>
+      <c r="FJ37" t="inlineStr"/>
+      <c r="FK37" t="inlineStr"/>
+      <c r="FL37" t="inlineStr"/>
+      <c r="FM37" t="inlineStr"/>
+      <c r="FN37" t="inlineStr"/>
+      <c r="FO37" t="inlineStr"/>
+      <c r="FP37" t="inlineStr"/>
+      <c r="FQ37" t="inlineStr"/>
+      <c r="FR37" t="inlineStr"/>
+      <c r="FS37" t="inlineStr"/>
+      <c r="FT37" t="inlineStr"/>
+      <c r="FU37" t="inlineStr"/>
+      <c r="FV37" t="inlineStr"/>
+      <c r="FW37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>787</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2019_May_01_1924</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2019_May_01_1924</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -9864,10 +15654,85 @@
       <c r="DI38" t="n">
         <v>11</v>
       </c>
+      <c r="DK38" t="inlineStr"/>
+      <c r="DL38" t="inlineStr"/>
+      <c r="DM38" t="inlineStr"/>
+      <c r="DN38" t="inlineStr"/>
+      <c r="DO38" t="inlineStr"/>
+      <c r="DP38" t="inlineStr"/>
+      <c r="DQ38" t="inlineStr"/>
+      <c r="DR38" t="inlineStr"/>
+      <c r="DS38" t="inlineStr"/>
+      <c r="DT38" t="inlineStr"/>
+      <c r="DU38" t="inlineStr"/>
+      <c r="DV38" t="inlineStr"/>
+      <c r="DW38" t="inlineStr"/>
+      <c r="DX38" t="inlineStr"/>
+      <c r="DY38" t="inlineStr"/>
+      <c r="DZ38" t="inlineStr"/>
+      <c r="EA38" t="inlineStr"/>
+      <c r="EB38" t="inlineStr"/>
+      <c r="EC38" t="inlineStr"/>
+      <c r="ED38" t="inlineStr"/>
+      <c r="EE38" t="inlineStr"/>
+      <c r="EF38" t="inlineStr"/>
+      <c r="EG38" t="inlineStr"/>
+      <c r="EH38" t="inlineStr"/>
+      <c r="EI38" t="inlineStr"/>
+      <c r="EJ38" t="inlineStr"/>
+      <c r="EK38" t="inlineStr"/>
+      <c r="EL38" t="inlineStr"/>
+      <c r="EM38" t="inlineStr"/>
+      <c r="EN38" t="inlineStr"/>
+      <c r="EO38" t="inlineStr"/>
+      <c r="EP38" t="inlineStr"/>
+      <c r="EQ38" t="inlineStr"/>
+      <c r="ER38" t="inlineStr"/>
+      <c r="ES38" t="inlineStr"/>
+      <c r="ET38" t="inlineStr"/>
+      <c r="EU38" t="inlineStr"/>
+      <c r="EV38" t="inlineStr"/>
+      <c r="EW38" t="inlineStr"/>
+      <c r="EX38" t="inlineStr"/>
+      <c r="EY38" t="inlineStr"/>
+      <c r="EZ38" t="inlineStr"/>
+      <c r="FA38" t="inlineStr"/>
+      <c r="FB38" t="inlineStr"/>
+      <c r="FC38" t="inlineStr"/>
+      <c r="FD38" t="inlineStr"/>
+      <c r="FE38" t="inlineStr"/>
+      <c r="FF38" t="inlineStr"/>
+      <c r="FG38" t="inlineStr"/>
+      <c r="FH38" t="inlineStr"/>
+      <c r="FI38" t="inlineStr"/>
+      <c r="FJ38" t="inlineStr"/>
+      <c r="FK38" t="inlineStr"/>
+      <c r="FL38" t="inlineStr"/>
+      <c r="FM38" t="inlineStr"/>
+      <c r="FN38" t="inlineStr"/>
+      <c r="FO38" t="inlineStr"/>
+      <c r="FP38" t="inlineStr"/>
+      <c r="FQ38" t="inlineStr"/>
+      <c r="FR38" t="inlineStr"/>
+      <c r="FS38" t="inlineStr"/>
+      <c r="FT38" t="inlineStr"/>
+      <c r="FU38" t="inlineStr"/>
+      <c r="FV38" t="inlineStr"/>
+      <c r="FW38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>812</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2019_May_06_1216</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2019_May_06_1216</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -10099,6 +15964,71 @@
       <c r="DI39" t="n">
         <v>7</v>
       </c>
+      <c r="DK39" t="inlineStr"/>
+      <c r="DL39" t="inlineStr"/>
+      <c r="DM39" t="inlineStr"/>
+      <c r="DN39" t="inlineStr"/>
+      <c r="DO39" t="inlineStr"/>
+      <c r="DP39" t="inlineStr"/>
+      <c r="DQ39" t="inlineStr"/>
+      <c r="DR39" t="inlineStr"/>
+      <c r="DS39" t="inlineStr"/>
+      <c r="DT39" t="inlineStr"/>
+      <c r="DU39" t="inlineStr"/>
+      <c r="DV39" t="inlineStr"/>
+      <c r="DW39" t="inlineStr"/>
+      <c r="DX39" t="inlineStr"/>
+      <c r="DY39" t="inlineStr"/>
+      <c r="DZ39" t="inlineStr"/>
+      <c r="EA39" t="inlineStr"/>
+      <c r="EB39" t="inlineStr"/>
+      <c r="EC39" t="inlineStr"/>
+      <c r="ED39" t="inlineStr"/>
+      <c r="EE39" t="inlineStr"/>
+      <c r="EF39" t="inlineStr"/>
+      <c r="EG39" t="inlineStr"/>
+      <c r="EH39" t="inlineStr"/>
+      <c r="EI39" t="inlineStr"/>
+      <c r="EJ39" t="inlineStr"/>
+      <c r="EK39" t="inlineStr"/>
+      <c r="EL39" t="inlineStr"/>
+      <c r="EM39" t="inlineStr"/>
+      <c r="EN39" t="inlineStr"/>
+      <c r="EO39" t="inlineStr"/>
+      <c r="EP39" t="inlineStr"/>
+      <c r="EQ39" t="inlineStr"/>
+      <c r="ER39" t="inlineStr"/>
+      <c r="ES39" t="inlineStr"/>
+      <c r="ET39" t="inlineStr"/>
+      <c r="EU39" t="inlineStr"/>
+      <c r="EV39" t="inlineStr"/>
+      <c r="EW39" t="inlineStr"/>
+      <c r="EX39" t="inlineStr"/>
+      <c r="EY39" t="inlineStr"/>
+      <c r="EZ39" t="inlineStr"/>
+      <c r="FA39" t="inlineStr"/>
+      <c r="FB39" t="inlineStr"/>
+      <c r="FC39" t="inlineStr"/>
+      <c r="FD39" t="inlineStr"/>
+      <c r="FE39" t="inlineStr"/>
+      <c r="FF39" t="inlineStr"/>
+      <c r="FG39" t="inlineStr"/>
+      <c r="FH39" t="inlineStr"/>
+      <c r="FI39" t="inlineStr"/>
+      <c r="FJ39" t="inlineStr"/>
+      <c r="FK39" t="inlineStr"/>
+      <c r="FL39" t="inlineStr"/>
+      <c r="FM39" t="inlineStr"/>
+      <c r="FN39" t="inlineStr"/>
+      <c r="FO39" t="inlineStr"/>
+      <c r="FP39" t="inlineStr"/>
+      <c r="FQ39" t="inlineStr"/>
+      <c r="FR39" t="inlineStr"/>
+      <c r="FS39" t="inlineStr"/>
+      <c r="FT39" t="inlineStr"/>
+      <c r="FU39" t="inlineStr"/>
+      <c r="FV39" t="inlineStr"/>
+      <c r="FW39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/maer_auto.xlsx
+++ b/maer_auto.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FW39"/>
+  <dimension ref="A1:DI39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,336 +919,6 @@
           <t>prt_order_i8380</t>
         </is>
       </c>
-      <c r="DJ1" t="inlineStr">
-        <is>
-          <t>expName</t>
-        </is>
-      </c>
-      <c r="DK1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i2311</t>
-        </is>
-      </c>
-      <c r="DL1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i2311</t>
-        </is>
-      </c>
-      <c r="DM1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i2311</t>
-        </is>
-      </c>
-      <c r="DN1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i2311</t>
-        </is>
-      </c>
-      <c r="DO1" t="inlineStr">
-        <is>
-          <t>prt_order_i2311</t>
-        </is>
-      </c>
-      <c r="DP1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i2347</t>
-        </is>
-      </c>
-      <c r="DQ1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i2347</t>
-        </is>
-      </c>
-      <c r="DR1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i2347</t>
-        </is>
-      </c>
-      <c r="DS1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i2347</t>
-        </is>
-      </c>
-      <c r="DT1" t="inlineStr">
-        <is>
-          <t>prt_order_i2347</t>
-        </is>
-      </c>
-      <c r="DU1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i2360</t>
-        </is>
-      </c>
-      <c r="DV1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i2360</t>
-        </is>
-      </c>
-      <c r="DW1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i2360</t>
-        </is>
-      </c>
-      <c r="DX1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i2360</t>
-        </is>
-      </c>
-      <c r="DY1" t="inlineStr">
-        <is>
-          <t>prt_order_i2360</t>
-        </is>
-      </c>
-      <c r="DZ1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i2393</t>
-        </is>
-      </c>
-      <c r="EA1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i2393</t>
-        </is>
-      </c>
-      <c r="EB1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i2393</t>
-        </is>
-      </c>
-      <c r="EC1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i2393</t>
-        </is>
-      </c>
-      <c r="ED1" t="inlineStr">
-        <is>
-          <t>prt_order_i2393</t>
-        </is>
-      </c>
-      <c r="EE1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i2500</t>
-        </is>
-      </c>
-      <c r="EF1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i2500</t>
-        </is>
-      </c>
-      <c r="EG1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i2500</t>
-        </is>
-      </c>
-      <c r="EH1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i2500</t>
-        </is>
-      </c>
-      <c r="EI1" t="inlineStr">
-        <is>
-          <t>prt_order_i2500</t>
-        </is>
-      </c>
-      <c r="EJ1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i2540</t>
-        </is>
-      </c>
-      <c r="EK1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i2540</t>
-        </is>
-      </c>
-      <c r="EL1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i2540</t>
-        </is>
-      </c>
-      <c r="EM1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i2540</t>
-        </is>
-      </c>
-      <c r="EN1" t="inlineStr">
-        <is>
-          <t>prt_order_i2540</t>
-        </is>
-      </c>
-      <c r="EO1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i2799</t>
-        </is>
-      </c>
-      <c r="EP1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i2799</t>
-        </is>
-      </c>
-      <c r="EQ1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i2799</t>
-        </is>
-      </c>
-      <c r="ER1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i2799</t>
-        </is>
-      </c>
-      <c r="ES1" t="inlineStr">
-        <is>
-          <t>prt_order_i2799</t>
-        </is>
-      </c>
-      <c r="ET1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i2900</t>
-        </is>
-      </c>
-      <c r="EU1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i2900</t>
-        </is>
-      </c>
-      <c r="EV1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i2900</t>
-        </is>
-      </c>
-      <c r="EW1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i2900</t>
-        </is>
-      </c>
-      <c r="EX1" t="inlineStr">
-        <is>
-          <t>prt_order_i2900</t>
-        </is>
-      </c>
-      <c r="EY1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i3350</t>
-        </is>
-      </c>
-      <c r="EZ1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i3350</t>
-        </is>
-      </c>
-      <c r="FA1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i3350</t>
-        </is>
-      </c>
-      <c r="FB1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i3350</t>
-        </is>
-      </c>
-      <c r="FC1" t="inlineStr">
-        <is>
-          <t>prt_order_i3350</t>
-        </is>
-      </c>
-      <c r="FD1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i3500</t>
-        </is>
-      </c>
-      <c r="FE1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i3500</t>
-        </is>
-      </c>
-      <c r="FF1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i3500</t>
-        </is>
-      </c>
-      <c r="FG1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i3500</t>
-        </is>
-      </c>
-      <c r="FH1" t="inlineStr">
-        <is>
-          <t>prt_order_i3500</t>
-        </is>
-      </c>
-      <c r="FI1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i7006</t>
-        </is>
-      </c>
-      <c r="FJ1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i7006</t>
-        </is>
-      </c>
-      <c r="FK1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i7006</t>
-        </is>
-      </c>
-      <c r="FL1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i7006</t>
-        </is>
-      </c>
-      <c r="FM1" t="inlineStr">
-        <is>
-          <t>prt_order_i7006</t>
-        </is>
-      </c>
-      <c r="FN1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i7009</t>
-        </is>
-      </c>
-      <c r="FO1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i7009</t>
-        </is>
-      </c>
-      <c r="FP1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i7009</t>
-        </is>
-      </c>
-      <c r="FQ1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i7009</t>
-        </is>
-      </c>
-      <c r="FR1" t="inlineStr">
-        <is>
-          <t>prt_order_i7009</t>
-        </is>
-      </c>
-      <c r="FS1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.response_raw_i7036</t>
-        </is>
-      </c>
-      <c r="FT1" t="inlineStr">
-        <is>
-          <t>prt_2_vas.rt_raw_i7036</t>
-        </is>
-      </c>
-      <c r="FU1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.keys_raw_i7036</t>
-        </is>
-      </c>
-      <c r="FV1" t="inlineStr">
-        <is>
-          <t>prt_image_intens_resp.rt_raw_i7036</t>
-        </is>
-      </c>
-      <c r="FW1" t="inlineStr">
-        <is>
-          <t>prt_order_i7036</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1261,7 +931,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2019_May_22_0921</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1494,196 +1164,6 @@
       <c r="DI2" t="n">
         <v>10</v>
       </c>
-      <c r="DJ2" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>2</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1.752379192505032</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>6</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>8.512</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>2</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1.251808150322177</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>5</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>1.852578553953208</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>5.724</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>3</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>3.804507943685167</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>8</v>
-      </c>
-      <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="inlineStr"/>
-      <c r="EG2" t="inlineStr"/>
-      <c r="EH2" t="inlineStr"/>
-      <c r="EI2" t="inlineStr"/>
-      <c r="EJ2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>4.604</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>2</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1.167561615002342</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>2</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>3.442</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>3</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>2.620034103281796</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>10</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>6.409</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>2</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1.185167924850248</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>9</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>3.557</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>3</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>1.368664938956499</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>11</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>3.206</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>3</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>1.368846422526985</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>4</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>5.959</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>2</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1.251916018780321</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>2</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1.185356018831953</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>7</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>4.235</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>2</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>2.086171943694353</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1696,7 +1176,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2019_May_22_1715</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1929,196 +1409,6 @@
       <c r="DI3" t="n">
         <v>7</v>
       </c>
-      <c r="DJ3" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK3" t="n">
-        <v>-5</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>2.704</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>2.302936638589017</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>6</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>20</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>2.136160751222633</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>7</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>-13</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>6.469</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>4</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>2.870674929581583</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>2.206</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>2.202956920256838</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>5</v>
-      </c>
-      <c r="EE3" t="inlineStr"/>
-      <c r="EF3" t="inlineStr"/>
-      <c r="EG3" t="inlineStr"/>
-      <c r="EH3" t="inlineStr"/>
-      <c r="EI3" t="inlineStr"/>
-      <c r="EJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>1.725</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>6</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>2.302983812172897</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>-33</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>3.441</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>6</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>4.521982798120007</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>-18</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>2.065</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>1.619055173709057</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>9</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>-22</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>5</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>2.553768262849189</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>-23</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>2.006</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>4</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>1.485468544531614</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>-23</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>4.208</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>4</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>3.253979342756793</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>4</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>-5</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>1.989</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>3.170401352108456</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>8</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>2.222</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>1.2686659906758</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2131,7 +1421,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019_May_26_1418</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2364,196 +1654,6 @@
       <c r="DI4" t="n">
         <v>11</v>
       </c>
-      <c r="DJ4" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>8.377000000000001</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>5</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>2.569950647888618</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>3</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>-8</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>3.272</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>2.203210516430772</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>6</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>-11</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>7.952</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>7</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>3.987992338026743</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>3.655</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>1.252077671360894</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>10</v>
-      </c>
-      <c r="EE4" t="inlineStr"/>
-      <c r="EF4" t="inlineStr"/>
-      <c r="EG4" t="inlineStr"/>
-      <c r="EH4" t="inlineStr"/>
-      <c r="EI4" t="inlineStr"/>
-      <c r="EJ4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>6.475</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>7</v>
-      </c>
-      <c r="EM4" t="n">
-        <v>10.82829851643146</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>-7</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>4.007</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>3</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>3.888018929577811</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>11</v>
-      </c>
-      <c r="ET4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EU4" t="n">
-        <v>3.506</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>5</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>2.303076056337886</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>2</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>-4</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>6.774</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>3.587676845070746</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>-6</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>3.541</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>3</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>2.336294159624231</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>13.936</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>5</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>3.20372582159689</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>4</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>3.707</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>3</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>4.355228845070087</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>5</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>2</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>5.573015136151298</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2566,7 +1666,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019_Jun_05_1710</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -2799,196 +1899,6 @@
       <c r="DI5" t="n">
         <v>7</v>
       </c>
-      <c r="DJ5" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK5" t="n">
-        <v>25</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>5</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>3.637795755868865</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>7</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>25</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>5</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>2.202947004694579</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>20</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>6.194</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>2.219077408448356</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>11</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>5</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>2</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>3.004196957746899</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>4</v>
-      </c>
-      <c r="EE5" t="inlineStr"/>
-      <c r="EF5" t="inlineStr"/>
-      <c r="EG5" t="inlineStr"/>
-      <c r="EH5" t="inlineStr"/>
-      <c r="EI5" t="inlineStr"/>
-      <c r="EJ5" t="n">
-        <v>35</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>5.277</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>7</v>
-      </c>
-      <c r="EM5" t="n">
-        <v>2.269881690142938</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>-30</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>3.639</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>8</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>2.503207962443412</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>10</v>
-      </c>
-      <c r="ET5" t="n">
-        <v>-18</v>
-      </c>
-      <c r="EU5" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>6</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>2.536137915492873</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>9</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>-30</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="FA5" t="n">
-        <v>7</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>3.721343098590296</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>5</v>
-      </c>
-      <c r="FG5" t="n">
-        <v>2.853598948357103</v>
-      </c>
-      <c r="FH5" t="n">
-        <v>2</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>3.224</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>1.986022460092499</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>8</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>4.775</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>2.503264150236646</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>5</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>10</v>
-      </c>
-      <c r="FT5" t="n">
-        <v>5.775</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>6</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>2.219744150232145</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3001,7 +1911,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2019_May_26_1822</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3234,196 +2144,6 @@
       <c r="DI6" t="n">
         <v>8</v>
       </c>
-      <c r="DJ6" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK6" t="n">
-        <v>9</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>4.775</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>6</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>2.019428957744822</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>6</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>-3</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>4</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>10.61180484507349</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>7</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>18</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0.2838541220662592</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>6</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>4.906</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>5</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>0.4511729577461665</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>8</v>
-      </c>
-      <c r="EE6" t="inlineStr"/>
-      <c r="EF6" t="inlineStr"/>
-      <c r="EG6" t="inlineStr"/>
-      <c r="EH6" t="inlineStr"/>
-      <c r="EI6" t="inlineStr"/>
-      <c r="EJ6" t="n">
-        <v>6</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>3.623</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>6</v>
-      </c>
-      <c r="EM6" t="n">
-        <v>1.419072901408072</v>
-      </c>
-      <c r="EN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>-20</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>4.691</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>7</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>1.685959211266891</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>2</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>-17</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>13.203</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>6</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>0.9008396619719861</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>4</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>-30</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>9.647</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>7</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>4.154906441315688</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>-27</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>7.987</v>
-      </c>
-      <c r="FF6" t="n">
-        <v>7</v>
-      </c>
-      <c r="FG6" t="n">
-        <v>1.936441990612366</v>
-      </c>
-      <c r="FH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>-7</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>4.942</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>6</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>0.3010584037547233</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>10</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>5</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>1.552385802817298</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>3</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>-10</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>6.692</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>6</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>1.485718835683656</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3436,7 +2156,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2019_May_27_1117</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3669,196 +2389,6 @@
       <c r="DI7" t="n">
         <v>1</v>
       </c>
-      <c r="DJ7" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK7" t="n">
-        <v>-21</v>
-      </c>
-      <c r="DL7" t="n">
-        <v>3.707</v>
-      </c>
-      <c r="DM7" t="n">
-        <v>5</v>
-      </c>
-      <c r="DN7" t="n">
-        <v>2.136372882629075</v>
-      </c>
-      <c r="DO7" t="n">
-        <v>2</v>
-      </c>
-      <c r="DP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ7" t="n">
-        <v>4.841</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>5</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>1.619048863849457</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>8</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>10</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>2.555</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0.6015375023480374</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>7</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>-12</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>2.556</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>2</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>1.018523943662331</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>4</v>
-      </c>
-      <c r="EE7" t="inlineStr"/>
-      <c r="EF7" t="inlineStr"/>
-      <c r="EG7" t="inlineStr"/>
-      <c r="EH7" t="inlineStr"/>
-      <c r="EI7" t="inlineStr"/>
-      <c r="EJ7" t="n">
-        <v>16</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>2.406</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>7</v>
-      </c>
-      <c r="EM7" t="n">
-        <v>1.435377276995496</v>
-      </c>
-      <c r="EN7" t="n">
-        <v>9</v>
-      </c>
-      <c r="EO7" t="n">
-        <v>-37</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>2.504</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v>8</v>
-      </c>
-      <c r="ER7" t="n">
-        <v>1.71905442253501</v>
-      </c>
-      <c r="ES7" t="n">
-        <v>10</v>
-      </c>
-      <c r="ET7" t="n">
-        <v>-41</v>
-      </c>
-      <c r="EU7" t="n">
-        <v>3.774</v>
-      </c>
-      <c r="EV7" t="n">
-        <v>8</v>
-      </c>
-      <c r="EW7" t="n">
-        <v>1.485613671361534</v>
-      </c>
-      <c r="EX7" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY7" t="n">
-        <v>-46</v>
-      </c>
-      <c r="EZ7" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="FA7" t="n">
-        <v>9</v>
-      </c>
-      <c r="FB7" t="n">
-        <v>1.95235094835698</v>
-      </c>
-      <c r="FC7" t="n">
-        <v>5</v>
-      </c>
-      <c r="FD7" t="n">
-        <v>-36</v>
-      </c>
-      <c r="FE7" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="FF7" t="n">
-        <v>8</v>
-      </c>
-      <c r="FG7" t="n">
-        <v>1.185187455398591</v>
-      </c>
-      <c r="FH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="FI7" t="n">
-        <v>-12</v>
-      </c>
-      <c r="FJ7" t="n">
-        <v>3.474</v>
-      </c>
-      <c r="FK7" t="n">
-        <v>2</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>2.870187868545145</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>6</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>-11</v>
-      </c>
-      <c r="FO7" t="n">
-        <v>3.699</v>
-      </c>
-      <c r="FP7" t="n">
-        <v>3</v>
-      </c>
-      <c r="FQ7" t="n">
-        <v>2.903073051643332</v>
-      </c>
-      <c r="FR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="n">
-        <v>-10</v>
-      </c>
-      <c r="FT7" t="n">
-        <v>3.606</v>
-      </c>
-      <c r="FU7" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV7" t="n">
-        <v>1.185421521126955</v>
-      </c>
-      <c r="FW7" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3871,7 +2401,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2019_Jun_06_0947</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -4104,196 +2634,6 @@
       <c r="DI8" t="n">
         <v>10</v>
       </c>
-      <c r="DJ8" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK8" t="n">
-        <v>13</v>
-      </c>
-      <c r="DL8" t="n">
-        <v>3.609</v>
-      </c>
-      <c r="DM8" t="n">
-        <v>5</v>
-      </c>
-      <c r="DN8" t="n">
-        <v>2.770239049941665</v>
-      </c>
-      <c r="DO8" t="n">
-        <v>9</v>
-      </c>
-      <c r="DP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="DQ8" t="n">
-        <v>3.206</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>2.252989889526361</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>8</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>14</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>4.244</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>1.986064258851002</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>6</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>4.717</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>2.870720310756951</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE8" t="inlineStr"/>
-      <c r="EF8" t="inlineStr"/>
-      <c r="EG8" t="inlineStr"/>
-      <c r="EH8" t="inlineStr"/>
-      <c r="EI8" t="inlineStr"/>
-      <c r="EJ8" t="n">
-        <v>7</v>
-      </c>
-      <c r="EK8" t="n">
-        <v>4.241</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>3</v>
-      </c>
-      <c r="EM8" t="n">
-        <v>1.736202549597692</v>
-      </c>
-      <c r="EN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="EO8" t="n">
-        <v>-7</v>
-      </c>
-      <c r="EP8" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="EQ8" t="n">
-        <v>4</v>
-      </c>
-      <c r="ER8" t="n">
-        <v>3.604341533226034</v>
-      </c>
-      <c r="ES8" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET8" t="n">
-        <v>-3</v>
-      </c>
-      <c r="EU8" t="n">
-        <v>3.358</v>
-      </c>
-      <c r="EV8" t="n">
-        <v>2</v>
-      </c>
-      <c r="EW8" t="n">
-        <v>1.768851184733649</v>
-      </c>
-      <c r="EX8" t="n">
-        <v>11</v>
-      </c>
-      <c r="EY8" t="n">
-        <v>-26</v>
-      </c>
-      <c r="EZ8" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="FA8" t="n">
-        <v>7</v>
-      </c>
-      <c r="FB8" t="n">
-        <v>2.519891783170351</v>
-      </c>
-      <c r="FC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="FD8" t="n">
-        <v>-29</v>
-      </c>
-      <c r="FE8" t="n">
-        <v>2.672</v>
-      </c>
-      <c r="FF8" t="n">
-        <v>7</v>
-      </c>
-      <c r="FG8" t="n">
-        <v>2.286335311719995</v>
-      </c>
-      <c r="FH8" t="n">
-        <v>3</v>
-      </c>
-      <c r="FI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ8" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="FK8" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL8" t="n">
-        <v>2.069584959494932</v>
-      </c>
-      <c r="FM8" t="n">
-        <v>2</v>
-      </c>
-      <c r="FN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" t="n">
-        <v>3.005</v>
-      </c>
-      <c r="FP8" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ8" t="n">
-        <v>1.769122207556393</v>
-      </c>
-      <c r="FR8" t="n">
-        <v>4</v>
-      </c>
-      <c r="FS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT8" t="n">
-        <v>2.987</v>
-      </c>
-      <c r="FU8" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV8" t="n">
-        <v>1.835941352102964</v>
-      </c>
-      <c r="FW8" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4306,7 +2646,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2019_May_26_1717</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -4539,196 +2879,6 @@
       <c r="DI9" t="n">
         <v>6</v>
       </c>
-      <c r="DJ9" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL9" t="n">
-        <v>2.849</v>
-      </c>
-      <c r="DM9" t="n">
-        <v>5</v>
-      </c>
-      <c r="DN9" t="n">
-        <v>1.402419079811807</v>
-      </c>
-      <c r="DO9" t="n">
-        <v>5</v>
-      </c>
-      <c r="DP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>1.147</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>5</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>2.252819230048772</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>11</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>1.082</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>1.802657051644928</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>10</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0.646</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>5</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>1.952788732392946</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>6</v>
-      </c>
-      <c r="EE9" t="inlineStr"/>
-      <c r="EF9" t="inlineStr"/>
-      <c r="EG9" t="inlineStr"/>
-      <c r="EH9" t="inlineStr"/>
-      <c r="EI9" t="inlineStr"/>
-      <c r="EJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>5</v>
-      </c>
-      <c r="EM9" t="n">
-        <v>2.10293844131229</v>
-      </c>
-      <c r="EN9" t="n">
-        <v>2</v>
-      </c>
-      <c r="EO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>2.724</v>
-      </c>
-      <c r="EQ9" t="n">
-        <v>6</v>
-      </c>
-      <c r="ER9" t="n">
-        <v>1.468921089202922</v>
-      </c>
-      <c r="ES9" t="n">
-        <v>8</v>
-      </c>
-      <c r="ET9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU9" t="n">
-        <v>1.063</v>
-      </c>
-      <c r="EV9" t="n">
-        <v>6</v>
-      </c>
-      <c r="EW9" t="n">
-        <v>2.036314140845207</v>
-      </c>
-      <c r="EX9" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY9" t="n">
-        <v>-8</v>
-      </c>
-      <c r="EZ9" t="n">
-        <v>4.267</v>
-      </c>
-      <c r="FA9" t="n">
-        <v>6</v>
-      </c>
-      <c r="FB9" t="n">
-        <v>0.8849132769973949</v>
-      </c>
-      <c r="FC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="FD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE9" t="n">
-        <v>0.948</v>
-      </c>
-      <c r="FF9" t="n">
-        <v>5</v>
-      </c>
-      <c r="FG9" t="n">
-        <v>1.685717333333741</v>
-      </c>
-      <c r="FH9" t="n">
-        <v>3</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>1.215</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>5</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>1.635848713616724</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>9</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>1.496</v>
-      </c>
-      <c r="FP9" t="n">
-        <v>5</v>
-      </c>
-      <c r="FQ9" t="n">
-        <v>1.585568751175742</v>
-      </c>
-      <c r="FR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT9" t="n">
-        <v>0.896</v>
-      </c>
-      <c r="FU9" t="n">
-        <v>5</v>
-      </c>
-      <c r="FV9" t="n">
-        <v>1.685745877934096</v>
-      </c>
-      <c r="FW9" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4741,7 +2891,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2019_Jun_05_1314</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -4974,196 +3124,6 @@
       <c r="DI10" t="n">
         <v>6</v>
       </c>
-      <c r="DJ10" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK10" t="n">
-        <v>-7</v>
-      </c>
-      <c r="DL10" t="n">
-        <v>5.844</v>
-      </c>
-      <c r="DM10" t="n">
-        <v>5</v>
-      </c>
-      <c r="DN10" t="n">
-        <v>2.753523380281877</v>
-      </c>
-      <c r="DO10" t="n">
-        <v>3</v>
-      </c>
-      <c r="DP10" t="n">
-        <v>50</v>
-      </c>
-      <c r="DQ10" t="n">
-        <v>4.625</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>8</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>2.536795643192363</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>9</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>50</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>2.789</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>7</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>2.085585126760179</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>5</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>5.008</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>6</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>1.769311849765018</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>8</v>
-      </c>
-      <c r="EE10" t="inlineStr"/>
-      <c r="EF10" t="inlineStr"/>
-      <c r="EG10" t="inlineStr"/>
-      <c r="EH10" t="inlineStr"/>
-      <c r="EI10" t="inlineStr"/>
-      <c r="EJ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="EK10" t="n">
-        <v>4.624</v>
-      </c>
-      <c r="EL10" t="n">
-        <v>7</v>
-      </c>
-      <c r="EM10" t="n">
-        <v>2.153066666666746</v>
-      </c>
-      <c r="EN10" t="n">
-        <v>11</v>
-      </c>
-      <c r="EO10" t="n">
-        <v>-50</v>
-      </c>
-      <c r="EP10" t="n">
-        <v>2.804</v>
-      </c>
-      <c r="EQ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="ER10" t="n">
-        <v>2.853777427229943</v>
-      </c>
-      <c r="ES10" t="n">
-        <v>10</v>
-      </c>
-      <c r="ET10" t="n">
-        <v>-50</v>
-      </c>
-      <c r="EU10" t="n">
-        <v>5.443</v>
-      </c>
-      <c r="EV10" t="n">
-        <v>7</v>
-      </c>
-      <c r="EW10" t="n">
-        <v>2.069520525821645</v>
-      </c>
-      <c r="EX10" t="n">
-        <v>4</v>
-      </c>
-      <c r="EY10" t="n">
-        <v>-50</v>
-      </c>
-      <c r="EZ10" t="n">
-        <v>4.242</v>
-      </c>
-      <c r="FA10" t="n">
-        <v>9</v>
-      </c>
-      <c r="FB10" t="n">
-        <v>2.286294535211255</v>
-      </c>
-      <c r="FC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="FD10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FE10" t="n">
-        <v>6.551</v>
-      </c>
-      <c r="FF10" t="n">
-        <v>4</v>
-      </c>
-      <c r="FG10" t="n">
-        <v>7.808471436620039</v>
-      </c>
-      <c r="FH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" t="n">
-        <v>30</v>
-      </c>
-      <c r="FJ10" t="n">
-        <v>4.041</v>
-      </c>
-      <c r="FK10" t="n">
-        <v>6</v>
-      </c>
-      <c r="FL10" t="n">
-        <v>2.486737727699619</v>
-      </c>
-      <c r="FM10" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN10" t="n">
-        <v>30</v>
-      </c>
-      <c r="FO10" t="n">
-        <v>5.058</v>
-      </c>
-      <c r="FP10" t="n">
-        <v>6</v>
-      </c>
-      <c r="FQ10" t="n">
-        <v>2.520236469483734</v>
-      </c>
-      <c r="FR10" t="n">
-        <v>2</v>
-      </c>
-      <c r="FS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT10" t="n">
-        <v>3.373</v>
-      </c>
-      <c r="FU10" t="n">
-        <v>5</v>
-      </c>
-      <c r="FV10" t="n">
-        <v>1.752481652582446</v>
-      </c>
-      <c r="FW10" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5176,7 +3136,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2019_May_19_1416</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -5409,196 +3369,6 @@
       <c r="DI11" t="n">
         <v>0</v>
       </c>
-      <c r="DJ11" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK11" t="n">
-        <v>45</v>
-      </c>
-      <c r="DL11" t="n">
-        <v>5.692</v>
-      </c>
-      <c r="DM11" t="n">
-        <v>8</v>
-      </c>
-      <c r="DN11" t="n">
-        <v>2.269601652573328</v>
-      </c>
-      <c r="DO11" t="n">
-        <v>2</v>
-      </c>
-      <c r="DP11" t="n">
-        <v>45</v>
-      </c>
-      <c r="DQ11" t="n">
-        <v>6.083</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>8</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>2.353393877914641</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>5</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>31</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>3.913</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>7</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>1.669108281668741</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>11</v>
-      </c>
-      <c r="DZ11" t="n">
-        <v>7</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>5.535</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>5</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>2.553663399070501</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>20</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>5.408</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>6</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>2.736730140866712</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>4</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>22</v>
-      </c>
-      <c r="EK11" t="n">
-        <v>6.508</v>
-      </c>
-      <c r="EL11" t="n">
-        <v>6</v>
-      </c>
-      <c r="EM11" t="n">
-        <v>7.007680300448555</v>
-      </c>
-      <c r="EN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="EO11" t="n">
-        <v>-30</v>
-      </c>
-      <c r="EP11" t="n">
-        <v>11.789</v>
-      </c>
-      <c r="EQ11" t="n">
-        <v>8</v>
-      </c>
-      <c r="ER11" t="n">
-        <v>2.519811906095129</v>
-      </c>
-      <c r="ES11" t="n">
-        <v>8</v>
-      </c>
-      <c r="ET11" t="n">
-        <v>-21</v>
-      </c>
-      <c r="EU11" t="n">
-        <v>10.048</v>
-      </c>
-      <c r="EV11" t="n">
-        <v>7</v>
-      </c>
-      <c r="EW11" t="n">
-        <v>1.91912984038936</v>
-      </c>
-      <c r="EX11" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY11" t="n">
-        <v>-27</v>
-      </c>
-      <c r="EZ11" t="n">
-        <v>3.832</v>
-      </c>
-      <c r="FA11" t="n">
-        <v>7</v>
-      </c>
-      <c r="FB11" t="n">
-        <v>4.938826816913206</v>
-      </c>
-      <c r="FC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="FD11" t="inlineStr"/>
-      <c r="FE11" t="inlineStr"/>
-      <c r="FF11" t="inlineStr"/>
-      <c r="FG11" t="inlineStr"/>
-      <c r="FH11" t="inlineStr"/>
-      <c r="FI11" t="n">
-        <v>2</v>
-      </c>
-      <c r="FJ11" t="n">
-        <v>3.597</v>
-      </c>
-      <c r="FK11" t="n">
-        <v>4</v>
-      </c>
-      <c r="FL11" t="n">
-        <v>3.353961464774329</v>
-      </c>
-      <c r="FM11" t="n">
-        <v>9</v>
-      </c>
-      <c r="FN11" t="n">
-        <v>2</v>
-      </c>
-      <c r="FO11" t="n">
-        <v>10.338</v>
-      </c>
-      <c r="FP11" t="n">
-        <v>3</v>
-      </c>
-      <c r="FQ11" t="n">
-        <v>2.719965145573951</v>
-      </c>
-      <c r="FR11" t="n">
-        <v>7</v>
-      </c>
-      <c r="FS11" t="n">
-        <v>5</v>
-      </c>
-      <c r="FT11" t="n">
-        <v>5.135</v>
-      </c>
-      <c r="FU11" t="n">
-        <v>5</v>
-      </c>
-      <c r="FV11" t="n">
-        <v>2.970301295805257</v>
-      </c>
-      <c r="FW11" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5611,7 +3381,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2019_May_31_1220</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -5844,196 +3614,6 @@
       <c r="DI12" t="n">
         <v>11</v>
       </c>
-      <c r="DJ12" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK12" t="n">
-        <v>26</v>
-      </c>
-      <c r="DL12" t="n">
-        <v>7.561</v>
-      </c>
-      <c r="DM12" t="n">
-        <v>5</v>
-      </c>
-      <c r="DN12" t="n">
-        <v>4.672125295774094</v>
-      </c>
-      <c r="DO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="DP12" t="n">
-        <v>24</v>
-      </c>
-      <c r="DQ12" t="n">
-        <v>5.958</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>5.356160901408657</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>6</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>24</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>8.193</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>6</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>4.138316018779733</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>9</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>15.136</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>5</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>1.969521877934312</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>10</v>
-      </c>
-      <c r="EE12" t="inlineStr"/>
-      <c r="EF12" t="inlineStr"/>
-      <c r="EG12" t="inlineStr"/>
-      <c r="EH12" t="inlineStr"/>
-      <c r="EI12" t="inlineStr"/>
-      <c r="EJ12" t="n">
-        <v>25</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>6.875</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>6</v>
-      </c>
-      <c r="EM12" t="n">
-        <v>3.654285821596204</v>
-      </c>
-      <c r="EN12" t="n">
-        <v>2</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>22</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>7</v>
-      </c>
-      <c r="ER12" t="n">
-        <v>2.60269220657392</v>
-      </c>
-      <c r="ES12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET12" t="n">
-        <v>18</v>
-      </c>
-      <c r="EU12" t="n">
-        <v>9.413</v>
-      </c>
-      <c r="EV12" t="n">
-        <v>8</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>4.772168112676809</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>15</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>8.228999999999999</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>8</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>2.386023661973013</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>4</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>19</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>6.844</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>8</v>
-      </c>
-      <c r="FG12" t="n">
-        <v>2.703536976525356</v>
-      </c>
-      <c r="FH12" t="n">
-        <v>7</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>20</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>10.447</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>5</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>2.503086272301516</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>5</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>26</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>5</v>
-      </c>
-      <c r="FQ12" t="n">
-        <v>2.653396431924193</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>3</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>20</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>10.214</v>
-      </c>
-      <c r="FU12" t="n">
-        <v>5</v>
-      </c>
-      <c r="FV12" t="n">
-        <v>5.873158009389954</v>
-      </c>
-      <c r="FW12" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -6046,7 +3626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2019_May_22_1029</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -6279,196 +3859,6 @@
       <c r="DI13" t="n">
         <v>8</v>
       </c>
-      <c r="DJ13" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK13" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL13" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="DM13" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN13" t="n">
-        <v>1.969460582127795</v>
-      </c>
-      <c r="DO13" t="n">
-        <v>4</v>
-      </c>
-      <c r="DP13" t="n">
-        <v>25</v>
-      </c>
-      <c r="DQ13" t="n">
-        <v>5.452</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>3.771513990708627</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>20</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>6.092</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>1.368419455480762</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>2</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>2.302888863836415</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>10</v>
-      </c>
-      <c r="EE13" t="inlineStr"/>
-      <c r="EF13" t="inlineStr"/>
-      <c r="EG13" t="inlineStr"/>
-      <c r="EH13" t="inlineStr"/>
-      <c r="EI13" t="inlineStr"/>
-      <c r="EJ13" t="n">
-        <v>10</v>
-      </c>
-      <c r="EK13" t="n">
-        <v>5.092</v>
-      </c>
-      <c r="EL13" t="n">
-        <v>2</v>
-      </c>
-      <c r="EM13" t="n">
-        <v>2.603383286390454</v>
-      </c>
-      <c r="EN13" t="n">
-        <v>5</v>
-      </c>
-      <c r="EO13" t="n">
-        <v>-35</v>
-      </c>
-      <c r="EP13" t="n">
-        <v>6.827</v>
-      </c>
-      <c r="EQ13" t="n">
-        <v>6</v>
-      </c>
-      <c r="ER13" t="n">
-        <v>3.153864112682641</v>
-      </c>
-      <c r="ES13" t="n">
-        <v>7</v>
-      </c>
-      <c r="ET13" t="n">
-        <v>-30</v>
-      </c>
-      <c r="EU13" t="n">
-        <v>10.712</v>
-      </c>
-      <c r="EV13" t="n">
-        <v>4</v>
-      </c>
-      <c r="EW13" t="n">
-        <v>1.351946816896088</v>
-      </c>
-      <c r="EX13" t="n">
-        <v>6</v>
-      </c>
-      <c r="EY13" t="n">
-        <v>-20</v>
-      </c>
-      <c r="EZ13" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="FA13" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB13" t="n">
-        <v>1.635788018698804</v>
-      </c>
-      <c r="FC13" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD13" t="n">
-        <v>-26</v>
-      </c>
-      <c r="FE13" t="n">
-        <v>7.593</v>
-      </c>
-      <c r="FF13" t="n">
-        <v>8</v>
-      </c>
-      <c r="FG13" t="n">
-        <v>3.187110460130498</v>
-      </c>
-      <c r="FH13" t="n">
-        <v>9</v>
-      </c>
-      <c r="FI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ13" t="n">
-        <v>4.508</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>1.302648187731393</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>2</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>2</v>
-      </c>
-      <c r="FO13" t="n">
-        <v>3.715</v>
-      </c>
-      <c r="FP13" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ13" t="n">
-        <v>0.417965070460923</v>
-      </c>
-      <c r="FR13" t="n">
-        <v>8</v>
-      </c>
-      <c r="FS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT13" t="n">
-        <v>3.055</v>
-      </c>
-      <c r="FU13" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV13" t="n">
-        <v>0.4345954554155469</v>
-      </c>
-      <c r="FW13" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -6481,7 +3871,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2019_Jun_06_1544</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -6714,196 +4104,6 @@
       <c r="DI14" t="n">
         <v>10</v>
       </c>
-      <c r="DJ14" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK14" t="n">
-        <v>14</v>
-      </c>
-      <c r="DL14" t="n">
-        <v>4.407</v>
-      </c>
-      <c r="DM14" t="n">
-        <v>6</v>
-      </c>
-      <c r="DN14" t="n">
-        <v>8.876254948356745</v>
-      </c>
-      <c r="DO14" t="n">
-        <v>4</v>
-      </c>
-      <c r="DP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>5</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>3.153784187793462</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>5</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>3.941</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>6</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>2.487284582159646</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>3</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>5.426</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>6</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>2.553429934272117</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>8</v>
-      </c>
-      <c r="EE14" t="inlineStr"/>
-      <c r="EF14" t="inlineStr"/>
-      <c r="EG14" t="inlineStr"/>
-      <c r="EH14" t="inlineStr"/>
-      <c r="EI14" t="inlineStr"/>
-      <c r="EJ14" t="n">
-        <v>4</v>
-      </c>
-      <c r="EK14" t="n">
-        <v>7.576</v>
-      </c>
-      <c r="EL14" t="n">
-        <v>5</v>
-      </c>
-      <c r="EM14" t="n">
-        <v>9.827404920187746</v>
-      </c>
-      <c r="EN14" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO14" t="n">
-        <v>-7</v>
-      </c>
-      <c r="EP14" t="n">
-        <v>8.163</v>
-      </c>
-      <c r="EQ14" t="n">
-        <v>4</v>
-      </c>
-      <c r="ER14" t="n">
-        <v>12.66328608450704</v>
-      </c>
-      <c r="ES14" t="n">
-        <v>10</v>
-      </c>
-      <c r="ET14" t="n">
-        <v>-19</v>
-      </c>
-      <c r="EU14" t="n">
-        <v>3.073</v>
-      </c>
-      <c r="EV14" t="n">
-        <v>7</v>
-      </c>
-      <c r="EW14" t="n">
-        <v>11.57897795305189</v>
-      </c>
-      <c r="EX14" t="n">
-        <v>7</v>
-      </c>
-      <c r="EY14" t="n">
-        <v>-15</v>
-      </c>
-      <c r="EZ14" t="n">
-        <v>5.223</v>
-      </c>
-      <c r="FA14" t="n">
-        <v>7</v>
-      </c>
-      <c r="FB14" t="n">
-        <v>3.687914366197219</v>
-      </c>
-      <c r="FC14" t="n">
-        <v>2</v>
-      </c>
-      <c r="FD14" t="n">
-        <v>-10</v>
-      </c>
-      <c r="FE14" t="n">
-        <v>5.017</v>
-      </c>
-      <c r="FF14" t="n">
-        <v>6</v>
-      </c>
-      <c r="FG14" t="n">
-        <v>2.085632600938879</v>
-      </c>
-      <c r="FH14" t="n">
-        <v>6</v>
-      </c>
-      <c r="FI14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="FJ14" t="n">
-        <v>4.207</v>
-      </c>
-      <c r="FK14" t="n">
-        <v>5</v>
-      </c>
-      <c r="FL14" t="n">
-        <v>3.254037934272219</v>
-      </c>
-      <c r="FM14" t="n">
-        <v>9</v>
-      </c>
-      <c r="FN14" t="n">
-        <v>7</v>
-      </c>
-      <c r="FO14" t="n">
-        <v>2.806</v>
-      </c>
-      <c r="FP14" t="n">
-        <v>6</v>
-      </c>
-      <c r="FQ14" t="n">
-        <v>2.186541671361283</v>
-      </c>
-      <c r="FR14" t="n">
-        <v>11</v>
-      </c>
-      <c r="FS14" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT14" t="n">
-        <v>7.536</v>
-      </c>
-      <c r="FU14" t="n">
-        <v>5</v>
-      </c>
-      <c r="FV14" t="n">
-        <v>2.704133708919926</v>
-      </c>
-      <c r="FW14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -6916,7 +4116,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2019_May_27_1029</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7149,71 +4349,6 @@
       <c r="DI15" t="n">
         <v>3</v>
       </c>
-      <c r="DK15" t="inlineStr"/>
-      <c r="DL15" t="inlineStr"/>
-      <c r="DM15" t="inlineStr"/>
-      <c r="DN15" t="inlineStr"/>
-      <c r="DO15" t="inlineStr"/>
-      <c r="DP15" t="inlineStr"/>
-      <c r="DQ15" t="inlineStr"/>
-      <c r="DR15" t="inlineStr"/>
-      <c r="DS15" t="inlineStr"/>
-      <c r="DT15" t="inlineStr"/>
-      <c r="DU15" t="inlineStr"/>
-      <c r="DV15" t="inlineStr"/>
-      <c r="DW15" t="inlineStr"/>
-      <c r="DX15" t="inlineStr"/>
-      <c r="DY15" t="inlineStr"/>
-      <c r="DZ15" t="inlineStr"/>
-      <c r="EA15" t="inlineStr"/>
-      <c r="EB15" t="inlineStr"/>
-      <c r="EC15" t="inlineStr"/>
-      <c r="ED15" t="inlineStr"/>
-      <c r="EE15" t="inlineStr"/>
-      <c r="EF15" t="inlineStr"/>
-      <c r="EG15" t="inlineStr"/>
-      <c r="EH15" t="inlineStr"/>
-      <c r="EI15" t="inlineStr"/>
-      <c r="EJ15" t="inlineStr"/>
-      <c r="EK15" t="inlineStr"/>
-      <c r="EL15" t="inlineStr"/>
-      <c r="EM15" t="inlineStr"/>
-      <c r="EN15" t="inlineStr"/>
-      <c r="EO15" t="inlineStr"/>
-      <c r="EP15" t="inlineStr"/>
-      <c r="EQ15" t="inlineStr"/>
-      <c r="ER15" t="inlineStr"/>
-      <c r="ES15" t="inlineStr"/>
-      <c r="ET15" t="inlineStr"/>
-      <c r="EU15" t="inlineStr"/>
-      <c r="EV15" t="inlineStr"/>
-      <c r="EW15" t="inlineStr"/>
-      <c r="EX15" t="inlineStr"/>
-      <c r="EY15" t="inlineStr"/>
-      <c r="EZ15" t="inlineStr"/>
-      <c r="FA15" t="inlineStr"/>
-      <c r="FB15" t="inlineStr"/>
-      <c r="FC15" t="inlineStr"/>
-      <c r="FD15" t="inlineStr"/>
-      <c r="FE15" t="inlineStr"/>
-      <c r="FF15" t="inlineStr"/>
-      <c r="FG15" t="inlineStr"/>
-      <c r="FH15" t="inlineStr"/>
-      <c r="FI15" t="inlineStr"/>
-      <c r="FJ15" t="inlineStr"/>
-      <c r="FK15" t="inlineStr"/>
-      <c r="FL15" t="inlineStr"/>
-      <c r="FM15" t="inlineStr"/>
-      <c r="FN15" t="inlineStr"/>
-      <c r="FO15" t="inlineStr"/>
-      <c r="FP15" t="inlineStr"/>
-      <c r="FQ15" t="inlineStr"/>
-      <c r="FR15" t="inlineStr"/>
-      <c r="FS15" t="inlineStr"/>
-      <c r="FT15" t="inlineStr"/>
-      <c r="FU15" t="inlineStr"/>
-      <c r="FV15" t="inlineStr"/>
-      <c r="FW15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -7226,7 +4361,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2019_May_22_2016</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7459,196 +4594,6 @@
       <c r="DI16" t="n">
         <v>6</v>
       </c>
-      <c r="DJ16" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK16" t="n">
-        <v>24</v>
-      </c>
-      <c r="DL16" t="n">
-        <v>2.474</v>
-      </c>
-      <c r="DM16" t="n">
-        <v>6</v>
-      </c>
-      <c r="DN16" t="n">
-        <v>5.305961164296605</v>
-      </c>
-      <c r="DO16" t="n">
-        <v>6</v>
-      </c>
-      <c r="DP16" t="n">
-        <v>12</v>
-      </c>
-      <c r="DQ16" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>2.353086798102595</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>40</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>5.241</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>8</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>3.987804845091887</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>4</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>4.575</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>4</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>4.154374910751358</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE16" t="inlineStr"/>
-      <c r="EF16" t="inlineStr"/>
-      <c r="EG16" t="inlineStr"/>
-      <c r="EH16" t="inlineStr"/>
-      <c r="EI16" t="inlineStr"/>
-      <c r="EJ16" t="n">
-        <v>26</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>4.458</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>7</v>
-      </c>
-      <c r="EM16" t="n">
-        <v>3.003549145534635</v>
-      </c>
-      <c r="EN16" t="n">
-        <v>11</v>
-      </c>
-      <c r="EO16" t="n">
-        <v>-41</v>
-      </c>
-      <c r="EP16" t="n">
-        <v>4.157</v>
-      </c>
-      <c r="EQ16" t="n">
-        <v>9</v>
-      </c>
-      <c r="ER16" t="n">
-        <v>3.420767549308948</v>
-      </c>
-      <c r="ES16" t="n">
-        <v>8</v>
-      </c>
-      <c r="ET16" t="n">
-        <v>-50</v>
-      </c>
-      <c r="EU16" t="n">
-        <v>4.472</v>
-      </c>
-      <c r="EV16" t="n">
-        <v>9</v>
-      </c>
-      <c r="EW16" t="n">
-        <v>2.219603530480526</v>
-      </c>
-      <c r="EX16" t="n">
-        <v>7</v>
-      </c>
-      <c r="EY16" t="n">
-        <v>-42</v>
-      </c>
-      <c r="EZ16" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="FA16" t="n">
-        <v>8</v>
-      </c>
-      <c r="FB16" t="n">
-        <v>2.069268131395802</v>
-      </c>
-      <c r="FC16" t="n">
-        <v>9</v>
-      </c>
-      <c r="FD16" t="n">
-        <v>-40</v>
-      </c>
-      <c r="FE16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="FF16" t="n">
-        <v>8</v>
-      </c>
-      <c r="FG16" t="n">
-        <v>2.686978403711691</v>
-      </c>
-      <c r="FH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>6.599</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>3</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>3.653636206523515</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>5</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO16" t="n">
-        <v>2.198</v>
-      </c>
-      <c r="FP16" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ16" t="n">
-        <v>3.203882666653953</v>
-      </c>
-      <c r="FR16" t="n">
-        <v>10</v>
-      </c>
-      <c r="FS16" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT16" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="FU16" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV16" t="n">
-        <v>4.62199496710673</v>
-      </c>
-      <c r="FW16" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -7661,7 +4606,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2019_May_19_1613</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7894,196 +4839,6 @@
       <c r="DI17" t="n">
         <v>0</v>
       </c>
-      <c r="DJ17" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK17" t="n">
-        <v>3</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>6.418</v>
-      </c>
-      <c r="DM17" t="n">
-        <v>2</v>
-      </c>
-      <c r="DN17" t="n">
-        <v>2.06965032860171</v>
-      </c>
-      <c r="DO17" t="n">
-        <v>2</v>
-      </c>
-      <c r="DP17" t="n">
-        <v>12</v>
-      </c>
-      <c r="DQ17" t="n">
-        <v>6.359</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>2</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>1.018469859147444</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>10</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>11</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>3.253781032864936</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>5</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>4.492</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>2</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>2.186133633775171</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>3</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>2</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>15.128</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>2</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>1.852485408482607</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>4</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM17" t="n">
-        <v>1.652199962467421</v>
-      </c>
-      <c r="EN17" t="n">
-        <v>6</v>
-      </c>
-      <c r="EO17" t="n">
-        <v>-21</v>
-      </c>
-      <c r="EP17" t="n">
-        <v>5.441</v>
-      </c>
-      <c r="EQ17" t="n">
-        <v>5</v>
-      </c>
-      <c r="ER17" t="n">
-        <v>4.52216638502432</v>
-      </c>
-      <c r="ES17" t="n">
-        <v>8</v>
-      </c>
-      <c r="ET17" t="n">
-        <v>-12</v>
-      </c>
-      <c r="EU17" t="n">
-        <v>9.305</v>
-      </c>
-      <c r="EV17" t="n">
-        <v>2</v>
-      </c>
-      <c r="EW17" t="n">
-        <v>3.237258215958718</v>
-      </c>
-      <c r="EX17" t="n">
-        <v>11</v>
-      </c>
-      <c r="EY17" t="n">
-        <v>-26</v>
-      </c>
-      <c r="EZ17" t="n">
-        <v>7.054</v>
-      </c>
-      <c r="FA17" t="n">
-        <v>4</v>
-      </c>
-      <c r="FB17" t="n">
-        <v>2.753782685496844</v>
-      </c>
-      <c r="FC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD17" t="inlineStr"/>
-      <c r="FE17" t="inlineStr"/>
-      <c r="FF17" t="inlineStr"/>
-      <c r="FG17" t="inlineStr"/>
-      <c r="FH17" t="inlineStr"/>
-      <c r="FI17" t="n">
-        <v>-4</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>7.527</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>2</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>2.536730441323016</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO17" t="n">
-        <v>5.786</v>
-      </c>
-      <c r="FP17" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ17" t="n">
-        <v>0.8347808450926095</v>
-      </c>
-      <c r="FR17" t="n">
-        <v>7</v>
-      </c>
-      <c r="FS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT17" t="n">
-        <v>6.135</v>
-      </c>
-      <c r="FU17" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV17" t="n">
-        <v>1.635661220643669</v>
-      </c>
-      <c r="FW17" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -8096,7 +4851,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2019_Jun_05_1416</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -8329,196 +5084,6 @@
       <c r="DI18" t="n">
         <v>8</v>
       </c>
-      <c r="DJ18" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>6.793</v>
-      </c>
-      <c r="DM18" t="n">
-        <v>8</v>
-      </c>
-      <c r="DN18" t="n">
-        <v>1.769263173709078</v>
-      </c>
-      <c r="DO18" t="n">
-        <v>5</v>
-      </c>
-      <c r="DP18" t="n">
-        <v>20</v>
-      </c>
-      <c r="DQ18" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>0.5343534272296893</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>10</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>-26</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>2.404</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>7</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>2.670210403755846</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>3</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="EA18" t="n">
-        <v>3.357</v>
-      </c>
-      <c r="EB18" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC18" t="n">
-        <v>1.335593164319107</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>9</v>
-      </c>
-      <c r="EE18" t="inlineStr"/>
-      <c r="EF18" t="inlineStr"/>
-      <c r="EG18" t="inlineStr"/>
-      <c r="EH18" t="inlineStr"/>
-      <c r="EI18" t="inlineStr"/>
-      <c r="EJ18" t="n">
-        <v>20</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>6.894</v>
-      </c>
-      <c r="EL18" t="n">
-        <v>8</v>
-      </c>
-      <c r="EM18" t="n">
-        <v>1.835537126759846</v>
-      </c>
-      <c r="EN18" t="n">
-        <v>7</v>
-      </c>
-      <c r="EO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP18" t="n">
-        <v>13.882</v>
-      </c>
-      <c r="EQ18" t="n">
-        <v>6</v>
-      </c>
-      <c r="ER18" t="n">
-        <v>1.819230046948178</v>
-      </c>
-      <c r="ES18" t="n">
-        <v>11</v>
-      </c>
-      <c r="ET18" t="n">
-        <v>-20</v>
-      </c>
-      <c r="EU18" t="n">
-        <v>4.657</v>
-      </c>
-      <c r="EV18" t="n">
-        <v>7</v>
-      </c>
-      <c r="EW18" t="n">
-        <v>3.48766978403728</v>
-      </c>
-      <c r="EX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY18" t="n">
-        <v>-20</v>
-      </c>
-      <c r="EZ18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="FA18" t="n">
-        <v>7</v>
-      </c>
-      <c r="FB18" t="n">
-        <v>3.204090591549175</v>
-      </c>
-      <c r="FC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD18" t="n">
-        <v>-23</v>
-      </c>
-      <c r="FE18" t="n">
-        <v>5.142</v>
-      </c>
-      <c r="FF18" t="n">
-        <v>6</v>
-      </c>
-      <c r="FG18" t="n">
-        <v>2.80365761502344</v>
-      </c>
-      <c r="FH18" t="n">
-        <v>2</v>
-      </c>
-      <c r="FI18" t="n">
-        <v>-26</v>
-      </c>
-      <c r="FJ18" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="FK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL18" t="n">
-        <v>1.468830046948824</v>
-      </c>
-      <c r="FM18" t="n">
-        <v>4</v>
-      </c>
-      <c r="FN18" t="n">
-        <v>15</v>
-      </c>
-      <c r="FO18" t="n">
-        <v>3.689</v>
-      </c>
-      <c r="FP18" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ18" t="n">
-        <v>1.168571492958108</v>
-      </c>
-      <c r="FR18" t="n">
-        <v>8</v>
-      </c>
-      <c r="FS18" t="n">
-        <v>5</v>
-      </c>
-      <c r="FT18" t="n">
-        <v>5.258</v>
-      </c>
-      <c r="FU18" t="n">
-        <v>2</v>
-      </c>
-      <c r="FV18" t="n">
-        <v>2.052808413145613</v>
-      </c>
-      <c r="FW18" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -8531,7 +5096,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2019_May_26_1623</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -8764,196 +5329,6 @@
       <c r="DI19" t="n">
         <v>7</v>
       </c>
-      <c r="DJ19" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK19" t="n">
-        <v>25</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>5.992</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>6</v>
-      </c>
-      <c r="DN19" t="n">
-        <v>2.436142272301367</v>
-      </c>
-      <c r="DO19" t="n">
-        <v>2</v>
-      </c>
-      <c r="DP19" t="n">
-        <v>20</v>
-      </c>
-      <c r="DQ19" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>2.67013017840145</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>6</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>27</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>4.585</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>4</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>3.870460995305621</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>11</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>4.592</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>2</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>1.919472075118392</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>4</v>
-      </c>
-      <c r="EE19" t="inlineStr"/>
-      <c r="EF19" t="inlineStr"/>
-      <c r="EG19" t="inlineStr"/>
-      <c r="EH19" t="inlineStr"/>
-      <c r="EI19" t="inlineStr"/>
-      <c r="EJ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>3.107</v>
-      </c>
-      <c r="EL19" t="n">
-        <v>4</v>
-      </c>
-      <c r="EM19" t="n">
-        <v>2.068986291080364</v>
-      </c>
-      <c r="EN19" t="n">
-        <v>7</v>
-      </c>
-      <c r="EO19" t="n">
-        <v>-25</v>
-      </c>
-      <c r="EP19" t="n">
-        <v>3.648</v>
-      </c>
-      <c r="EQ19" t="n">
-        <v>7</v>
-      </c>
-      <c r="ER19" t="n">
-        <v>3.104021633804223</v>
-      </c>
-      <c r="ES19" t="n">
-        <v>8</v>
-      </c>
-      <c r="ET19" t="n">
-        <v>-18</v>
-      </c>
-      <c r="EU19" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="EV19" t="n">
-        <v>6</v>
-      </c>
-      <c r="EW19" t="n">
-        <v>1.935881314555445</v>
-      </c>
-      <c r="EX19" t="n">
-        <v>9</v>
-      </c>
-      <c r="EY19" t="n">
-        <v>-40</v>
-      </c>
-      <c r="EZ19" t="n">
-        <v>4.375</v>
-      </c>
-      <c r="FA19" t="n">
-        <v>8</v>
-      </c>
-      <c r="FB19" t="n">
-        <v>3.354184713618451</v>
-      </c>
-      <c r="FC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD19" t="n">
-        <v>-16</v>
-      </c>
-      <c r="FE19" t="n">
-        <v>7.111</v>
-      </c>
-      <c r="FF19" t="n">
-        <v>8</v>
-      </c>
-      <c r="FG19" t="n">
-        <v>1.986061521125521</v>
-      </c>
-      <c r="FH19" t="n">
-        <v>5</v>
-      </c>
-      <c r="FI19" t="n">
-        <v>-15</v>
-      </c>
-      <c r="FJ19" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="FK19" t="n">
-        <v>4</v>
-      </c>
-      <c r="FL19" t="n">
-        <v>2.403135098589701</v>
-      </c>
-      <c r="FM19" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN19" t="n">
-        <v>40</v>
-      </c>
-      <c r="FO19" t="n">
-        <v>6.951</v>
-      </c>
-      <c r="FP19" t="n">
-        <v>4</v>
-      </c>
-      <c r="FQ19" t="n">
-        <v>2.837009126760677</v>
-      </c>
-      <c r="FR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS19" t="n">
-        <v>12</v>
-      </c>
-      <c r="FT19" t="n">
-        <v>8.696</v>
-      </c>
-      <c r="FU19" t="n">
-        <v>2</v>
-      </c>
-      <c r="FV19" t="n">
-        <v>4.65545584976644</v>
-      </c>
-      <c r="FW19" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -8966,7 +5341,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2019_May_31_1103</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -9199,196 +5574,6 @@
       <c r="DI20" t="n">
         <v>6</v>
       </c>
-      <c r="DJ20" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>2.965</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>4</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>1.785723192488149</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>9</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>4.048</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>4</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>3.671083568075119</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>22</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>8</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>1.018164281690133</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>3</v>
-      </c>
-      <c r="DZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA20" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="EB20" t="n">
-        <v>5</v>
-      </c>
-      <c r="EC20" t="n">
-        <v>2.453167474178827</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>8</v>
-      </c>
-      <c r="EE20" t="inlineStr"/>
-      <c r="EF20" t="inlineStr"/>
-      <c r="EG20" t="inlineStr"/>
-      <c r="EH20" t="inlineStr"/>
-      <c r="EI20" t="inlineStr"/>
-      <c r="EJ20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>1.264</v>
-      </c>
-      <c r="EL20" t="n">
-        <v>4</v>
-      </c>
-      <c r="EM20" t="n">
-        <v>1.434510122066058</v>
-      </c>
-      <c r="EN20" t="n">
-        <v>10</v>
-      </c>
-      <c r="EO20" t="n">
-        <v>-23</v>
-      </c>
-      <c r="EP20" t="n">
-        <v>8.462</v>
-      </c>
-      <c r="EQ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="ER20" t="n">
-        <v>2.486621746479159</v>
-      </c>
-      <c r="ES20" t="n">
-        <v>2</v>
-      </c>
-      <c r="ET20" t="n">
-        <v>-10</v>
-      </c>
-      <c r="EU20" t="n">
-        <v>3.558</v>
-      </c>
-      <c r="EV20" t="n">
-        <v>7</v>
-      </c>
-      <c r="EW20" t="n">
-        <v>1.702488037558851</v>
-      </c>
-      <c r="EX20" t="n">
-        <v>11</v>
-      </c>
-      <c r="EY20" t="n">
-        <v>-39</v>
-      </c>
-      <c r="EZ20" t="n">
-        <v>3.922</v>
-      </c>
-      <c r="FA20" t="n">
-        <v>8</v>
-      </c>
-      <c r="FB20" t="n">
-        <v>2.603477032863793</v>
-      </c>
-      <c r="FC20" t="n">
-        <v>5</v>
-      </c>
-      <c r="FD20" t="n">
-        <v>-28</v>
-      </c>
-      <c r="FE20" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="FF20" t="n">
-        <v>7</v>
-      </c>
-      <c r="FG20" t="n">
-        <v>2.186266441314274</v>
-      </c>
-      <c r="FH20" t="n">
-        <v>6</v>
-      </c>
-      <c r="FI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ20" t="n">
-        <v>2.971</v>
-      </c>
-      <c r="FK20" t="n">
-        <v>5</v>
-      </c>
-      <c r="FL20" t="n">
-        <v>2.086222723004539</v>
-      </c>
-      <c r="FM20" t="n">
-        <v>4</v>
-      </c>
-      <c r="FN20" t="n">
-        <v>3</v>
-      </c>
-      <c r="FO20" t="n">
-        <v>3.339</v>
-      </c>
-      <c r="FP20" t="n">
-        <v>6</v>
-      </c>
-      <c r="FQ20" t="n">
-        <v>0.4845382910798435</v>
-      </c>
-      <c r="FR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS20" t="n">
-        <v>-10</v>
-      </c>
-      <c r="FT20" t="n">
-        <v>2.689</v>
-      </c>
-      <c r="FU20" t="n">
-        <v>4</v>
-      </c>
-      <c r="FV20" t="n">
-        <v>2.453201427229942</v>
-      </c>
-      <c r="FW20" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -9401,7 +5586,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2019_May_22_1823</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -9634,196 +5819,6 @@
       <c r="DI21" t="n">
         <v>2</v>
       </c>
-      <c r="DJ21" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK21" t="n">
-        <v>10</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>5.786</v>
-      </c>
-      <c r="DM21" t="n">
-        <v>2</v>
-      </c>
-      <c r="DN21" t="n">
-        <v>3.654424638487399</v>
-      </c>
-      <c r="DO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP21" t="n">
-        <v>6</v>
-      </c>
-      <c r="DQ21" t="n">
-        <v>6.195</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>2.303045708918944</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>9</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>20</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="DW21" t="n">
-        <v>6</v>
-      </c>
-      <c r="DX21" t="n">
-        <v>3.971345427213237</v>
-      </c>
-      <c r="DY21" t="n">
-        <v>5</v>
-      </c>
-      <c r="DZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA21" t="n">
-        <v>4.092</v>
-      </c>
-      <c r="EB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC21" t="n">
-        <v>6.09008165250998</v>
-      </c>
-      <c r="ED21" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE21" t="inlineStr"/>
-      <c r="EF21" t="inlineStr"/>
-      <c r="EG21" t="inlineStr"/>
-      <c r="EH21" t="inlineStr"/>
-      <c r="EI21" t="inlineStr"/>
-      <c r="EJ21" t="n">
-        <v>9</v>
-      </c>
-      <c r="EK21" t="n">
-        <v>3.391</v>
-      </c>
-      <c r="EL21" t="n">
-        <v>5</v>
-      </c>
-      <c r="EM21" t="n">
-        <v>1.435155530576594</v>
-      </c>
-      <c r="EN21" t="n">
-        <v>7</v>
-      </c>
-      <c r="EO21" t="n">
-        <v>-26</v>
-      </c>
-      <c r="EP21" t="n">
-        <v>4.258</v>
-      </c>
-      <c r="EQ21" t="n">
-        <v>8</v>
-      </c>
-      <c r="ER21" t="n">
-        <v>3.30395282630343</v>
-      </c>
-      <c r="ES21" t="n">
-        <v>10</v>
-      </c>
-      <c r="ET21" t="n">
-        <v>-14</v>
-      </c>
-      <c r="EU21" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="EV21" t="n">
-        <v>7</v>
-      </c>
-      <c r="EW21" t="n">
-        <v>8.058873990550637</v>
-      </c>
-      <c r="EX21" t="n">
-        <v>2</v>
-      </c>
-      <c r="EY21" t="n">
-        <v>-21</v>
-      </c>
-      <c r="EZ21" t="n">
-        <v>6.527</v>
-      </c>
-      <c r="FA21" t="n">
-        <v>6</v>
-      </c>
-      <c r="FB21" t="n">
-        <v>5.088905014097691</v>
-      </c>
-      <c r="FC21" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD21" t="n">
-        <v>-13</v>
-      </c>
-      <c r="FE21" t="n">
-        <v>2.975</v>
-      </c>
-      <c r="FF21" t="n">
-        <v>7</v>
-      </c>
-      <c r="FG21" t="n">
-        <v>2.519865990499966</v>
-      </c>
-      <c r="FH21" t="n">
-        <v>8</v>
-      </c>
-      <c r="FI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ21" t="n">
-        <v>5.572</v>
-      </c>
-      <c r="FK21" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL21" t="n">
-        <v>5.605470347451046</v>
-      </c>
-      <c r="FM21" t="n">
-        <v>6</v>
-      </c>
-      <c r="FN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO21" t="n">
-        <v>3.692</v>
-      </c>
-      <c r="FP21" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ21" t="n">
-        <v>2.786315417848527</v>
-      </c>
-      <c r="FR21" t="n">
-        <v>4</v>
-      </c>
-      <c r="FS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT21" t="n">
-        <v>3.924</v>
-      </c>
-      <c r="FU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV21" t="n">
-        <v>2.303065539919771</v>
-      </c>
-      <c r="FW21" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -9836,7 +5831,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2019_May_19_1513</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -10069,196 +6064,6 @@
       <c r="DI22" t="n">
         <v>1</v>
       </c>
-      <c r="DJ22" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>6</v>
-      </c>
-      <c r="DN22" t="n">
-        <v>1.985993314534426</v>
-      </c>
-      <c r="DO22" t="n">
-        <v>9</v>
-      </c>
-      <c r="DP22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>4.701</v>
-      </c>
-      <c r="DR22" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS22" t="n">
-        <v>3.604608300491236</v>
-      </c>
-      <c r="DT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV22" t="n">
-        <v>3.624</v>
-      </c>
-      <c r="DW22" t="n">
-        <v>5</v>
-      </c>
-      <c r="DX22" t="n">
-        <v>1.301744075084571</v>
-      </c>
-      <c r="DY22" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="EA22" t="n">
-        <v>3.291</v>
-      </c>
-      <c r="EB22" t="n">
-        <v>6</v>
-      </c>
-      <c r="EC22" t="n">
-        <v>2.219516694836784</v>
-      </c>
-      <c r="ED22" t="n">
-        <v>4</v>
-      </c>
-      <c r="EE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF22" t="n">
-        <v>2.508</v>
-      </c>
-      <c r="EG22" t="n">
-        <v>5</v>
-      </c>
-      <c r="EH22" t="n">
-        <v>1.018456037563737</v>
-      </c>
-      <c r="EI22" t="n">
-        <v>5</v>
-      </c>
-      <c r="EJ22" t="n">
-        <v>-7</v>
-      </c>
-      <c r="EK22" t="n">
-        <v>5.243</v>
-      </c>
-      <c r="EL22" t="n">
-        <v>7</v>
-      </c>
-      <c r="EM22" t="n">
-        <v>2.936806760553736</v>
-      </c>
-      <c r="EN22" t="n">
-        <v>8</v>
-      </c>
-      <c r="EO22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="EP22" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="EQ22" t="n">
-        <v>5</v>
-      </c>
-      <c r="ER22" t="n">
-        <v>2.719994591549039</v>
-      </c>
-      <c r="ES22" t="n">
-        <v>7</v>
-      </c>
-      <c r="ET22" t="n">
-        <v>-9</v>
-      </c>
-      <c r="EU22" t="n">
-        <v>4.893</v>
-      </c>
-      <c r="EV22" t="n">
-        <v>7</v>
-      </c>
-      <c r="EW22" t="n">
-        <v>1.869112187821884</v>
-      </c>
-      <c r="EX22" t="n">
-        <v>3</v>
-      </c>
-      <c r="EY22" t="n">
-        <v>-9</v>
-      </c>
-      <c r="EZ22" t="n">
-        <v>7.178</v>
-      </c>
-      <c r="FA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="FB22" t="n">
-        <v>1.802693107980303</v>
-      </c>
-      <c r="FC22" t="n">
-        <v>6</v>
-      </c>
-      <c r="FD22" t="inlineStr"/>
-      <c r="FE22" t="inlineStr"/>
-      <c r="FF22" t="inlineStr"/>
-      <c r="FG22" t="inlineStr"/>
-      <c r="FH22" t="inlineStr"/>
-      <c r="FI22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="FJ22" t="n">
-        <v>2.941</v>
-      </c>
-      <c r="FK22" t="n">
-        <v>6</v>
-      </c>
-      <c r="FL22" t="n">
-        <v>3.353783286351245</v>
-      </c>
-      <c r="FM22" t="n">
-        <v>10</v>
-      </c>
-      <c r="FN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO22" t="n">
-        <v>4.091</v>
-      </c>
-      <c r="FP22" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ22" t="n">
-        <v>0.451125183084514</v>
-      </c>
-      <c r="FR22" t="n">
-        <v>11</v>
-      </c>
-      <c r="FS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT22" t="n">
-        <v>2.957</v>
-      </c>
-      <c r="FU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV22" t="n">
-        <v>1.63562726759119</v>
-      </c>
-      <c r="FW22" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -10271,7 +6076,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2019_May_22_1918</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -10504,196 +6309,6 @@
       <c r="DI23" t="n">
         <v>11</v>
       </c>
-      <c r="DJ23" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK23" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL23" t="n">
-        <v>5.216</v>
-      </c>
-      <c r="DM23" t="n">
-        <v>6</v>
-      </c>
-      <c r="DN23" t="n">
-        <v>2.920689877937548</v>
-      </c>
-      <c r="DO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP23" t="n">
-        <v>10</v>
-      </c>
-      <c r="DQ23" t="n">
-        <v>4.123</v>
-      </c>
-      <c r="DR23" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS23" t="n">
-        <v>2.019394103204831</v>
-      </c>
-      <c r="DT23" t="n">
-        <v>11</v>
-      </c>
-      <c r="DU23" t="n">
-        <v>13</v>
-      </c>
-      <c r="DV23" t="n">
-        <v>6.801</v>
-      </c>
-      <c r="DW23" t="n">
-        <v>6</v>
-      </c>
-      <c r="DX23" t="n">
-        <v>2.086183962412179</v>
-      </c>
-      <c r="DY23" t="n">
-        <v>5</v>
-      </c>
-      <c r="DZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA23" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="EB23" t="n">
-        <v>5</v>
-      </c>
-      <c r="EC23" t="n">
-        <v>1.852217089151964</v>
-      </c>
-      <c r="ED23" t="n">
-        <v>9</v>
-      </c>
-      <c r="EE23" t="inlineStr"/>
-      <c r="EF23" t="inlineStr"/>
-      <c r="EG23" t="inlineStr"/>
-      <c r="EH23" t="inlineStr"/>
-      <c r="EI23" t="inlineStr"/>
-      <c r="EJ23" t="n">
-        <v>10</v>
-      </c>
-      <c r="EK23" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="EL23" t="n">
-        <v>6</v>
-      </c>
-      <c r="EM23" t="n">
-        <v>4.622025314485654</v>
-      </c>
-      <c r="EN23" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO23" t="n">
-        <v>-10</v>
-      </c>
-      <c r="EP23" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="EQ23" t="n">
-        <v>6</v>
-      </c>
-      <c r="ER23" t="n">
-        <v>14.5985295024002</v>
-      </c>
-      <c r="ES23" t="n">
-        <v>2</v>
-      </c>
-      <c r="ET23" t="n">
-        <v>-5</v>
-      </c>
-      <c r="EU23" t="n">
-        <v>4.182</v>
-      </c>
-      <c r="EV23" t="n">
-        <v>4</v>
-      </c>
-      <c r="EW23" t="n">
-        <v>2.469863962498493</v>
-      </c>
-      <c r="EX23" t="n">
-        <v>4</v>
-      </c>
-      <c r="EY23" t="n">
-        <v>-5</v>
-      </c>
-      <c r="EZ23" t="n">
-        <v>3.715</v>
-      </c>
-      <c r="FA23" t="n">
-        <v>6</v>
-      </c>
-      <c r="FB23" t="n">
-        <v>2.519852770026773</v>
-      </c>
-      <c r="FC23" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD23" t="n">
-        <v>-15</v>
-      </c>
-      <c r="FE23" t="n">
-        <v>7.304</v>
-      </c>
-      <c r="FF23" t="n">
-        <v>7</v>
-      </c>
-      <c r="FG23" t="n">
-        <v>3.320728638442233</v>
-      </c>
-      <c r="FH23" t="n">
-        <v>10</v>
-      </c>
-      <c r="FI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ23" t="n">
-        <v>1.164</v>
-      </c>
-      <c r="FK23" t="n">
-        <v>5</v>
-      </c>
-      <c r="FL23" t="n">
-        <v>1.952628281782381</v>
-      </c>
-      <c r="FM23" t="n">
-        <v>8</v>
-      </c>
-      <c r="FN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO23" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="FP23" t="n">
-        <v>5</v>
-      </c>
-      <c r="FQ23" t="n">
-        <v>1.485622685402632</v>
-      </c>
-      <c r="FR23" t="n">
-        <v>7</v>
-      </c>
-      <c r="FS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT23" t="n">
-        <v>2.812</v>
-      </c>
-      <c r="FU23" t="n">
-        <v>5</v>
-      </c>
-      <c r="FV23" t="n">
-        <v>1.485619981191121</v>
-      </c>
-      <c r="FW23" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -10706,7 +6321,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2019_Jun_04_1015</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -10939,196 +6554,6 @@
       <c r="DI24" t="n">
         <v>6</v>
       </c>
-      <c r="DJ24" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK24" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL24" t="n">
-        <v>2.472</v>
-      </c>
-      <c r="DM24" t="n">
-        <v>3</v>
-      </c>
-      <c r="DN24" t="n">
-        <v>2.253040676056116</v>
-      </c>
-      <c r="DO24" t="n">
-        <v>4</v>
-      </c>
-      <c r="DP24" t="n">
-        <v>45</v>
-      </c>
-      <c r="DQ24" t="n">
-        <v>2.982</v>
-      </c>
-      <c r="DR24" t="n">
-        <v>8</v>
-      </c>
-      <c r="DS24" t="n">
-        <v>2.052264863849814</v>
-      </c>
-      <c r="DT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU24" t="n">
-        <v>29</v>
-      </c>
-      <c r="DV24" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="DW24" t="n">
-        <v>6</v>
-      </c>
-      <c r="DX24" t="n">
-        <v>2.820263361501929</v>
-      </c>
-      <c r="DY24" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ24" t="n">
-        <v>-10</v>
-      </c>
-      <c r="EA24" t="n">
-        <v>4.041</v>
-      </c>
-      <c r="EB24" t="n">
-        <v>3</v>
-      </c>
-      <c r="EC24" t="n">
-        <v>2.419821070422586</v>
-      </c>
-      <c r="ED24" t="n">
-        <v>6</v>
-      </c>
-      <c r="EE24" t="inlineStr"/>
-      <c r="EF24" t="inlineStr"/>
-      <c r="EG24" t="inlineStr"/>
-      <c r="EH24" t="inlineStr"/>
-      <c r="EI24" t="inlineStr"/>
-      <c r="EJ24" t="n">
-        <v>20</v>
-      </c>
-      <c r="EK24" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="EL24" t="n">
-        <v>6</v>
-      </c>
-      <c r="EM24" t="n">
-        <v>2.019522704225892</v>
-      </c>
-      <c r="EN24" t="n">
-        <v>7</v>
-      </c>
-      <c r="EO24" t="n">
-        <v>-37</v>
-      </c>
-      <c r="EP24" t="n">
-        <v>2.941</v>
-      </c>
-      <c r="EQ24" t="n">
-        <v>7</v>
-      </c>
-      <c r="ER24" t="n">
-        <v>2.036051830986253</v>
-      </c>
-      <c r="ES24" t="n">
-        <v>9</v>
-      </c>
-      <c r="ET24" t="n">
-        <v>-37</v>
-      </c>
-      <c r="EU24" t="n">
-        <v>5.176</v>
-      </c>
-      <c r="EV24" t="n">
-        <v>7</v>
-      </c>
-      <c r="EW24" t="n">
-        <v>2.203013408450715</v>
-      </c>
-      <c r="EX24" t="n">
-        <v>11</v>
-      </c>
-      <c r="EY24" t="n">
-        <v>-9</v>
-      </c>
-      <c r="EZ24" t="n">
-        <v>10.633</v>
-      </c>
-      <c r="FA24" t="n">
-        <v>4</v>
-      </c>
-      <c r="FB24" t="n">
-        <v>2.353146291079611</v>
-      </c>
-      <c r="FC24" t="n">
-        <v>5</v>
-      </c>
-      <c r="FD24" t="n">
-        <v>-28</v>
-      </c>
-      <c r="FE24" t="n">
-        <v>4.624</v>
-      </c>
-      <c r="FF24" t="n">
-        <v>6</v>
-      </c>
-      <c r="FG24" t="n">
-        <v>2.319618403756067</v>
-      </c>
-      <c r="FH24" t="n">
-        <v>10</v>
-      </c>
-      <c r="FI24" t="n">
-        <v>2</v>
-      </c>
-      <c r="FJ24" t="n">
-        <v>5.659</v>
-      </c>
-      <c r="FK24" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL24" t="n">
-        <v>2.169542910797645</v>
-      </c>
-      <c r="FM24" t="n">
-        <v>8</v>
-      </c>
-      <c r="FN24" t="n">
-        <v>3</v>
-      </c>
-      <c r="FO24" t="n">
-        <v>2.973</v>
-      </c>
-      <c r="FP24" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ24" t="n">
-        <v>2.152813070421871</v>
-      </c>
-      <c r="FR24" t="n">
-        <v>3</v>
-      </c>
-      <c r="FS24" t="n">
-        <v>-6</v>
-      </c>
-      <c r="FT24" t="n">
-        <v>2.707</v>
-      </c>
-      <c r="FU24" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV24" t="n">
-        <v>1.752501784038031</v>
-      </c>
-      <c r="FW24" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -11141,7 +6566,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2019_Jun_04_0915</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -11374,196 +6799,6 @@
       <c r="DI25" t="n">
         <v>5</v>
       </c>
-      <c r="DJ25" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK25" t="n">
-        <v>30</v>
-      </c>
-      <c r="DL25" t="n">
-        <v>4.867</v>
-      </c>
-      <c r="DM25" t="n">
-        <v>7</v>
-      </c>
-      <c r="DN25" t="n">
-        <v>1.83547553051676</v>
-      </c>
-      <c r="DO25" t="n">
-        <v>7</v>
-      </c>
-      <c r="DP25" t="n">
-        <v>35</v>
-      </c>
-      <c r="DQ25" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="DR25" t="n">
-        <v>8</v>
-      </c>
-      <c r="DS25" t="n">
-        <v>2.236438234741854</v>
-      </c>
-      <c r="DT25" t="n">
-        <v>8</v>
-      </c>
-      <c r="DU25" t="n">
-        <v>15</v>
-      </c>
-      <c r="DV25" t="n">
-        <v>4.075</v>
-      </c>
-      <c r="DW25" t="n">
-        <v>5</v>
-      </c>
-      <c r="DX25" t="n">
-        <v>1.452315643192833</v>
-      </c>
-      <c r="DY25" t="n">
-        <v>2</v>
-      </c>
-      <c r="DZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA25" t="n">
-        <v>1.742</v>
-      </c>
-      <c r="EB25" t="n">
-        <v>4</v>
-      </c>
-      <c r="EC25" t="n">
-        <v>1.78542662910786</v>
-      </c>
-      <c r="ED25" t="n">
-        <v>9</v>
-      </c>
-      <c r="EE25" t="inlineStr"/>
-      <c r="EF25" t="inlineStr"/>
-      <c r="EG25" t="inlineStr"/>
-      <c r="EH25" t="inlineStr"/>
-      <c r="EI25" t="inlineStr"/>
-      <c r="EJ25" t="n">
-        <v>20</v>
-      </c>
-      <c r="EK25" t="n">
-        <v>3.441</v>
-      </c>
-      <c r="EL25" t="n">
-        <v>6</v>
-      </c>
-      <c r="EM25" t="n">
-        <v>3.40407376525809</v>
-      </c>
-      <c r="EN25" t="n">
-        <v>4</v>
-      </c>
-      <c r="EO25" t="n">
-        <v>-30</v>
-      </c>
-      <c r="EP25" t="n">
-        <v>7.143</v>
-      </c>
-      <c r="EQ25" t="n">
-        <v>8</v>
-      </c>
-      <c r="ER25" t="n">
-        <v>2.419867042253372</v>
-      </c>
-      <c r="ES25" t="n">
-        <v>5</v>
-      </c>
-      <c r="ET25" t="n">
-        <v>-12</v>
-      </c>
-      <c r="EU25" t="n">
-        <v>4.973</v>
-      </c>
-      <c r="EV25" t="n">
-        <v>6</v>
-      </c>
-      <c r="EW25" t="n">
-        <v>2.486604018779417</v>
-      </c>
-      <c r="EX25" t="n">
-        <v>6</v>
-      </c>
-      <c r="EY25" t="n">
-        <v>-40</v>
-      </c>
-      <c r="EZ25" t="n">
-        <v>8.042</v>
-      </c>
-      <c r="FA25" t="n">
-        <v>8</v>
-      </c>
-      <c r="FB25" t="n">
-        <v>1.853016638497593</v>
-      </c>
-      <c r="FC25" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD25" t="n">
-        <v>-23</v>
-      </c>
-      <c r="FE25" t="n">
-        <v>3.566</v>
-      </c>
-      <c r="FF25" t="n">
-        <v>7</v>
-      </c>
-      <c r="FG25" t="n">
-        <v>1.936550460093713</v>
-      </c>
-      <c r="FH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ25" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="FK25" t="n">
-        <v>3</v>
-      </c>
-      <c r="FL25" t="n">
-        <v>1.969252056338064</v>
-      </c>
-      <c r="FM25" t="n">
-        <v>10</v>
-      </c>
-      <c r="FN25" t="n">
-        <v>10</v>
-      </c>
-      <c r="FO25" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="FP25" t="n">
-        <v>6</v>
-      </c>
-      <c r="FQ25" t="n">
-        <v>2.403075605634058</v>
-      </c>
-      <c r="FR25" t="n">
-        <v>11</v>
-      </c>
-      <c r="FS25" t="n">
-        <v>11</v>
-      </c>
-      <c r="FT25" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="FU25" t="n">
-        <v>6</v>
-      </c>
-      <c r="FV25" t="n">
-        <v>4.305228619718491</v>
-      </c>
-      <c r="FW25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -11576,7 +6811,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2019_May_26_1211</t>
+          <t>MAER M R1 P1 v1</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -11809,210 +7044,10 @@
       <c r="DI26" t="n">
         <v>5</v>
       </c>
-      <c r="DJ26" t="inlineStr">
-        <is>
-          <t>MAER M R2 P2</t>
-        </is>
-      </c>
-      <c r="DK26" t="n">
-        <v>11</v>
-      </c>
-      <c r="DL26" t="n">
-        <v>3.458</v>
-      </c>
-      <c r="DM26" t="n">
-        <v>4</v>
-      </c>
-      <c r="DN26" t="n">
-        <v>1.635733333333064</v>
-      </c>
-      <c r="DO26" t="n">
-        <v>9</v>
-      </c>
-      <c r="DP26" t="n">
-        <v>32</v>
-      </c>
-      <c r="DQ26" t="n">
-        <v>2.454</v>
-      </c>
-      <c r="DR26" t="n">
-        <v>4</v>
-      </c>
-      <c r="DS26" t="n">
-        <v>1.869396732394307</v>
-      </c>
-      <c r="DT26" t="n">
-        <v>11</v>
-      </c>
-      <c r="DU26" t="n">
-        <v>15</v>
-      </c>
-      <c r="DV26" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="DW26" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX26" t="n">
-        <v>1.635829483568159</v>
-      </c>
-      <c r="DY26" t="n">
-        <v>8</v>
-      </c>
-      <c r="DZ26" t="n">
-        <v>2</v>
-      </c>
-      <c r="EA26" t="n">
-        <v>3.842</v>
-      </c>
-      <c r="EB26" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC26" t="n">
-        <v>2.419890779342495</v>
-      </c>
-      <c r="ED26" t="n">
-        <v>7</v>
-      </c>
-      <c r="EE26" t="inlineStr"/>
-      <c r="EF26" t="inlineStr"/>
-      <c r="EG26" t="inlineStr"/>
-      <c r="EH26" t="inlineStr"/>
-      <c r="EI26" t="inlineStr"/>
-      <c r="EJ26" t="n">
-        <v>23</v>
-      </c>
-      <c r="EK26" t="n">
-        <v>3.122</v>
-      </c>
-      <c r="EL26" t="n">
-        <v>5</v>
-      </c>
-      <c r="EM26" t="n">
-        <v>1.218648338028288</v>
-      </c>
-      <c r="EN26" t="n">
-        <v>10</v>
-      </c>
-      <c r="EO26" t="n">
-        <v>-18</v>
-      </c>
-      <c r="EP26" t="n">
-        <v>5.693</v>
-      </c>
-      <c r="EQ26" t="n">
-        <v>3</v>
-      </c>
-      <c r="ER26" t="n">
-        <v>2.3533734460093</v>
-      </c>
-      <c r="ES26" t="n">
-        <v>5</v>
-      </c>
-      <c r="ET26" t="n">
-        <v>-20</v>
-      </c>
-      <c r="EU26" t="n">
-        <v>7.534</v>
-      </c>
-      <c r="EV26" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW26" t="n">
-        <v>2.503848863849726</v>
-      </c>
-      <c r="EX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY26" t="n">
-        <v>-23</v>
-      </c>
-      <c r="EZ26" t="n">
-        <v>2.439</v>
-      </c>
-      <c r="FA26" t="n">
-        <v>4</v>
-      </c>
-      <c r="FB26" t="n">
-        <v>1.719371117370883</v>
-      </c>
-      <c r="FC26" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD26" t="n">
-        <v>-32</v>
-      </c>
-      <c r="FE26" t="n">
-        <v>6.561</v>
-      </c>
-      <c r="FF26" t="n">
-        <v>6</v>
-      </c>
-      <c r="FG26" t="n">
-        <v>1.735956732394243</v>
-      </c>
-      <c r="FH26" t="n">
-        <v>4</v>
-      </c>
-      <c r="FI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ26" t="n">
-        <v>3.259</v>
-      </c>
-      <c r="FK26" t="n">
-        <v>2</v>
-      </c>
-      <c r="FL26" t="n">
-        <v>1.285646723004447</v>
-      </c>
-      <c r="FM26" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN26" t="n">
-        <v>8</v>
-      </c>
-      <c r="FO26" t="n">
-        <v>3.322</v>
-      </c>
-      <c r="FP26" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ26" t="n">
-        <v>1.385484018779152</v>
-      </c>
-      <c r="FR26" t="n">
-        <v>6</v>
-      </c>
-      <c r="FS26" t="n">
-        <v>23</v>
-      </c>
-      <c r="FT26" t="n">
-        <v>2.921</v>
-      </c>
-      <c r="FU26" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV26" t="n">
-        <v>1.335399061033058</v>
-      </c>
-      <c r="FW26" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>779</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2019_May_06_1025</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2019_May_06_1025</t>
-        </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -12244,85 +7279,10 @@
       <c r="DI27" t="n">
         <v>2</v>
       </c>
-      <c r="DK27" t="inlineStr"/>
-      <c r="DL27" t="inlineStr"/>
-      <c r="DM27" t="inlineStr"/>
-      <c r="DN27" t="inlineStr"/>
-      <c r="DO27" t="inlineStr"/>
-      <c r="DP27" t="inlineStr"/>
-      <c r="DQ27" t="inlineStr"/>
-      <c r="DR27" t="inlineStr"/>
-      <c r="DS27" t="inlineStr"/>
-      <c r="DT27" t="inlineStr"/>
-      <c r="DU27" t="inlineStr"/>
-      <c r="DV27" t="inlineStr"/>
-      <c r="DW27" t="inlineStr"/>
-      <c r="DX27" t="inlineStr"/>
-      <c r="DY27" t="inlineStr"/>
-      <c r="DZ27" t="inlineStr"/>
-      <c r="EA27" t="inlineStr"/>
-      <c r="EB27" t="inlineStr"/>
-      <c r="EC27" t="inlineStr"/>
-      <c r="ED27" t="inlineStr"/>
-      <c r="EE27" t="inlineStr"/>
-      <c r="EF27" t="inlineStr"/>
-      <c r="EG27" t="inlineStr"/>
-      <c r="EH27" t="inlineStr"/>
-      <c r="EI27" t="inlineStr"/>
-      <c r="EJ27" t="inlineStr"/>
-      <c r="EK27" t="inlineStr"/>
-      <c r="EL27" t="inlineStr"/>
-      <c r="EM27" t="inlineStr"/>
-      <c r="EN27" t="inlineStr"/>
-      <c r="EO27" t="inlineStr"/>
-      <c r="EP27" t="inlineStr"/>
-      <c r="EQ27" t="inlineStr"/>
-      <c r="ER27" t="inlineStr"/>
-      <c r="ES27" t="inlineStr"/>
-      <c r="ET27" t="inlineStr"/>
-      <c r="EU27" t="inlineStr"/>
-      <c r="EV27" t="inlineStr"/>
-      <c r="EW27" t="inlineStr"/>
-      <c r="EX27" t="inlineStr"/>
-      <c r="EY27" t="inlineStr"/>
-      <c r="EZ27" t="inlineStr"/>
-      <c r="FA27" t="inlineStr"/>
-      <c r="FB27" t="inlineStr"/>
-      <c r="FC27" t="inlineStr"/>
-      <c r="FD27" t="inlineStr"/>
-      <c r="FE27" t="inlineStr"/>
-      <c r="FF27" t="inlineStr"/>
-      <c r="FG27" t="inlineStr"/>
-      <c r="FH27" t="inlineStr"/>
-      <c r="FI27" t="inlineStr"/>
-      <c r="FJ27" t="inlineStr"/>
-      <c r="FK27" t="inlineStr"/>
-      <c r="FL27" t="inlineStr"/>
-      <c r="FM27" t="inlineStr"/>
-      <c r="FN27" t="inlineStr"/>
-      <c r="FO27" t="inlineStr"/>
-      <c r="FP27" t="inlineStr"/>
-      <c r="FQ27" t="inlineStr"/>
-      <c r="FR27" t="inlineStr"/>
-      <c r="FS27" t="inlineStr"/>
-      <c r="FT27" t="inlineStr"/>
-      <c r="FU27" t="inlineStr"/>
-      <c r="FV27" t="inlineStr"/>
-      <c r="FW27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>689</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2019_May_13_0917</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2019_May_13_0917</t>
-        </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -12554,85 +7514,10 @@
       <c r="DI28" t="n">
         <v>7</v>
       </c>
-      <c r="DK28" t="inlineStr"/>
-      <c r="DL28" t="inlineStr"/>
-      <c r="DM28" t="inlineStr"/>
-      <c r="DN28" t="inlineStr"/>
-      <c r="DO28" t="inlineStr"/>
-      <c r="DP28" t="inlineStr"/>
-      <c r="DQ28" t="inlineStr"/>
-      <c r="DR28" t="inlineStr"/>
-      <c r="DS28" t="inlineStr"/>
-      <c r="DT28" t="inlineStr"/>
-      <c r="DU28" t="inlineStr"/>
-      <c r="DV28" t="inlineStr"/>
-      <c r="DW28" t="inlineStr"/>
-      <c r="DX28" t="inlineStr"/>
-      <c r="DY28" t="inlineStr"/>
-      <c r="DZ28" t="inlineStr"/>
-      <c r="EA28" t="inlineStr"/>
-      <c r="EB28" t="inlineStr"/>
-      <c r="EC28" t="inlineStr"/>
-      <c r="ED28" t="inlineStr"/>
-      <c r="EE28" t="inlineStr"/>
-      <c r="EF28" t="inlineStr"/>
-      <c r="EG28" t="inlineStr"/>
-      <c r="EH28" t="inlineStr"/>
-      <c r="EI28" t="inlineStr"/>
-      <c r="EJ28" t="inlineStr"/>
-      <c r="EK28" t="inlineStr"/>
-      <c r="EL28" t="inlineStr"/>
-      <c r="EM28" t="inlineStr"/>
-      <c r="EN28" t="inlineStr"/>
-      <c r="EO28" t="inlineStr"/>
-      <c r="EP28" t="inlineStr"/>
-      <c r="EQ28" t="inlineStr"/>
-      <c r="ER28" t="inlineStr"/>
-      <c r="ES28" t="inlineStr"/>
-      <c r="ET28" t="inlineStr"/>
-      <c r="EU28" t="inlineStr"/>
-      <c r="EV28" t="inlineStr"/>
-      <c r="EW28" t="inlineStr"/>
-      <c r="EX28" t="inlineStr"/>
-      <c r="EY28" t="inlineStr"/>
-      <c r="EZ28" t="inlineStr"/>
-      <c r="FA28" t="inlineStr"/>
-      <c r="FB28" t="inlineStr"/>
-      <c r="FC28" t="inlineStr"/>
-      <c r="FD28" t="inlineStr"/>
-      <c r="FE28" t="inlineStr"/>
-      <c r="FF28" t="inlineStr"/>
-      <c r="FG28" t="inlineStr"/>
-      <c r="FH28" t="inlineStr"/>
-      <c r="FI28" t="inlineStr"/>
-      <c r="FJ28" t="inlineStr"/>
-      <c r="FK28" t="inlineStr"/>
-      <c r="FL28" t="inlineStr"/>
-      <c r="FM28" t="inlineStr"/>
-      <c r="FN28" t="inlineStr"/>
-      <c r="FO28" t="inlineStr"/>
-      <c r="FP28" t="inlineStr"/>
-      <c r="FQ28" t="inlineStr"/>
-      <c r="FR28" t="inlineStr"/>
-      <c r="FS28" t="inlineStr"/>
-      <c r="FT28" t="inlineStr"/>
-      <c r="FU28" t="inlineStr"/>
-      <c r="FV28" t="inlineStr"/>
-      <c r="FW28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>802</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2019_May_06_0922</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2019_May_06_0922</t>
-        </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -12864,85 +7749,10 @@
       <c r="DI29" t="n">
         <v>4</v>
       </c>
-      <c r="DK29" t="inlineStr"/>
-      <c r="DL29" t="inlineStr"/>
-      <c r="DM29" t="inlineStr"/>
-      <c r="DN29" t="inlineStr"/>
-      <c r="DO29" t="inlineStr"/>
-      <c r="DP29" t="inlineStr"/>
-      <c r="DQ29" t="inlineStr"/>
-      <c r="DR29" t="inlineStr"/>
-      <c r="DS29" t="inlineStr"/>
-      <c r="DT29" t="inlineStr"/>
-      <c r="DU29" t="inlineStr"/>
-      <c r="DV29" t="inlineStr"/>
-      <c r="DW29" t="inlineStr"/>
-      <c r="DX29" t="inlineStr"/>
-      <c r="DY29" t="inlineStr"/>
-      <c r="DZ29" t="inlineStr"/>
-      <c r="EA29" t="inlineStr"/>
-      <c r="EB29" t="inlineStr"/>
-      <c r="EC29" t="inlineStr"/>
-      <c r="ED29" t="inlineStr"/>
-      <c r="EE29" t="inlineStr"/>
-      <c r="EF29" t="inlineStr"/>
-      <c r="EG29" t="inlineStr"/>
-      <c r="EH29" t="inlineStr"/>
-      <c r="EI29" t="inlineStr"/>
-      <c r="EJ29" t="inlineStr"/>
-      <c r="EK29" t="inlineStr"/>
-      <c r="EL29" t="inlineStr"/>
-      <c r="EM29" t="inlineStr"/>
-      <c r="EN29" t="inlineStr"/>
-      <c r="EO29" t="inlineStr"/>
-      <c r="EP29" t="inlineStr"/>
-      <c r="EQ29" t="inlineStr"/>
-      <c r="ER29" t="inlineStr"/>
-      <c r="ES29" t="inlineStr"/>
-      <c r="ET29" t="inlineStr"/>
-      <c r="EU29" t="inlineStr"/>
-      <c r="EV29" t="inlineStr"/>
-      <c r="EW29" t="inlineStr"/>
-      <c r="EX29" t="inlineStr"/>
-      <c r="EY29" t="inlineStr"/>
-      <c r="EZ29" t="inlineStr"/>
-      <c r="FA29" t="inlineStr"/>
-      <c r="FB29" t="inlineStr"/>
-      <c r="FC29" t="inlineStr"/>
-      <c r="FD29" t="inlineStr"/>
-      <c r="FE29" t="inlineStr"/>
-      <c r="FF29" t="inlineStr"/>
-      <c r="FG29" t="inlineStr"/>
-      <c r="FH29" t="inlineStr"/>
-      <c r="FI29" t="inlineStr"/>
-      <c r="FJ29" t="inlineStr"/>
-      <c r="FK29" t="inlineStr"/>
-      <c r="FL29" t="inlineStr"/>
-      <c r="FM29" t="inlineStr"/>
-      <c r="FN29" t="inlineStr"/>
-      <c r="FO29" t="inlineStr"/>
-      <c r="FP29" t="inlineStr"/>
-      <c r="FQ29" t="inlineStr"/>
-      <c r="FR29" t="inlineStr"/>
-      <c r="FS29" t="inlineStr"/>
-      <c r="FT29" t="inlineStr"/>
-      <c r="FU29" t="inlineStr"/>
-      <c r="FV29" t="inlineStr"/>
-      <c r="FW29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>717</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2019_May_06_1117</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2019_May_06_1117</t>
-        </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -13174,85 +7984,10 @@
       <c r="DI30" t="n">
         <v>3</v>
       </c>
-      <c r="DK30" t="inlineStr"/>
-      <c r="DL30" t="inlineStr"/>
-      <c r="DM30" t="inlineStr"/>
-      <c r="DN30" t="inlineStr"/>
-      <c r="DO30" t="inlineStr"/>
-      <c r="DP30" t="inlineStr"/>
-      <c r="DQ30" t="inlineStr"/>
-      <c r="DR30" t="inlineStr"/>
-      <c r="DS30" t="inlineStr"/>
-      <c r="DT30" t="inlineStr"/>
-      <c r="DU30" t="inlineStr"/>
-      <c r="DV30" t="inlineStr"/>
-      <c r="DW30" t="inlineStr"/>
-      <c r="DX30" t="inlineStr"/>
-      <c r="DY30" t="inlineStr"/>
-      <c r="DZ30" t="inlineStr"/>
-      <c r="EA30" t="inlineStr"/>
-      <c r="EB30" t="inlineStr"/>
-      <c r="EC30" t="inlineStr"/>
-      <c r="ED30" t="inlineStr"/>
-      <c r="EE30" t="inlineStr"/>
-      <c r="EF30" t="inlineStr"/>
-      <c r="EG30" t="inlineStr"/>
-      <c r="EH30" t="inlineStr"/>
-      <c r="EI30" t="inlineStr"/>
-      <c r="EJ30" t="inlineStr"/>
-      <c r="EK30" t="inlineStr"/>
-      <c r="EL30" t="inlineStr"/>
-      <c r="EM30" t="inlineStr"/>
-      <c r="EN30" t="inlineStr"/>
-      <c r="EO30" t="inlineStr"/>
-      <c r="EP30" t="inlineStr"/>
-      <c r="EQ30" t="inlineStr"/>
-      <c r="ER30" t="inlineStr"/>
-      <c r="ES30" t="inlineStr"/>
-      <c r="ET30" t="inlineStr"/>
-      <c r="EU30" t="inlineStr"/>
-      <c r="EV30" t="inlineStr"/>
-      <c r="EW30" t="inlineStr"/>
-      <c r="EX30" t="inlineStr"/>
-      <c r="EY30" t="inlineStr"/>
-      <c r="EZ30" t="inlineStr"/>
-      <c r="FA30" t="inlineStr"/>
-      <c r="FB30" t="inlineStr"/>
-      <c r="FC30" t="inlineStr"/>
-      <c r="FD30" t="inlineStr"/>
-      <c r="FE30" t="inlineStr"/>
-      <c r="FF30" t="inlineStr"/>
-      <c r="FG30" t="inlineStr"/>
-      <c r="FH30" t="inlineStr"/>
-      <c r="FI30" t="inlineStr"/>
-      <c r="FJ30" t="inlineStr"/>
-      <c r="FK30" t="inlineStr"/>
-      <c r="FL30" t="inlineStr"/>
-      <c r="FM30" t="inlineStr"/>
-      <c r="FN30" t="inlineStr"/>
-      <c r="FO30" t="inlineStr"/>
-      <c r="FP30" t="inlineStr"/>
-      <c r="FQ30" t="inlineStr"/>
-      <c r="FR30" t="inlineStr"/>
-      <c r="FS30" t="inlineStr"/>
-      <c r="FT30" t="inlineStr"/>
-      <c r="FU30" t="inlineStr"/>
-      <c r="FV30" t="inlineStr"/>
-      <c r="FW30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>748</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2019_May_07_2013</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2019_May_07_2013</t>
-        </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -13484,85 +8219,10 @@
       <c r="DI31" t="n">
         <v>10</v>
       </c>
-      <c r="DK31" t="inlineStr"/>
-      <c r="DL31" t="inlineStr"/>
-      <c r="DM31" t="inlineStr"/>
-      <c r="DN31" t="inlineStr"/>
-      <c r="DO31" t="inlineStr"/>
-      <c r="DP31" t="inlineStr"/>
-      <c r="DQ31" t="inlineStr"/>
-      <c r="DR31" t="inlineStr"/>
-      <c r="DS31" t="inlineStr"/>
-      <c r="DT31" t="inlineStr"/>
-      <c r="DU31" t="inlineStr"/>
-      <c r="DV31" t="inlineStr"/>
-      <c r="DW31" t="inlineStr"/>
-      <c r="DX31" t="inlineStr"/>
-      <c r="DY31" t="inlineStr"/>
-      <c r="DZ31" t="inlineStr"/>
-      <c r="EA31" t="inlineStr"/>
-      <c r="EB31" t="inlineStr"/>
-      <c r="EC31" t="inlineStr"/>
-      <c r="ED31" t="inlineStr"/>
-      <c r="EE31" t="inlineStr"/>
-      <c r="EF31" t="inlineStr"/>
-      <c r="EG31" t="inlineStr"/>
-      <c r="EH31" t="inlineStr"/>
-      <c r="EI31" t="inlineStr"/>
-      <c r="EJ31" t="inlineStr"/>
-      <c r="EK31" t="inlineStr"/>
-      <c r="EL31" t="inlineStr"/>
-      <c r="EM31" t="inlineStr"/>
-      <c r="EN31" t="inlineStr"/>
-      <c r="EO31" t="inlineStr"/>
-      <c r="EP31" t="inlineStr"/>
-      <c r="EQ31" t="inlineStr"/>
-      <c r="ER31" t="inlineStr"/>
-      <c r="ES31" t="inlineStr"/>
-      <c r="ET31" t="inlineStr"/>
-      <c r="EU31" t="inlineStr"/>
-      <c r="EV31" t="inlineStr"/>
-      <c r="EW31" t="inlineStr"/>
-      <c r="EX31" t="inlineStr"/>
-      <c r="EY31" t="inlineStr"/>
-      <c r="EZ31" t="inlineStr"/>
-      <c r="FA31" t="inlineStr"/>
-      <c r="FB31" t="inlineStr"/>
-      <c r="FC31" t="inlineStr"/>
-      <c r="FD31" t="inlineStr"/>
-      <c r="FE31" t="inlineStr"/>
-      <c r="FF31" t="inlineStr"/>
-      <c r="FG31" t="inlineStr"/>
-      <c r="FH31" t="inlineStr"/>
-      <c r="FI31" t="inlineStr"/>
-      <c r="FJ31" t="inlineStr"/>
-      <c r="FK31" t="inlineStr"/>
-      <c r="FL31" t="inlineStr"/>
-      <c r="FM31" t="inlineStr"/>
-      <c r="FN31" t="inlineStr"/>
-      <c r="FO31" t="inlineStr"/>
-      <c r="FP31" t="inlineStr"/>
-      <c r="FQ31" t="inlineStr"/>
-      <c r="FR31" t="inlineStr"/>
-      <c r="FS31" t="inlineStr"/>
-      <c r="FT31" t="inlineStr"/>
-      <c r="FU31" t="inlineStr"/>
-      <c r="FV31" t="inlineStr"/>
-      <c r="FW31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>761</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2019_May_13_1115</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2019_May_13_1115</t>
-        </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -13794,85 +8454,10 @@
       <c r="DI32" t="n">
         <v>6</v>
       </c>
-      <c r="DK32" t="inlineStr"/>
-      <c r="DL32" t="inlineStr"/>
-      <c r="DM32" t="inlineStr"/>
-      <c r="DN32" t="inlineStr"/>
-      <c r="DO32" t="inlineStr"/>
-      <c r="DP32" t="inlineStr"/>
-      <c r="DQ32" t="inlineStr"/>
-      <c r="DR32" t="inlineStr"/>
-      <c r="DS32" t="inlineStr"/>
-      <c r="DT32" t="inlineStr"/>
-      <c r="DU32" t="inlineStr"/>
-      <c r="DV32" t="inlineStr"/>
-      <c r="DW32" t="inlineStr"/>
-      <c r="DX32" t="inlineStr"/>
-      <c r="DY32" t="inlineStr"/>
-      <c r="DZ32" t="inlineStr"/>
-      <c r="EA32" t="inlineStr"/>
-      <c r="EB32" t="inlineStr"/>
-      <c r="EC32" t="inlineStr"/>
-      <c r="ED32" t="inlineStr"/>
-      <c r="EE32" t="inlineStr"/>
-      <c r="EF32" t="inlineStr"/>
-      <c r="EG32" t="inlineStr"/>
-      <c r="EH32" t="inlineStr"/>
-      <c r="EI32" t="inlineStr"/>
-      <c r="EJ32" t="inlineStr"/>
-      <c r="EK32" t="inlineStr"/>
-      <c r="EL32" t="inlineStr"/>
-      <c r="EM32" t="inlineStr"/>
-      <c r="EN32" t="inlineStr"/>
-      <c r="EO32" t="inlineStr"/>
-      <c r="EP32" t="inlineStr"/>
-      <c r="EQ32" t="inlineStr"/>
-      <c r="ER32" t="inlineStr"/>
-      <c r="ES32" t="inlineStr"/>
-      <c r="ET32" t="inlineStr"/>
-      <c r="EU32" t="inlineStr"/>
-      <c r="EV32" t="inlineStr"/>
-      <c r="EW32" t="inlineStr"/>
-      <c r="EX32" t="inlineStr"/>
-      <c r="EY32" t="inlineStr"/>
-      <c r="EZ32" t="inlineStr"/>
-      <c r="FA32" t="inlineStr"/>
-      <c r="FB32" t="inlineStr"/>
-      <c r="FC32" t="inlineStr"/>
-      <c r="FD32" t="inlineStr"/>
-      <c r="FE32" t="inlineStr"/>
-      <c r="FF32" t="inlineStr"/>
-      <c r="FG32" t="inlineStr"/>
-      <c r="FH32" t="inlineStr"/>
-      <c r="FI32" t="inlineStr"/>
-      <c r="FJ32" t="inlineStr"/>
-      <c r="FK32" t="inlineStr"/>
-      <c r="FL32" t="inlineStr"/>
-      <c r="FM32" t="inlineStr"/>
-      <c r="FN32" t="inlineStr"/>
-      <c r="FO32" t="inlineStr"/>
-      <c r="FP32" t="inlineStr"/>
-      <c r="FQ32" t="inlineStr"/>
-      <c r="FR32" t="inlineStr"/>
-      <c r="FS32" t="inlineStr"/>
-      <c r="FT32" t="inlineStr"/>
-      <c r="FU32" t="inlineStr"/>
-      <c r="FV32" t="inlineStr"/>
-      <c r="FW32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>813</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2019_May_13_1021</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2019_May_13_1021</t>
-        </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -14104,85 +8689,10 @@
       <c r="DI33" t="n">
         <v>0</v>
       </c>
-      <c r="DK33" t="inlineStr"/>
-      <c r="DL33" t="inlineStr"/>
-      <c r="DM33" t="inlineStr"/>
-      <c r="DN33" t="inlineStr"/>
-      <c r="DO33" t="inlineStr"/>
-      <c r="DP33" t="inlineStr"/>
-      <c r="DQ33" t="inlineStr"/>
-      <c r="DR33" t="inlineStr"/>
-      <c r="DS33" t="inlineStr"/>
-      <c r="DT33" t="inlineStr"/>
-      <c r="DU33" t="inlineStr"/>
-      <c r="DV33" t="inlineStr"/>
-      <c r="DW33" t="inlineStr"/>
-      <c r="DX33" t="inlineStr"/>
-      <c r="DY33" t="inlineStr"/>
-      <c r="DZ33" t="inlineStr"/>
-      <c r="EA33" t="inlineStr"/>
-      <c r="EB33" t="inlineStr"/>
-      <c r="EC33" t="inlineStr"/>
-      <c r="ED33" t="inlineStr"/>
-      <c r="EE33" t="inlineStr"/>
-      <c r="EF33" t="inlineStr"/>
-      <c r="EG33" t="inlineStr"/>
-      <c r="EH33" t="inlineStr"/>
-      <c r="EI33" t="inlineStr"/>
-      <c r="EJ33" t="inlineStr"/>
-      <c r="EK33" t="inlineStr"/>
-      <c r="EL33" t="inlineStr"/>
-      <c r="EM33" t="inlineStr"/>
-      <c r="EN33" t="inlineStr"/>
-      <c r="EO33" t="inlineStr"/>
-      <c r="EP33" t="inlineStr"/>
-      <c r="EQ33" t="inlineStr"/>
-      <c r="ER33" t="inlineStr"/>
-      <c r="ES33" t="inlineStr"/>
-      <c r="ET33" t="inlineStr"/>
-      <c r="EU33" t="inlineStr"/>
-      <c r="EV33" t="inlineStr"/>
-      <c r="EW33" t="inlineStr"/>
-      <c r="EX33" t="inlineStr"/>
-      <c r="EY33" t="inlineStr"/>
-      <c r="EZ33" t="inlineStr"/>
-      <c r="FA33" t="inlineStr"/>
-      <c r="FB33" t="inlineStr"/>
-      <c r="FC33" t="inlineStr"/>
-      <c r="FD33" t="inlineStr"/>
-      <c r="FE33" t="inlineStr"/>
-      <c r="FF33" t="inlineStr"/>
-      <c r="FG33" t="inlineStr"/>
-      <c r="FH33" t="inlineStr"/>
-      <c r="FI33" t="inlineStr"/>
-      <c r="FJ33" t="inlineStr"/>
-      <c r="FK33" t="inlineStr"/>
-      <c r="FL33" t="inlineStr"/>
-      <c r="FM33" t="inlineStr"/>
-      <c r="FN33" t="inlineStr"/>
-      <c r="FO33" t="inlineStr"/>
-      <c r="FP33" t="inlineStr"/>
-      <c r="FQ33" t="inlineStr"/>
-      <c r="FR33" t="inlineStr"/>
-      <c r="FS33" t="inlineStr"/>
-      <c r="FT33" t="inlineStr"/>
-      <c r="FU33" t="inlineStr"/>
-      <c r="FV33" t="inlineStr"/>
-      <c r="FW33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>792</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2019_May_13_1217</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2019_May_13_1217</t>
-        </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -14414,85 +8924,10 @@
       <c r="DI34" t="n">
         <v>9</v>
       </c>
-      <c r="DK34" t="inlineStr"/>
-      <c r="DL34" t="inlineStr"/>
-      <c r="DM34" t="inlineStr"/>
-      <c r="DN34" t="inlineStr"/>
-      <c r="DO34" t="inlineStr"/>
-      <c r="DP34" t="inlineStr"/>
-      <c r="DQ34" t="inlineStr"/>
-      <c r="DR34" t="inlineStr"/>
-      <c r="DS34" t="inlineStr"/>
-      <c r="DT34" t="inlineStr"/>
-      <c r="DU34" t="inlineStr"/>
-      <c r="DV34" t="inlineStr"/>
-      <c r="DW34" t="inlineStr"/>
-      <c r="DX34" t="inlineStr"/>
-      <c r="DY34" t="inlineStr"/>
-      <c r="DZ34" t="inlineStr"/>
-      <c r="EA34" t="inlineStr"/>
-      <c r="EB34" t="inlineStr"/>
-      <c r="EC34" t="inlineStr"/>
-      <c r="ED34" t="inlineStr"/>
-      <c r="EE34" t="inlineStr"/>
-      <c r="EF34" t="inlineStr"/>
-      <c r="EG34" t="inlineStr"/>
-      <c r="EH34" t="inlineStr"/>
-      <c r="EI34" t="inlineStr"/>
-      <c r="EJ34" t="inlineStr"/>
-      <c r="EK34" t="inlineStr"/>
-      <c r="EL34" t="inlineStr"/>
-      <c r="EM34" t="inlineStr"/>
-      <c r="EN34" t="inlineStr"/>
-      <c r="EO34" t="inlineStr"/>
-      <c r="EP34" t="inlineStr"/>
-      <c r="EQ34" t="inlineStr"/>
-      <c r="ER34" t="inlineStr"/>
-      <c r="ES34" t="inlineStr"/>
-      <c r="ET34" t="inlineStr"/>
-      <c r="EU34" t="inlineStr"/>
-      <c r="EV34" t="inlineStr"/>
-      <c r="EW34" t="inlineStr"/>
-      <c r="EX34" t="inlineStr"/>
-      <c r="EY34" t="inlineStr"/>
-      <c r="EZ34" t="inlineStr"/>
-      <c r="FA34" t="inlineStr"/>
-      <c r="FB34" t="inlineStr"/>
-      <c r="FC34" t="inlineStr"/>
-      <c r="FD34" t="inlineStr"/>
-      <c r="FE34" t="inlineStr"/>
-      <c r="FF34" t="inlineStr"/>
-      <c r="FG34" t="inlineStr"/>
-      <c r="FH34" t="inlineStr"/>
-      <c r="FI34" t="inlineStr"/>
-      <c r="FJ34" t="inlineStr"/>
-      <c r="FK34" t="inlineStr"/>
-      <c r="FL34" t="inlineStr"/>
-      <c r="FM34" t="inlineStr"/>
-      <c r="FN34" t="inlineStr"/>
-      <c r="FO34" t="inlineStr"/>
-      <c r="FP34" t="inlineStr"/>
-      <c r="FQ34" t="inlineStr"/>
-      <c r="FR34" t="inlineStr"/>
-      <c r="FS34" t="inlineStr"/>
-      <c r="FT34" t="inlineStr"/>
-      <c r="FU34" t="inlineStr"/>
-      <c r="FV34" t="inlineStr"/>
-      <c r="FW34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>703</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2019_May_02_0937</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2019_May_02_0937</t>
-        </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -14724,85 +9159,10 @@
       <c r="DI35" t="n">
         <v>4</v>
       </c>
-      <c r="DK35" t="inlineStr"/>
-      <c r="DL35" t="inlineStr"/>
-      <c r="DM35" t="inlineStr"/>
-      <c r="DN35" t="inlineStr"/>
-      <c r="DO35" t="inlineStr"/>
-      <c r="DP35" t="inlineStr"/>
-      <c r="DQ35" t="inlineStr"/>
-      <c r="DR35" t="inlineStr"/>
-      <c r="DS35" t="inlineStr"/>
-      <c r="DT35" t="inlineStr"/>
-      <c r="DU35" t="inlineStr"/>
-      <c r="DV35" t="inlineStr"/>
-      <c r="DW35" t="inlineStr"/>
-      <c r="DX35" t="inlineStr"/>
-      <c r="DY35" t="inlineStr"/>
-      <c r="DZ35" t="inlineStr"/>
-      <c r="EA35" t="inlineStr"/>
-      <c r="EB35" t="inlineStr"/>
-      <c r="EC35" t="inlineStr"/>
-      <c r="ED35" t="inlineStr"/>
-      <c r="EE35" t="inlineStr"/>
-      <c r="EF35" t="inlineStr"/>
-      <c r="EG35" t="inlineStr"/>
-      <c r="EH35" t="inlineStr"/>
-      <c r="EI35" t="inlineStr"/>
-      <c r="EJ35" t="inlineStr"/>
-      <c r="EK35" t="inlineStr"/>
-      <c r="EL35" t="inlineStr"/>
-      <c r="EM35" t="inlineStr"/>
-      <c r="EN35" t="inlineStr"/>
-      <c r="EO35" t="inlineStr"/>
-      <c r="EP35" t="inlineStr"/>
-      <c r="EQ35" t="inlineStr"/>
-      <c r="ER35" t="inlineStr"/>
-      <c r="ES35" t="inlineStr"/>
-      <c r="ET35" t="inlineStr"/>
-      <c r="EU35" t="inlineStr"/>
-      <c r="EV35" t="inlineStr"/>
-      <c r="EW35" t="inlineStr"/>
-      <c r="EX35" t="inlineStr"/>
-      <c r="EY35" t="inlineStr"/>
-      <c r="EZ35" t="inlineStr"/>
-      <c r="FA35" t="inlineStr"/>
-      <c r="FB35" t="inlineStr"/>
-      <c r="FC35" t="inlineStr"/>
-      <c r="FD35" t="inlineStr"/>
-      <c r="FE35" t="inlineStr"/>
-      <c r="FF35" t="inlineStr"/>
-      <c r="FG35" t="inlineStr"/>
-      <c r="FH35" t="inlineStr"/>
-      <c r="FI35" t="inlineStr"/>
-      <c r="FJ35" t="inlineStr"/>
-      <c r="FK35" t="inlineStr"/>
-      <c r="FL35" t="inlineStr"/>
-      <c r="FM35" t="inlineStr"/>
-      <c r="FN35" t="inlineStr"/>
-      <c r="FO35" t="inlineStr"/>
-      <c r="FP35" t="inlineStr"/>
-      <c r="FQ35" t="inlineStr"/>
-      <c r="FR35" t="inlineStr"/>
-      <c r="FS35" t="inlineStr"/>
-      <c r="FT35" t="inlineStr"/>
-      <c r="FU35" t="inlineStr"/>
-      <c r="FV35" t="inlineStr"/>
-      <c r="FW35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>845</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2019_May_02_1542</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2019_May_02_1542</t>
-        </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -15034,85 +9394,10 @@
       <c r="DI36" t="n">
         <v>2</v>
       </c>
-      <c r="DK36" t="inlineStr"/>
-      <c r="DL36" t="inlineStr"/>
-      <c r="DM36" t="inlineStr"/>
-      <c r="DN36" t="inlineStr"/>
-      <c r="DO36" t="inlineStr"/>
-      <c r="DP36" t="inlineStr"/>
-      <c r="DQ36" t="inlineStr"/>
-      <c r="DR36" t="inlineStr"/>
-      <c r="DS36" t="inlineStr"/>
-      <c r="DT36" t="inlineStr"/>
-      <c r="DU36" t="inlineStr"/>
-      <c r="DV36" t="inlineStr"/>
-      <c r="DW36" t="inlineStr"/>
-      <c r="DX36" t="inlineStr"/>
-      <c r="DY36" t="inlineStr"/>
-      <c r="DZ36" t="inlineStr"/>
-      <c r="EA36" t="inlineStr"/>
-      <c r="EB36" t="inlineStr"/>
-      <c r="EC36" t="inlineStr"/>
-      <c r="ED36" t="inlineStr"/>
-      <c r="EE36" t="inlineStr"/>
-      <c r="EF36" t="inlineStr"/>
-      <c r="EG36" t="inlineStr"/>
-      <c r="EH36" t="inlineStr"/>
-      <c r="EI36" t="inlineStr"/>
-      <c r="EJ36" t="inlineStr"/>
-      <c r="EK36" t="inlineStr"/>
-      <c r="EL36" t="inlineStr"/>
-      <c r="EM36" t="inlineStr"/>
-      <c r="EN36" t="inlineStr"/>
-      <c r="EO36" t="inlineStr"/>
-      <c r="EP36" t="inlineStr"/>
-      <c r="EQ36" t="inlineStr"/>
-      <c r="ER36" t="inlineStr"/>
-      <c r="ES36" t="inlineStr"/>
-      <c r="ET36" t="inlineStr"/>
-      <c r="EU36" t="inlineStr"/>
-      <c r="EV36" t="inlineStr"/>
-      <c r="EW36" t="inlineStr"/>
-      <c r="EX36" t="inlineStr"/>
-      <c r="EY36" t="inlineStr"/>
-      <c r="EZ36" t="inlineStr"/>
-      <c r="FA36" t="inlineStr"/>
-      <c r="FB36" t="inlineStr"/>
-      <c r="FC36" t="inlineStr"/>
-      <c r="FD36" t="inlineStr"/>
-      <c r="FE36" t="inlineStr"/>
-      <c r="FF36" t="inlineStr"/>
-      <c r="FG36" t="inlineStr"/>
-      <c r="FH36" t="inlineStr"/>
-      <c r="FI36" t="inlineStr"/>
-      <c r="FJ36" t="inlineStr"/>
-      <c r="FK36" t="inlineStr"/>
-      <c r="FL36" t="inlineStr"/>
-      <c r="FM36" t="inlineStr"/>
-      <c r="FN36" t="inlineStr"/>
-      <c r="FO36" t="inlineStr"/>
-      <c r="FP36" t="inlineStr"/>
-      <c r="FQ36" t="inlineStr"/>
-      <c r="FR36" t="inlineStr"/>
-      <c r="FS36" t="inlineStr"/>
-      <c r="FT36" t="inlineStr"/>
-      <c r="FU36" t="inlineStr"/>
-      <c r="FV36" t="inlineStr"/>
-      <c r="FW36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>840</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2019_May_01_2029</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2019_May_01_2029</t>
-        </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -15344,85 +9629,10 @@
       <c r="DI37" t="n">
         <v>6</v>
       </c>
-      <c r="DK37" t="inlineStr"/>
-      <c r="DL37" t="inlineStr"/>
-      <c r="DM37" t="inlineStr"/>
-      <c r="DN37" t="inlineStr"/>
-      <c r="DO37" t="inlineStr"/>
-      <c r="DP37" t="inlineStr"/>
-      <c r="DQ37" t="inlineStr"/>
-      <c r="DR37" t="inlineStr"/>
-      <c r="DS37" t="inlineStr"/>
-      <c r="DT37" t="inlineStr"/>
-      <c r="DU37" t="inlineStr"/>
-      <c r="DV37" t="inlineStr"/>
-      <c r="DW37" t="inlineStr"/>
-      <c r="DX37" t="inlineStr"/>
-      <c r="DY37" t="inlineStr"/>
-      <c r="DZ37" t="inlineStr"/>
-      <c r="EA37" t="inlineStr"/>
-      <c r="EB37" t="inlineStr"/>
-      <c r="EC37" t="inlineStr"/>
-      <c r="ED37" t="inlineStr"/>
-      <c r="EE37" t="inlineStr"/>
-      <c r="EF37" t="inlineStr"/>
-      <c r="EG37" t="inlineStr"/>
-      <c r="EH37" t="inlineStr"/>
-      <c r="EI37" t="inlineStr"/>
-      <c r="EJ37" t="inlineStr"/>
-      <c r="EK37" t="inlineStr"/>
-      <c r="EL37" t="inlineStr"/>
-      <c r="EM37" t="inlineStr"/>
-      <c r="EN37" t="inlineStr"/>
-      <c r="EO37" t="inlineStr"/>
-      <c r="EP37" t="inlineStr"/>
-      <c r="EQ37" t="inlineStr"/>
-      <c r="ER37" t="inlineStr"/>
-      <c r="ES37" t="inlineStr"/>
-      <c r="ET37" t="inlineStr"/>
-      <c r="EU37" t="inlineStr"/>
-      <c r="EV37" t="inlineStr"/>
-      <c r="EW37" t="inlineStr"/>
-      <c r="EX37" t="inlineStr"/>
-      <c r="EY37" t="inlineStr"/>
-      <c r="EZ37" t="inlineStr"/>
-      <c r="FA37" t="inlineStr"/>
-      <c r="FB37" t="inlineStr"/>
-      <c r="FC37" t="inlineStr"/>
-      <c r="FD37" t="inlineStr"/>
-      <c r="FE37" t="inlineStr"/>
-      <c r="FF37" t="inlineStr"/>
-      <c r="FG37" t="inlineStr"/>
-      <c r="FH37" t="inlineStr"/>
-      <c r="FI37" t="inlineStr"/>
-      <c r="FJ37" t="inlineStr"/>
-      <c r="FK37" t="inlineStr"/>
-      <c r="FL37" t="inlineStr"/>
-      <c r="FM37" t="inlineStr"/>
-      <c r="FN37" t="inlineStr"/>
-      <c r="FO37" t="inlineStr"/>
-      <c r="FP37" t="inlineStr"/>
-      <c r="FQ37" t="inlineStr"/>
-      <c r="FR37" t="inlineStr"/>
-      <c r="FS37" t="inlineStr"/>
-      <c r="FT37" t="inlineStr"/>
-      <c r="FU37" t="inlineStr"/>
-      <c r="FV37" t="inlineStr"/>
-      <c r="FW37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>787</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2019_May_01_1924</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2019_May_01_1924</t>
-        </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -15654,85 +9864,10 @@
       <c r="DI38" t="n">
         <v>11</v>
       </c>
-      <c r="DK38" t="inlineStr"/>
-      <c r="DL38" t="inlineStr"/>
-      <c r="DM38" t="inlineStr"/>
-      <c r="DN38" t="inlineStr"/>
-      <c r="DO38" t="inlineStr"/>
-      <c r="DP38" t="inlineStr"/>
-      <c r="DQ38" t="inlineStr"/>
-      <c r="DR38" t="inlineStr"/>
-      <c r="DS38" t="inlineStr"/>
-      <c r="DT38" t="inlineStr"/>
-      <c r="DU38" t="inlineStr"/>
-      <c r="DV38" t="inlineStr"/>
-      <c r="DW38" t="inlineStr"/>
-      <c r="DX38" t="inlineStr"/>
-      <c r="DY38" t="inlineStr"/>
-      <c r="DZ38" t="inlineStr"/>
-      <c r="EA38" t="inlineStr"/>
-      <c r="EB38" t="inlineStr"/>
-      <c r="EC38" t="inlineStr"/>
-      <c r="ED38" t="inlineStr"/>
-      <c r="EE38" t="inlineStr"/>
-      <c r="EF38" t="inlineStr"/>
-      <c r="EG38" t="inlineStr"/>
-      <c r="EH38" t="inlineStr"/>
-      <c r="EI38" t="inlineStr"/>
-      <c r="EJ38" t="inlineStr"/>
-      <c r="EK38" t="inlineStr"/>
-      <c r="EL38" t="inlineStr"/>
-      <c r="EM38" t="inlineStr"/>
-      <c r="EN38" t="inlineStr"/>
-      <c r="EO38" t="inlineStr"/>
-      <c r="EP38" t="inlineStr"/>
-      <c r="EQ38" t="inlineStr"/>
-      <c r="ER38" t="inlineStr"/>
-      <c r="ES38" t="inlineStr"/>
-      <c r="ET38" t="inlineStr"/>
-      <c r="EU38" t="inlineStr"/>
-      <c r="EV38" t="inlineStr"/>
-      <c r="EW38" t="inlineStr"/>
-      <c r="EX38" t="inlineStr"/>
-      <c r="EY38" t="inlineStr"/>
-      <c r="EZ38" t="inlineStr"/>
-      <c r="FA38" t="inlineStr"/>
-      <c r="FB38" t="inlineStr"/>
-      <c r="FC38" t="inlineStr"/>
-      <c r="FD38" t="inlineStr"/>
-      <c r="FE38" t="inlineStr"/>
-      <c r="FF38" t="inlineStr"/>
-      <c r="FG38" t="inlineStr"/>
-      <c r="FH38" t="inlineStr"/>
-      <c r="FI38" t="inlineStr"/>
-      <c r="FJ38" t="inlineStr"/>
-      <c r="FK38" t="inlineStr"/>
-      <c r="FL38" t="inlineStr"/>
-      <c r="FM38" t="inlineStr"/>
-      <c r="FN38" t="inlineStr"/>
-      <c r="FO38" t="inlineStr"/>
-      <c r="FP38" t="inlineStr"/>
-      <c r="FQ38" t="inlineStr"/>
-      <c r="FR38" t="inlineStr"/>
-      <c r="FS38" t="inlineStr"/>
-      <c r="FT38" t="inlineStr"/>
-      <c r="FU38" t="inlineStr"/>
-      <c r="FV38" t="inlineStr"/>
-      <c r="FW38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>812</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2019_May_06_1216</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2019_May_06_1216</t>
-        </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -15964,71 +10099,6 @@
       <c r="DI39" t="n">
         <v>7</v>
       </c>
-      <c r="DK39" t="inlineStr"/>
-      <c r="DL39" t="inlineStr"/>
-      <c r="DM39" t="inlineStr"/>
-      <c r="DN39" t="inlineStr"/>
-      <c r="DO39" t="inlineStr"/>
-      <c r="DP39" t="inlineStr"/>
-      <c r="DQ39" t="inlineStr"/>
-      <c r="DR39" t="inlineStr"/>
-      <c r="DS39" t="inlineStr"/>
-      <c r="DT39" t="inlineStr"/>
-      <c r="DU39" t="inlineStr"/>
-      <c r="DV39" t="inlineStr"/>
-      <c r="DW39" t="inlineStr"/>
-      <c r="DX39" t="inlineStr"/>
-      <c r="DY39" t="inlineStr"/>
-      <c r="DZ39" t="inlineStr"/>
-      <c r="EA39" t="inlineStr"/>
-      <c r="EB39" t="inlineStr"/>
-      <c r="EC39" t="inlineStr"/>
-      <c r="ED39" t="inlineStr"/>
-      <c r="EE39" t="inlineStr"/>
-      <c r="EF39" t="inlineStr"/>
-      <c r="EG39" t="inlineStr"/>
-      <c r="EH39" t="inlineStr"/>
-      <c r="EI39" t="inlineStr"/>
-      <c r="EJ39" t="inlineStr"/>
-      <c r="EK39" t="inlineStr"/>
-      <c r="EL39" t="inlineStr"/>
-      <c r="EM39" t="inlineStr"/>
-      <c r="EN39" t="inlineStr"/>
-      <c r="EO39" t="inlineStr"/>
-      <c r="EP39" t="inlineStr"/>
-      <c r="EQ39" t="inlineStr"/>
-      <c r="ER39" t="inlineStr"/>
-      <c r="ES39" t="inlineStr"/>
-      <c r="ET39" t="inlineStr"/>
-      <c r="EU39" t="inlineStr"/>
-      <c r="EV39" t="inlineStr"/>
-      <c r="EW39" t="inlineStr"/>
-      <c r="EX39" t="inlineStr"/>
-      <c r="EY39" t="inlineStr"/>
-      <c r="EZ39" t="inlineStr"/>
-      <c r="FA39" t="inlineStr"/>
-      <c r="FB39" t="inlineStr"/>
-      <c r="FC39" t="inlineStr"/>
-      <c r="FD39" t="inlineStr"/>
-      <c r="FE39" t="inlineStr"/>
-      <c r="FF39" t="inlineStr"/>
-      <c r="FG39" t="inlineStr"/>
-      <c r="FH39" t="inlineStr"/>
-      <c r="FI39" t="inlineStr"/>
-      <c r="FJ39" t="inlineStr"/>
-      <c r="FK39" t="inlineStr"/>
-      <c r="FL39" t="inlineStr"/>
-      <c r="FM39" t="inlineStr"/>
-      <c r="FN39" t="inlineStr"/>
-      <c r="FO39" t="inlineStr"/>
-      <c r="FP39" t="inlineStr"/>
-      <c r="FQ39" t="inlineStr"/>
-      <c r="FR39" t="inlineStr"/>
-      <c r="FS39" t="inlineStr"/>
-      <c r="FT39" t="inlineStr"/>
-      <c r="FU39" t="inlineStr"/>
-      <c r="FV39" t="inlineStr"/>
-      <c r="FW39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
